--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS73"/>
+  <dimension ref="A1:AU73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,85 +576,95 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -771,79 +781,85 @@
       <c r="AB2" t="n">
         <v>73803.44394403286</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AC2" t="n">
+        <v>81294.1482026843</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -960,79 +976,85 @@
       <c r="AB3" t="n">
         <v>78997.48254849644</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AC3" t="n">
+        <v>88521.56878975881</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -1149,79 +1171,85 @@
       <c r="AB4" t="n">
         <v>71542.00751306885</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC4" t="n">
+        <v>75267.70408349122</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -1338,79 +1366,85 @@
       <c r="AB5" t="n">
         <v>68818.43561866254</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" t="n">
+        <v>61185.68035905133</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -1527,79 +1561,85 @@
       <c r="AB6" t="n">
         <v>77619.79019554227</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AC6" t="n">
+        <v>71004.52192642381</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -1716,79 +1756,85 @@
       <c r="AB7" t="n">
         <v>77274.99406664487</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>67458.72060008254</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -1897,79 +1943,85 @@
       <c r="AB8" t="n">
         <v>66758.04335808533</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC8" t="n">
+        <v>57449.8068491096</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -2078,79 +2130,85 @@
       <c r="AB9" t="n">
         <v>50002.81321085845</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AC9" t="n">
+        <v>41885.47543003422</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -2259,79 +2317,85 @@
       <c r="AB10" t="n">
         <v>40418.33012384356</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v>43229.2029188603</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -2440,79 +2504,85 @@
       <c r="AB11" t="n">
         <v>55402.98970272272</v>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" t="n">
+        <v>48213.16022622869</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -2621,79 +2691,85 @@
       <c r="AB12" t="n">
         <v>34085.04355285467</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC12" t="n">
+        <v>27426.59370027565</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP12" t="n">
+      <c r="AR12" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -2802,79 +2878,85 @@
       <c r="AB13" t="n">
         <v>39943.28344039834</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AC13" t="n">
+        <v>-14392.2628519632</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>18.95</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>25.45</v>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
         <v>170.19</v>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP13" t="n">
+      <c r="AR13" t="n">
         <v>65.83</v>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -2991,79 +3073,85 @@
       <c r="AB14" t="n">
         <v>2727.340829452748</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC14" t="n">
+        <v>3054.302375338762</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP14" t="n">
+      <c r="AR14" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -3180,79 +3268,85 @@
       <c r="AB15" t="n">
         <v>2619.408711904272</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC15" t="n">
+        <v>3290.164585548875</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP15" t="n">
+      <c r="AR15" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -3361,79 +3455,85 @@
       <c r="AB16" t="n">
         <v>2675.125604527757</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" t="n">
+        <v>2974.271843661907</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP16" t="n">
+      <c r="AR16" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -3542,79 +3642,85 @@
       <c r="AB17" t="n">
         <v>3081.100290480659</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" t="n">
+        <v>3438.678234438343</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP17" t="n">
+      <c r="AR17" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -3723,79 +3829,85 @@
       <c r="AB18" t="n">
         <v>2904.849910064202</v>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AC18" t="n">
+        <v>3404.266734555329</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AI18" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP18" t="n">
+      <c r="AR18" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -3904,79 +4016,85 @@
       <c r="AB19" t="n">
         <v>2553.596679195836</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AC19" t="n">
+        <v>2985.425430319773</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP19" t="n">
+      <c r="AR19" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -4085,79 +4203,85 @@
       <c r="AB20" t="n">
         <v>1842.2209422325</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC20" t="n">
+        <v>2519.701371194611</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AJ20" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP20" t="n">
+      <c r="AR20" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -4266,79 +4390,85 @@
       <c r="AB21" t="n">
         <v>1312.699127751672</v>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AC21" t="n">
+        <v>2260.012389346572</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AI21" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP21" t="n">
+      <c r="AR21" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -4447,79 +4577,85 @@
       <c r="AB22" t="n">
         <v>1002.038422417025</v>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AC22" t="n">
+        <v>2285.144415567646</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP22" t="n">
+      <c r="AR22" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -4628,79 +4764,85 @@
       <c r="AB23" t="n">
         <v>1074.702749601023</v>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AC23" t="n">
+        <v>2581.481745044888</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP23" t="n">
+      <c r="AR23" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -4809,79 +4951,85 @@
       <c r="AB24" t="n">
         <v>1374.909087903633</v>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AC24" t="n">
+        <v>2133.518689864235</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AJ24" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP24" t="n">
+      <c r="AR24" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -4990,79 +5138,85 @@
       <c r="AB25" t="n">
         <v>1990.949773349393</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AC25" t="n">
+        <v>2153.249637176331</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>23.07</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AJ25" t="n">
         <v>15.98</v>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP25" t="n">
+      <c r="AR25" t="n">
         <v>48.56</v>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -5171,79 +5325,85 @@
       <c r="AB26" t="n">
         <v>4269.559696268457</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AC26" t="n">
+        <v>4654.373749496273</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AJ26" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP26" t="n">
+      <c r="AR26" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -5352,79 +5512,85 @@
       <c r="AB27" t="n">
         <v>4279.640989615835</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AC27" t="n">
+        <v>4688.128731167692</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AJ27" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK27" t="n">
+      <c r="AM27" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP27" t="n">
+      <c r="AR27" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -5533,79 +5699,85 @@
       <c r="AB28" t="n">
         <v>4272.202827582043</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AC28" t="n">
+        <v>4269.649048809515</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AJ28" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK28" t="n">
+      <c r="AM28" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP28" t="n">
+      <c r="AR28" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -5714,79 +5886,85 @@
       <c r="AB29" t="n">
         <v>4079.205559909919</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC29" t="n">
+        <v>3474.723154439789</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AJ29" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP29" t="n">
+      <c r="AR29" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -5895,79 +6073,85 @@
       <c r="AB30" t="n">
         <v>4174.547879711047</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC30" t="n">
+        <v>3130.265324217741</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP30" t="n">
+      <c r="AR30" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS30" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -6076,79 +6260,85 @@
       <c r="AB31" t="n">
         <v>3605.904186192417</v>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AC31" t="n">
+        <v>2085.058512368418</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AJ31" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AL31" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK31" t="n">
+      <c r="AM31" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP31" t="n">
+      <c r="AR31" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -6257,79 +6447,85 @@
       <c r="AB32" t="n">
         <v>3061.40490624811</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AC32" t="n">
+        <v>1395.350493603668</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AJ32" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AL32" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK32" t="n">
+      <c r="AM32" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP32" t="n">
+      <c r="AR32" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS32" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -6438,79 +6634,85 @@
       <c r="AB33" t="n">
         <v>3116.481830526211</v>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AC33" t="n">
+        <v>1807.117317719024</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ33" t="inlineStr">
+      <c r="AL33" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK33" t="n">
+      <c r="AM33" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP33" t="n">
+      <c r="AR33" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AU33" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -6619,79 +6821,85 @@
       <c r="AB34" t="n">
         <v>2543.354281259298</v>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AC34" t="n">
+        <v>1872.315678511506</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AI34" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AJ34" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI34" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ34" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK34" t="n">
+      <c r="AM34" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP34" t="n">
+      <c r="AR34" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -6800,79 +7008,85 @@
       <c r="AB35" t="n">
         <v>2801.016601164656</v>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AC35" t="n">
+        <v>2852.49995617879</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AI35" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AJ35" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK35" t="n">
+      <c r="AM35" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP35" t="n">
+      <c r="AR35" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -6981,79 +7195,85 @@
       <c r="AB36" t="n">
         <v>1853.120341478124</v>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AC36" t="n">
+        <v>1438.236767712465</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AI36" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI36" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ36" t="inlineStr">
+      <c r="AL36" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK36" t="n">
+      <c r="AM36" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP36" t="n">
+      <c r="AR36" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -7162,79 +7382,85 @@
       <c r="AB37" t="n">
         <v>1913.955067393172</v>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AC37" t="n">
+        <v>1789.491268489455</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AI37" t="n">
         <v>12.84</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AJ37" t="n">
         <v>52.71</v>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AL37" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK37" t="n">
+      <c r="AM37" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP37" t="n">
+      <c r="AR37" t="n">
         <v>26.26</v>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AU37" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -7343,79 +7569,85 @@
       <c r="AB38" t="n">
         <v>61873.49085836357</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AC38" t="n">
+        <v>54140.53762200741</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG38" t="n">
+      <c r="AI38" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AJ38" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI38" t="inlineStr">
+      <c r="AK38" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ38" t="inlineStr">
+      <c r="AL38" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK38" t="n">
+      <c r="AM38" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP38" t="n">
+      <c r="AR38" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS38" t="inlineStr">
+      <c r="AU38" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -7524,79 +7756,85 @@
       <c r="AB39" t="n">
         <v>13244.22727077726</v>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AC39" t="n">
+        <v>63720.40854388804</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG39" t="n">
+      <c r="AI39" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AJ39" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI39" t="inlineStr">
+      <c r="AK39" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ39" t="inlineStr">
+      <c r="AL39" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK39" t="n">
+      <c r="AM39" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP39" t="n">
+      <c r="AR39" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -7705,79 +7943,85 @@
       <c r="AB40" t="n">
         <v>17103.03718641809</v>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AC40" t="n">
+        <v>50958.86580370485</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AG40" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AH40" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG40" t="n">
+      <c r="AI40" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AJ40" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI40" t="inlineStr">
+      <c r="AK40" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ40" t="inlineStr">
+      <c r="AL40" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK40" t="n">
+      <c r="AM40" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AN40" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AO40" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP40" t="n">
+      <c r="AR40" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -7886,79 +8130,85 @@
       <c r="AB41" t="n">
         <v>7172.673072153784</v>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AC41" t="n">
+        <v>29233.00456675639</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AG41" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AH41" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG41" t="n">
+      <c r="AI41" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AJ41" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI41" t="inlineStr">
+      <c r="AK41" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ41" t="inlineStr">
+      <c r="AL41" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK41" t="n">
+      <c r="AM41" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP41" t="n">
+      <c r="AR41" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AU41" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -8067,79 +8317,85 @@
       <c r="AB42" t="n">
         <v>24963.88261068378</v>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AC42" t="n">
+        <v>7991.862548868067</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG42" t="n">
+      <c r="AI42" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AJ42" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI42" t="inlineStr">
+      <c r="AK42" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ42" t="inlineStr">
+      <c r="AL42" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK42" t="n">
+      <c r="AM42" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AN42" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP42" t="n">
+      <c r="AR42" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS42" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -8248,79 +8504,85 @@
       <c r="AB43" t="n">
         <v>59792.10138471469</v>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AC43" t="n">
+        <v>53097.67938431961</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE43" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AH43" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG43" t="n">
+      <c r="AI43" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AJ43" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI43" t="inlineStr">
+      <c r="AK43" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ43" t="inlineStr">
+      <c r="AL43" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK43" t="n">
+      <c r="AM43" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP43" t="n">
+      <c r="AR43" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AU43" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -8429,79 +8691,85 @@
       <c r="AB44" t="n">
         <v>26494.76901201443</v>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AC44" t="n">
+        <v>9072.521920612813</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE44" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE44" t="inlineStr">
+      <c r="AG44" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AH44" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG44" t="n">
+      <c r="AI44" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AJ44" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI44" t="inlineStr">
+      <c r="AK44" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ44" t="inlineStr">
+      <c r="AL44" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK44" t="n">
+      <c r="AM44" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AN44" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AO44" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP44" t="n">
+      <c r="AR44" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AU44" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -8610,79 +8878,85 @@
       <c r="AB45" t="n">
         <v>-30053.4211696439</v>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AC45" t="n">
+        <v>-35402.99329152833</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="AG45" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AH45" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG45" t="n">
+      <c r="AI45" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AJ45" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI45" t="inlineStr">
+      <c r="AK45" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ45" t="inlineStr">
+      <c r="AL45" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK45" t="n">
+      <c r="AM45" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AO45" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP45" t="n">
+      <c r="AR45" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS45" t="inlineStr">
+      <c r="AU45" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -8791,79 +9065,85 @@
       <c r="AB46" t="n">
         <v>-59017.01510581504</v>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AC46" t="n">
+        <v>-40982.08413441171</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AH46" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG46" t="n">
+      <c r="AI46" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AJ46" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI46" t="inlineStr">
+      <c r="AK46" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ46" t="inlineStr">
+      <c r="AL46" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK46" t="n">
+      <c r="AM46" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AO46" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP46" t="n">
+      <c r="AR46" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS46" t="inlineStr">
+      <c r="AU46" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -8972,79 +9252,85 @@
       <c r="AB47" t="n">
         <v>-49445.54396505311</v>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AC47" t="n">
+        <v>-31697.31682650757</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AH47" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG47" t="n">
+      <c r="AI47" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AJ47" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI47" t="inlineStr">
+      <c r="AK47" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ47" t="inlineStr">
+      <c r="AL47" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK47" t="n">
+      <c r="AM47" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AO47" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP47" t="n">
+      <c r="AR47" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -9153,79 +9439,85 @@
       <c r="AB48" t="n">
         <v>-29952.14611676432</v>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AC48" t="n">
+        <v>-7389.616634169867</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG48" t="n">
+      <c r="AI48" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AJ48" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI48" t="inlineStr">
+      <c r="AK48" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ48" t="inlineStr">
+      <c r="AL48" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK48" t="n">
+      <c r="AM48" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL48" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AO48" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP48" t="n">
+      <c r="AR48" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AU48" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -9334,79 +9626,85 @@
       <c r="AB49" t="n">
         <v>62328.81283162707</v>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AC49" t="n">
+        <v>67539.79888184447</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="inlineStr">
         <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AG49" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AH49" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG49" t="n">
+      <c r="AI49" t="n">
         <v>25.9</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AJ49" t="n">
         <v>17.12</v>
       </c>
-      <c r="AI49" t="inlineStr">
+      <c r="AK49" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ49" t="inlineStr">
+      <c r="AL49" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK49" t="n">
+      <c r="AM49" t="n">
         <v>16.08</v>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP49" t="n">
+      <c r="AR49" t="n">
         <v>28.37</v>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -9523,77 +9821,83 @@
       <c r="AB50" t="n">
         <v>2870.296151967598</v>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AC50" t="n">
+        <v>3485.749417270266</v>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AG50" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AH50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AI50" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr">
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ50" t="inlineStr">
+      <c r="AL50" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK50" t="n">
+      <c r="AM50" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AO50" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP50" t="n">
+      <c r="AR50" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -9710,77 +10014,83 @@
       <c r="AB51" t="n">
         <v>3358.308056149704</v>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AC51" t="n">
+        <v>3488.341726379455</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AH51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AI51" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr">
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ51" t="inlineStr">
+      <c r="AL51" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK51" t="n">
+      <c r="AM51" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AO51" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP51" t="n">
+      <c r="AR51" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS51" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -9897,77 +10207,83 @@
       <c r="AB52" t="n">
         <v>3463.780737864336</v>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AC52" t="n">
+        <v>3493.27825974399</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AG52" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AH52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AI52" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr">
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ52" t="inlineStr">
+      <c r="AL52" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK52" t="n">
+      <c r="AM52" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AN52" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AO52" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP52" t="n">
+      <c r="AR52" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -10084,77 +10400,83 @@
       <c r="AB53" t="n">
         <v>3513.079133751473</v>
       </c>
-      <c r="AC53" t="inlineStr">
+      <c r="AC53" t="n">
+        <v>3486.731133884573</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE53" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="AG53" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AH53" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AI53" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr">
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ53" t="inlineStr">
+      <c r="AL53" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK53" t="n">
+      <c r="AM53" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL53" t="inlineStr">
+      <c r="AN53" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AO53" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP53" t="n">
+      <c r="AR53" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AU53" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -10271,77 +10593,83 @@
       <c r="AB54" t="n">
         <v>3835.489538507438</v>
       </c>
-      <c r="AC54" t="inlineStr">
+      <c r="AC54" t="n">
+        <v>3875.557508281873</v>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AH54" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AI54" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr">
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ54" t="inlineStr">
+      <c r="AL54" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK54" t="n">
+      <c r="AM54" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL54" t="inlineStr">
+      <c r="AN54" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AO54" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP54" t="n">
+      <c r="AR54" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -10458,77 +10786,83 @@
       <c r="AB55" t="n">
         <v>3002.445336721386</v>
       </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AC55" t="n">
+        <v>3035.091596640866</v>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE55" t="inlineStr">
+      <c r="AG55" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AH55" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AI55" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr">
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ55" t="inlineStr">
+      <c r="AL55" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK55" t="n">
+      <c r="AM55" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL55" t="inlineStr">
+      <c r="AN55" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AO55" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP55" t="n">
+      <c r="AR55" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -10645,77 +10979,83 @@
       <c r="AB56" t="n">
         <v>2240.840690455258</v>
       </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AC56" t="n">
+        <v>2294.124669672509</v>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AH56" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AI56" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr">
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ56" t="inlineStr">
+      <c r="AL56" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK56" t="n">
+      <c r="AM56" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL56" t="inlineStr">
+      <c r="AN56" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AO56" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP56" t="n">
+      <c r="AR56" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -10832,77 +11172,83 @@
       <c r="AB57" t="n">
         <v>1574.038754287835</v>
       </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AC57" t="n">
+        <v>1662.742613876243</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE57" t="inlineStr">
+      <c r="AG57" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AH57" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AI57" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr">
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ57" t="inlineStr">
+      <c r="AL57" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK57" t="n">
+      <c r="AM57" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL57" t="inlineStr">
+      <c r="AN57" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
+      <c r="AO57" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AQ57" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP57" t="n">
+      <c r="AR57" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS57" t="inlineStr">
+      <c r="AU57" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -11011,77 +11357,83 @@
       <c r="AB58" t="n">
         <v>1373.521386801094</v>
       </c>
-      <c r="AC58" t="inlineStr">
+      <c r="AC58" t="n">
+        <v>734.4031590346</v>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD58" t="inlineStr">
+      <c r="AF58" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE58" t="inlineStr">
+      <c r="AG58" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF58" t="inlineStr">
+      <c r="AH58" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AI58" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr">
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ58" t="inlineStr">
+      <c r="AL58" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK58" t="n">
+      <c r="AM58" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL58" t="inlineStr">
+      <c r="AN58" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM58" t="inlineStr">
+      <c r="AO58" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN58" t="inlineStr">
+      <c r="AP58" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO58" t="inlineStr">
+      <c r="AQ58" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP58" t="n">
+      <c r="AR58" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -11190,77 +11542,83 @@
       <c r="AB59" t="n">
         <v>1637.284336943342</v>
       </c>
-      <c r="AC59" t="inlineStr">
+      <c r="AC59" t="n">
+        <v>-776.7129456884313</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD59" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE59" t="inlineStr">
+      <c r="AG59" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF59" t="inlineStr">
+      <c r="AH59" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AI59" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr">
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ59" t="inlineStr">
+      <c r="AL59" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK59" t="n">
+      <c r="AM59" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL59" t="inlineStr">
+      <c r="AN59" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
+      <c r="AO59" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN59" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr">
+      <c r="AQ59" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP59" t="n">
+      <c r="AR59" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS59" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -11369,77 +11727,83 @@
       <c r="AB60" t="n">
         <v>1977.839477814112</v>
       </c>
-      <c r="AC60" t="inlineStr">
+      <c r="AC60" t="n">
+        <v>-658.2188086039474</v>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD60" t="inlineStr">
+      <c r="AF60" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE60" t="inlineStr">
+      <c r="AG60" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF60" t="inlineStr">
+      <c r="AH60" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AI60" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr">
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ60" t="inlineStr">
+      <c r="AL60" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK60" t="n">
+      <c r="AM60" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL60" t="inlineStr">
+      <c r="AN60" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
+      <c r="AO60" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN60" t="inlineStr">
+      <c r="AP60" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr">
+      <c r="AQ60" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP60" t="n">
+      <c r="AR60" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS60" t="inlineStr">
+      <c r="AU60" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -11548,77 +11912,83 @@
       <c r="AB61" t="n">
         <v>943.5544499391648</v>
       </c>
-      <c r="AC61" t="inlineStr">
+      <c r="AC61" t="n">
+        <v>-1954.387627877336</v>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="inlineStr">
         <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD61" t="inlineStr">
+      <c r="AF61" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE61" t="inlineStr">
+      <c r="AG61" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF61" t="inlineStr">
+      <c r="AH61" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AI61" t="n">
         <v>3.97</v>
       </c>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr">
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ61" t="inlineStr">
+      <c r="AL61" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK61" t="n">
+      <c r="AM61" t="n">
         <v>86.14</v>
       </c>
-      <c r="AL61" t="inlineStr">
+      <c r="AN61" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM61" t="inlineStr">
+      <c r="AO61" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN61" t="inlineStr">
+      <c r="AP61" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr">
+      <c r="AQ61" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP61" t="n">
+      <c r="AR61" t="n">
         <v>24.34</v>
       </c>
-      <c r="AQ61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS61" t="inlineStr">
+      <c r="AU61" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -11727,79 +12097,85 @@
       <c r="AB62" t="n">
         <v>105996.5862186137</v>
       </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AC62" t="n">
+        <v>111177.8596663922</v>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr">
+      <c r="AF62" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE62" t="inlineStr">
+      <c r="AG62" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF62" t="inlineStr">
+      <c r="AH62" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AI62" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AJ62" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AK62" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ62" t="inlineStr">
+      <c r="AL62" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK62" t="n">
+      <c r="AM62" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL62" t="inlineStr">
+      <c r="AN62" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
+      <c r="AO62" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN62" t="inlineStr">
+      <c r="AP62" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr">
+      <c r="AQ62" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP62" t="n">
+      <c r="AR62" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS62" t="inlineStr">
+      <c r="AU62" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -11908,79 +12284,85 @@
       <c r="AB63" t="n">
         <v>86280.06048908403</v>
       </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AC63" t="n">
+        <v>93253.25268321743</v>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE63" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF63" t="inlineStr">
+      <c r="AH63" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG63" t="n">
+      <c r="AI63" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AJ63" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI63" t="inlineStr">
+      <c r="AK63" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ63" t="inlineStr">
+      <c r="AL63" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK63" t="n">
+      <c r="AM63" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL63" t="inlineStr">
+      <c r="AN63" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
+      <c r="AO63" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN63" t="inlineStr">
+      <c r="AP63" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr">
+      <c r="AQ63" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP63" t="n">
+      <c r="AR63" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS63" t="inlineStr">
+      <c r="AU63" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -12089,79 +12471,85 @@
       <c r="AB64" t="n">
         <v>80360.45054005111</v>
       </c>
-      <c r="AC64" t="inlineStr">
+      <c r="AC64" t="n">
+        <v>85673.56735890014</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE64" t="inlineStr">
+      <c r="AG64" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF64" t="inlineStr">
+      <c r="AH64" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG64" t="n">
+      <c r="AI64" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AJ64" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI64" t="inlineStr">
+      <c r="AK64" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ64" t="inlineStr">
+      <c r="AL64" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK64" t="n">
+      <c r="AM64" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL64" t="inlineStr">
+      <c r="AN64" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
+      <c r="AO64" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN64" t="inlineStr">
+      <c r="AP64" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AQ64" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP64" t="n">
+      <c r="AR64" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS64" t="inlineStr">
+      <c r="AU64" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -12270,79 +12658,85 @@
       <c r="AB65" t="n">
         <v>73848.61345346979</v>
       </c>
-      <c r="AC65" t="inlineStr">
+      <c r="AC65" t="n">
+        <v>73097.6756333606</v>
+      </c>
+      <c r="AD65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE65" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE65" t="inlineStr">
+      <c r="AG65" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF65" t="inlineStr">
+      <c r="AH65" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG65" t="n">
+      <c r="AI65" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AJ65" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI65" t="inlineStr">
+      <c r="AK65" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ65" t="inlineStr">
+      <c r="AL65" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK65" t="n">
+      <c r="AM65" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL65" t="inlineStr">
+      <c r="AN65" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM65" t="inlineStr">
+      <c r="AO65" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN65" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr">
+      <c r="AQ65" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP65" t="n">
+      <c r="AR65" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS65" t="inlineStr">
+      <c r="AU65" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -12451,79 +12845,85 @@
       <c r="AB66" t="n">
         <v>71623.5421561933</v>
       </c>
-      <c r="AC66" t="inlineStr">
+      <c r="AC66" t="n">
+        <v>72149.28259518594</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE66" t="inlineStr">
+      <c r="AG66" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF66" t="inlineStr">
+      <c r="AH66" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG66" t="n">
+      <c r="AI66" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AJ66" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI66" t="inlineStr">
+      <c r="AK66" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ66" t="inlineStr">
+      <c r="AL66" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK66" t="n">
+      <c r="AM66" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL66" t="inlineStr">
+      <c r="AN66" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
+      <c r="AO66" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
+      <c r="AP66" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO66" t="inlineStr">
+      <c r="AQ66" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP66" t="n">
+      <c r="AR66" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -12632,79 +13032,85 @@
       <c r="AB67" t="n">
         <v>65324.55773290776</v>
       </c>
-      <c r="AC67" t="inlineStr">
+      <c r="AC67" t="n">
+        <v>62708.21313033884</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE67" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD67" t="inlineStr">
+      <c r="AF67" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE67" t="inlineStr">
+      <c r="AG67" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF67" t="inlineStr">
+      <c r="AH67" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG67" t="n">
+      <c r="AI67" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AJ67" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI67" t="inlineStr">
+      <c r="AK67" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ67" t="inlineStr">
+      <c r="AL67" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK67" t="n">
+      <c r="AM67" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL67" t="inlineStr">
+      <c r="AN67" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM67" t="inlineStr">
+      <c r="AO67" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN67" t="inlineStr">
+      <c r="AP67" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO67" t="inlineStr">
+      <c r="AQ67" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP67" t="n">
+      <c r="AR67" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -12813,79 +13219,85 @@
       <c r="AB68" t="n">
         <v>45768.94657953141</v>
       </c>
-      <c r="AC68" t="inlineStr">
+      <c r="AC68" t="n">
+        <v>46513.35062108513</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr">
+      <c r="AF68" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE68" t="inlineStr">
+      <c r="AG68" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF68" t="inlineStr">
+      <c r="AH68" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG68" t="n">
+      <c r="AI68" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AJ68" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI68" t="inlineStr">
+      <c r="AK68" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ68" t="inlineStr">
+      <c r="AL68" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK68" t="n">
+      <c r="AM68" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL68" t="inlineStr">
+      <c r="AN68" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
+      <c r="AO68" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN68" t="inlineStr">
+      <c r="AP68" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO68" t="inlineStr">
+      <c r="AQ68" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP68" t="n">
+      <c r="AR68" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS68" t="inlineStr">
+      <c r="AU68" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -12994,79 +13406,85 @@
       <c r="AB69" t="n">
         <v>44681.29909704954</v>
       </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AC69" t="n">
+        <v>48693.18293149463</v>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AF69" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE69" t="inlineStr">
+      <c r="AG69" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF69" t="inlineStr">
+      <c r="AH69" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG69" t="n">
+      <c r="AI69" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AJ69" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI69" t="inlineStr">
+      <c r="AK69" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ69" t="inlineStr">
+      <c r="AL69" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK69" t="n">
+      <c r="AM69" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL69" t="inlineStr">
+      <c r="AN69" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
+      <c r="AO69" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN69" t="inlineStr">
+      <c r="AP69" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO69" t="inlineStr">
+      <c r="AQ69" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP69" t="n">
+      <c r="AR69" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS69" t="inlineStr">
+      <c r="AU69" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -13175,79 +13593,85 @@
       <c r="AB70" t="n">
         <v>36852.86172063168</v>
       </c>
-      <c r="AC70" t="inlineStr">
+      <c r="AC70" t="n">
+        <v>49663.76180878771</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD70" t="inlineStr">
+      <c r="AF70" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE70" t="inlineStr">
+      <c r="AG70" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF70" t="inlineStr">
+      <c r="AH70" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG70" t="n">
+      <c r="AI70" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH70" t="n">
+      <c r="AJ70" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI70" t="inlineStr">
+      <c r="AK70" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ70" t="inlineStr">
+      <c r="AL70" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK70" t="n">
+      <c r="AM70" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL70" t="inlineStr">
+      <c r="AN70" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM70" t="inlineStr">
+      <c r="AO70" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN70" t="inlineStr">
+      <c r="AP70" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO70" t="inlineStr">
+      <c r="AQ70" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP70" t="n">
+      <c r="AR70" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS70" t="inlineStr">
+      <c r="AU70" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -13356,79 +13780,85 @@
       <c r="AB71" t="n">
         <v>52072.31513962098</v>
       </c>
-      <c r="AC71" t="inlineStr">
+      <c r="AC71" t="n">
+        <v>60928.79339031752</v>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE71" t="inlineStr">
+      <c r="AG71" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF71" t="inlineStr">
+      <c r="AH71" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG71" t="n">
+      <c r="AI71" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH71" t="n">
+      <c r="AJ71" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI71" t="inlineStr">
+      <c r="AK71" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ71" t="inlineStr">
+      <c r="AL71" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK71" t="n">
+      <c r="AM71" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL71" t="inlineStr">
+      <c r="AN71" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
+      <c r="AO71" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN71" t="inlineStr">
+      <c r="AP71" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO71" t="inlineStr">
+      <c r="AQ71" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP71" t="n">
+      <c r="AR71" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS71" t="inlineStr">
+      <c r="AU71" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -13537,79 +13967,85 @@
       <c r="AB72" t="n">
         <v>33544.60001252064</v>
       </c>
-      <c r="AC72" t="inlineStr">
+      <c r="AC72" t="n">
+        <v>44801.08615870825</v>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD72" t="inlineStr">
+      <c r="AF72" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE72" t="inlineStr">
+      <c r="AG72" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF72" t="inlineStr">
+      <c r="AH72" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG72" t="n">
+      <c r="AI72" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH72" t="n">
+      <c r="AJ72" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI72" t="inlineStr">
+      <c r="AK72" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ72" t="inlineStr">
+      <c r="AL72" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK72" t="n">
+      <c r="AM72" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL72" t="inlineStr">
+      <c r="AN72" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM72" t="inlineStr">
+      <c r="AO72" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN72" t="inlineStr">
+      <c r="AP72" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO72" t="inlineStr">
+      <c r="AQ72" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP72" t="n">
+      <c r="AR72" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS72" t="inlineStr">
+      <c r="AU72" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>
@@ -13718,79 +14154,85 @@
       <c r="AB73" t="n">
         <v>35382.48575213449</v>
       </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AC73" t="n">
+        <v>20274.91760772408</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AF73" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE73" t="inlineStr">
+      <c r="AG73" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF73" t="inlineStr">
+      <c r="AH73" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG73" t="n">
+      <c r="AI73" t="n">
         <v>11.71</v>
       </c>
-      <c r="AH73" t="n">
+      <c r="AJ73" t="n">
         <v>26.8</v>
       </c>
-      <c r="AI73" t="inlineStr">
+      <c r="AK73" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ73" t="inlineStr">
+      <c r="AL73" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK73" t="n">
+      <c r="AM73" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL73" t="inlineStr">
+      <c r="AN73" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM73" t="inlineStr">
+      <c r="AO73" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN73" t="inlineStr">
+      <c r="AP73" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr">
+      <c r="AQ73" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP73" t="n">
+      <c r="AR73" t="n">
         <v>22.73</v>
       </c>
-      <c r="AQ73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS73" t="inlineStr">
+      <c r="AU73" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -673,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D2" t="n">
-        <v>9057</v>
+        <v>9920</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -705,57 +705,57 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -767,25 +767,25 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>821.83</v>
+        <v>-428.23</v>
       </c>
       <c r="AB2" t="n">
-        <v>1024.77</v>
+        <v>814.35</v>
       </c>
       <c r="AC2" t="b">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.2</v>
+        <v>-1.53</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -804,14 +804,14 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI2" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ2" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="AM2" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,80 +877,80 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="D3" t="n">
-        <v>17560</v>
+        <v>9057</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1.76</v>
+        <v>-2.1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -962,25 +962,25 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>1394.35</v>
+        <v>821.83</v>
       </c>
       <c r="AB3" t="n">
-        <v>807.8</v>
+        <v>1024.77</v>
       </c>
       <c r="AC3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.73</v>
+        <v>-0.2</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -999,14 +999,14 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI3" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ3" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="AM3" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1063,7 +1063,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1072,80 +1072,80 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.79</v>
+        <v>1.49</v>
       </c>
       <c r="D4" t="n">
-        <v>8704</v>
+        <v>17560</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>164.5</v>
+        <v>167</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>3.24</v>
+        <v>-0.3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V4" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -1157,25 +1157,25 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>799.73</v>
+        <v>1394.35</v>
       </c>
       <c r="AB4" t="n">
-        <v>726.02</v>
+        <v>807.8</v>
       </c>
       <c r="AC4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI4" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
@@ -1214,11 +1214,11 @@
         </is>
       </c>
       <c r="AM4" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1267,53 +1267,53 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.46</v>
+        <v>-1.79</v>
       </c>
       <c r="D5" t="n">
-        <v>13645</v>
+        <v>8704</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>167.5</v>
+        <v>164.5</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1323,24 +1323,24 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -1352,25 +1352,25 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>-640.0700000000001</v>
+        <v>799.73</v>
       </c>
       <c r="AB5" t="n">
-        <v>652.95</v>
+        <v>726.02</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.98</v>
+        <v>0.1</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1389,14 +1389,14 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI5" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ5" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -1409,11 +1409,11 @@
         </is>
       </c>
       <c r="AM5" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
@@ -1453,7 +1453,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1462,80 +1462,80 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.89</v>
+        <v>-1.46</v>
       </c>
       <c r="D6" t="n">
-        <v>15638</v>
+        <v>13645</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="H6" t="n">
-        <v>170</v>
+        <v>167.5</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -1547,25 +1547,25 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>1228.7</v>
+        <v>-640.0700000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>626.71</v>
+        <v>652.95</v>
       </c>
       <c r="AC6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.96</v>
+        <v>-1.98</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI6" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ6" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AM6" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,80 +1657,80 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.29</v>
+        <v>0.89</v>
       </c>
       <c r="D7" t="n">
-        <v>46062</v>
+        <v>15638</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>65.38</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>168.5</v>
+        <v>170</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.88</v>
+        <v>-2.1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="V7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1742,25 +1742,25 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>1193.7</v>
+        <v>1228.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>598.13</v>
+        <v>626.71</v>
       </c>
       <c r="AC7" t="b">
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1779,14 +1779,14 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI7" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ7" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
@@ -1799,11 +1799,11 @@
         </is>
       </c>
       <c r="AM7" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1852,80 +1852,80 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.3</v>
+        <v>3.29</v>
       </c>
       <c r="D8" t="n">
-        <v>21314</v>
+        <v>46062</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>65.38</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H8" t="n">
-        <v>163</v>
+        <v>168.5</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>4.12</v>
+        <v>-1.2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-4.42</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="V8" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1937,25 +1937,25 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>-799.46</v>
+        <v>1193.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>251.14</v>
+        <v>598.13</v>
       </c>
       <c r="AC8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>-4.18</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1974,14 +1974,14 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI8" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ8" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
@@ -1994,11 +1994,11 @@
         </is>
       </c>
       <c r="AM8" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2047,80 +2047,80 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.47</v>
+        <v>-0.3</v>
       </c>
       <c r="D9" t="n">
-        <v>39936</v>
+        <v>21314</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>56.69</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>163.5</v>
+        <v>163</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>3.82</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>-4.42</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -2132,25 +2132,25 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>643.9299999999999</v>
+        <v>-799.46</v>
       </c>
       <c r="AB9" t="n">
-        <v>903.41</v>
+        <v>251.14</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.29</v>
+        <v>-4.18</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2169,14 +2169,14 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI9" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ9" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
@@ -2189,11 +2189,11 @@
         </is>
       </c>
       <c r="AM9" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -2233,7 +2233,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2242,102 +2242,110 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.93</v>
+        <v>-1.47</v>
       </c>
       <c r="D10" t="n">
-        <v>45282</v>
+        <v>39936</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>56.69</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>166</v>
+        <v>163.5</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-2.85</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-6.24</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>1123.56</v>
+        <v>643.9299999999999</v>
       </c>
       <c r="AB10" t="n">
-        <v>1144.67</v>
+        <v>903.41</v>
       </c>
       <c r="AC10" t="b">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.02</v>
+        <v>-0.29</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2356,14 +2364,14 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI10" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ10" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -2376,11 +2384,11 @@
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -2420,7 +2428,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2429,53 +2437,53 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.66</v>
+        <v>9.93</v>
       </c>
       <c r="D11" t="n">
-        <v>14873</v>
+        <v>45282</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>11.18</v>
+        <v>0.3</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2485,24 +2493,24 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-4.56</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-7.09</t>
+          <t>-6.24</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -2511,20 +2519,20 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>-850.99</v>
+        <v>1123.56</v>
       </c>
       <c r="AB11" t="n">
-        <v>1039.8</v>
+        <v>1144.67</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>-1.82</v>
+        <v>-0.02</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2543,14 +2551,14 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI11" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ11" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -2563,11 +2571,11 @@
         </is>
       </c>
       <c r="AM11" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -2595,7 +2603,7 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
@@ -2607,7 +2615,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2616,80 +2624,80 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="D12" t="n">
-        <v>16548</v>
+        <v>14873</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>23.49</t>
+          <t>21.11</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>148.5</v>
+        <v>151</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>12.65</v>
+        <v>9.31</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-5.15</t>
+          <t>-4.56</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-7.72</t>
+          <t>-7.09</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="V12" t="n">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -2698,20 +2706,20 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>-842.26</v>
+        <v>-850.99</v>
       </c>
       <c r="AB12" t="n">
-        <v>1113.56</v>
+        <v>1039.8</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1.76</v>
+        <v>-1.82</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2730,14 +2738,14 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI12" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ12" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
@@ -2750,11 +2758,11 @@
         </is>
       </c>
       <c r="AM12" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2794,7 +2802,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2803,35 +2811,35 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11605</v>
+        <v>16548</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16.47</t>
+          <t>23.49</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>12.65</v>
+        <v>10.81</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2840,16 +2848,16 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2864,19 +2872,19 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-5.57</t>
+          <t>-5.15</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-8.36</t>
+          <t>-7.72</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="V13" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -2885,20 +2893,20 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>874.8</v>
+        <v>-842.26</v>
       </c>
       <c r="AB13" t="n">
-        <v>1101.69</v>
+        <v>1113.56</v>
       </c>
       <c r="AC13" t="b">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.21</v>
+        <v>-1.76</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2917,14 +2925,14 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI13" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ13" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -2937,11 +2945,11 @@
         </is>
       </c>
       <c r="AM13" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2981,7 +2989,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2990,53 +2998,53 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-5.43</v>
+        <v>2.09</v>
       </c>
       <c r="D14" t="n">
-        <v>16705</v>
+        <v>11605</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>16.47</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="H14" t="n">
-        <v>145.5</v>
+        <v>148.5</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>14.41</v>
+        <v>10.81</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3051,41 +3059,41 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-6.03</t>
+          <t>-5.57</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>-8.36</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="W14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>1103.47</v>
+        <v>874.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>881.34</v>
+        <v>1101.69</v>
       </c>
       <c r="AC14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.25</v>
+        <v>-0.21</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3104,14 +3112,14 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI14" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ14" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
@@ -3124,11 +3132,11 @@
         </is>
       </c>
       <c r="AM14" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -3168,7 +3176,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3177,80 +3185,80 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.63</v>
+        <v>-5.43</v>
       </c>
       <c r="D15" t="n">
-        <v>16910</v>
+        <v>16705</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>23.71</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="H15" t="n">
-        <v>154</v>
+        <v>145.5</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>9.41</v>
+        <v>12.61</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-6.23</t>
+          <t>-6.03</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-9.81</t>
+          <t>-9.06</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="W15" t="b">
         <v>1</v>
@@ -3259,20 +3267,20 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>1165.39</v>
+        <v>1103.47</v>
       </c>
       <c r="AB15" t="n">
-        <v>810.12</v>
+        <v>881.34</v>
       </c>
       <c r="AC15" t="b">
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3291,14 +3299,14 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI15" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ15" t="n">
-        <v>37.28</v>
+        <v>36.51</v>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
@@ -3311,11 +3319,11 @@
         </is>
       </c>
       <c r="AM15" t="n">
-        <v>61.28</v>
+        <v>60.24</v>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -3343,7 +3351,7 @@
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
@@ -3355,7 +3363,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3364,22 +3372,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.24</v>
+        <v>4.36</v>
       </c>
       <c r="D16" t="n">
-        <v>59784.492</v>
+        <v>178996.807</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>54.27</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H16" t="n">
-        <v>83.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -3387,17 +3395,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -3405,39 +3413,39 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V16" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -3449,25 +3457,25 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>60973.17</v>
+        <v>71451.41</v>
       </c>
       <c r="AB16" t="n">
-        <v>62920.57</v>
+        <v>74695.83</v>
       </c>
       <c r="AC16" t="b">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -3486,14 +3494,14 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI16" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
@@ -3506,11 +3514,11 @@
         </is>
       </c>
       <c r="AM16" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -3550,7 +3558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3559,35 +3567,35 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="D17" t="n">
-        <v>62501.355</v>
+        <v>59784.492</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="H17" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-0.24</v>
+        <v>4.14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3600,12 +3608,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3615,24 +3623,24 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="V17" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
@@ -3644,25 +3652,25 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>80601.03</v>
+        <v>60973.17</v>
       </c>
       <c r="AB17" t="n">
-        <v>66234.94</v>
+        <v>62920.57</v>
       </c>
       <c r="AC17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3681,14 +3689,14 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI17" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
@@ -3701,11 +3709,11 @@
         </is>
       </c>
       <c r="AM17" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -3745,7 +3753,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3754,35 +3762,35 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.83</v>
+        <v>0.24</v>
       </c>
       <c r="D18" t="n">
-        <v>115578.478</v>
+        <v>62501.355</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3795,39 +3803,39 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="V18" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -3839,25 +3847,25 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>86481.75</v>
+        <v>80601.03</v>
       </c>
       <c r="AB18" t="n">
-        <v>63133.06</v>
+        <v>66234.94</v>
       </c>
       <c r="AC18" t="b">
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3876,14 +3884,14 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI18" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
@@ -3896,11 +3904,11 @@
         </is>
       </c>
       <c r="AM18" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -3940,7 +3948,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3949,40 +3957,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.62</v>
+        <v>-0.83</v>
       </c>
       <c r="D19" t="n">
-        <v>235712.727</v>
+        <v>115578.478</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H19" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-0.84</v>
+        <v>4.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -3990,39 +3998,39 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V19" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -4034,25 +4042,25 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>98357.86</v>
+        <v>86481.75</v>
       </c>
       <c r="AB19" t="n">
-        <v>69370.52</v>
+        <v>63133.06</v>
       </c>
       <c r="AC19" t="b">
         <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4071,14 +4079,14 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI19" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
@@ -4091,11 +4099,11 @@
         </is>
       </c>
       <c r="AM19" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -4135,7 +4143,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4144,40 +4152,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.12</v>
+        <v>5.62</v>
       </c>
       <c r="D20" t="n">
-        <v>104700.664</v>
+        <v>235712.727</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="H20" t="n">
-        <v>79.5</v>
+        <v>84</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>4.56</v>
+        <v>3.34</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -4185,39 +4193,39 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="V20" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -4229,25 +4237,25 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>77805.08</v>
+        <v>98357.86</v>
       </c>
       <c r="AB20" t="n">
-        <v>55558.31</v>
+        <v>69370.52</v>
       </c>
       <c r="AC20" t="b">
         <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4266,14 +4274,14 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI20" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
@@ -4286,11 +4294,11 @@
         </is>
       </c>
       <c r="AM20" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -4330,7 +4338,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4339,35 +4347,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.78</v>
+        <v>0.12</v>
       </c>
       <c r="D21" t="n">
-        <v>112713.378</v>
+        <v>104700.664</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>34.18</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>1.31</v>
       </c>
       <c r="H21" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>4.68</v>
+        <v>8.52</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4380,39 +4388,39 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>28.74</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V21" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
@@ -4424,25 +4432,25 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>64809.48</v>
+        <v>77805.08</v>
       </c>
       <c r="AB21" t="n">
-        <v>45623.98</v>
+        <v>55558.31</v>
       </c>
       <c r="AC21" t="b">
         <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -4461,14 +4469,14 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI21" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ21" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
@@ -4481,11 +4489,11 @@
         </is>
       </c>
       <c r="AM21" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -4525,7 +4533,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4534,40 +4542,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.95</v>
+        <v>1.78</v>
       </c>
       <c r="D22" t="n">
-        <v>129755.714</v>
+        <v>112713.378</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>39.34</t>
+          <t>34.18</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="H22" t="n">
-        <v>78</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>6.36</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -4575,7 +4583,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4585,29 +4593,29 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="V22" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
@@ -4619,25 +4627,25 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>47724.31</v>
+        <v>64809.48</v>
       </c>
       <c r="AB22" t="n">
-        <v>35880.88</v>
+        <v>45623.98</v>
       </c>
       <c r="AC22" t="b">
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -4656,14 +4664,14 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI22" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -4676,11 +4684,11 @@
         </is>
       </c>
       <c r="AM22" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -4720,7 +4728,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4729,40 +4737,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.96</v>
+        <v>6.95</v>
       </c>
       <c r="D23" t="n">
-        <v>18225.738</v>
+        <v>129755.714</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>39.34</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H23" t="n">
-        <v>72.5</v>
+        <v>78</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>12.97</v>
+        <v>10.24</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -4770,39 +4778,39 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="V23" t="n">
-        <v>-18</v>
+        <v>31</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
@@ -4814,25 +4822,25 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>22191.7</v>
+        <v>47724.31</v>
       </c>
       <c r="AB23" t="n">
-        <v>9771.34</v>
+        <v>35880.88</v>
       </c>
       <c r="AC23" t="b">
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.27</v>
+        <v>0.33</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -4851,14 +4859,14 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI23" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -4871,11 +4879,11 @@
         </is>
       </c>
       <c r="AM23" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -4903,7 +4911,7 @@
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
@@ -4915,7 +4923,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4924,35 +4932,35 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.83</v>
+        <v>0.96</v>
       </c>
       <c r="D24" t="n">
-        <v>20986.35</v>
+        <v>18225.738</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H24" t="n">
-        <v>71.8</v>
+        <v>72.5</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>13.81</v>
+        <v>16.57</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4965,39 +4973,39 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>21</v>
       </c>
       <c r="V24" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
@@ -5009,25 +5017,25 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>-7051.92</v>
+        <v>22191.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>-12837.16</v>
+        <v>9771.34</v>
       </c>
       <c r="AC24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.45</v>
+        <v>1.27</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -5046,14 +5054,14 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI24" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
@@ -5066,11 +5074,11 @@
         </is>
       </c>
       <c r="AM24" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -5110,7 +5118,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5119,40 +5127,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.71</v>
+        <v>1.83</v>
       </c>
       <c r="D25" t="n">
-        <v>12154.124</v>
+        <v>20986.35</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>70.5</v>
+        <v>71.8</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>15.37</v>
+        <v>17.38</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -5160,39 +5168,39 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>
@@ -5204,25 +5212,25 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>10946.32</v>
+        <v>-7051.92</v>
       </c>
       <c r="AB25" t="n">
-        <v>-11678.68</v>
+        <v>-12837.16</v>
       </c>
       <c r="AC25" t="b">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.94</v>
+        <v>0.45</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -5241,14 +5249,14 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI25" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
@@ -5261,11 +5269,11 @@
         </is>
       </c>
       <c r="AM25" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -5305,7 +5313,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5314,40 +5322,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.28</v>
+        <v>-0.71</v>
       </c>
       <c r="D26" t="n">
-        <v>9898.530000000001</v>
+        <v>12154.124</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>71</v>
+        <v>70.5</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>14.77</v>
+        <v>18.87</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -5355,12 +5363,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -5370,24 +5378,24 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="V26" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="W26" t="b">
         <v>0</v>
@@ -5399,25 +5407,25 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>-6097.07</v>
+        <v>10946.32</v>
       </c>
       <c r="AB26" t="n">
-        <v>-15261.97</v>
+        <v>-11678.68</v>
       </c>
       <c r="AC26" t="b">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.6</v>
+        <v>1.94</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -5436,14 +5444,14 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI26" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
@@ -5456,11 +5464,11 @@
         </is>
       </c>
       <c r="AM26" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -5488,7 +5496,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
@@ -5500,7 +5508,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5509,35 +5517,35 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.13</v>
+        <v>-0.28</v>
       </c>
       <c r="D27" t="n">
-        <v>16725.328</v>
+        <v>9898.530000000001</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>71.2</v>
+        <v>71</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>14.53</v>
+        <v>18.3</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5550,7 +5558,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -5565,24 +5573,24 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V27" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="W27" t="b">
         <v>0</v>
@@ -5594,25 +5602,25 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>17241.41</v>
+        <v>-6097.07</v>
       </c>
       <c r="AB27" t="n">
-        <v>-19593.52</v>
+        <v>-15261.97</v>
       </c>
       <c r="AC27" t="b">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.88</v>
+        <v>0.6</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -5631,14 +5639,14 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI27" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
@@ -5651,11 +5659,11 @@
         </is>
       </c>
       <c r="AM27" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -5695,7 +5703,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5704,40 +5712,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.7</v>
+        <v>1.13</v>
       </c>
       <c r="D28" t="n">
-        <v>19624.622</v>
+        <v>16725.328</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.40000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>15.49</v>
+        <v>18.07</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -5745,7 +5753,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -5755,32 +5763,32 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="W28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -5789,25 +5797,25 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>-17364.15</v>
+        <v>17241.41</v>
       </c>
       <c r="AB28" t="n">
-        <v>-8084.39</v>
+        <v>-19593.52</v>
       </c>
       <c r="AC28" t="b">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>-1.15</v>
+        <v>1.88</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -5826,14 +5834,14 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI28" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
@@ -5846,11 +5854,11 @@
         </is>
       </c>
       <c r="AM28" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -5878,7 +5886,7 @@
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
@@ -5890,7 +5898,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5899,40 +5907,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.22</v>
+        <v>-0.7</v>
       </c>
       <c r="D29" t="n">
-        <v>33518.051</v>
+        <v>19624.622</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>70.90000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>14.89</v>
+        <v>18.99</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -5940,7 +5948,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -5950,29 +5958,29 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="W29" t="b">
         <v>1</v>
@@ -5984,25 +5992,25 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>-16728.89</v>
+        <v>-17364.15</v>
       </c>
       <c r="AB29" t="n">
-        <v>-13791.62</v>
+        <v>-8084.39</v>
       </c>
       <c r="AC29" t="b">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.21</v>
+        <v>-1.15</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -6021,14 +6029,14 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI29" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
@@ -6041,11 +6049,11 @@
         </is>
       </c>
       <c r="AM29" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -6085,7 +6093,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6094,22 +6102,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.39</v>
+        <v>1.38</v>
       </c>
       <c r="D30" t="n">
-        <v>20529.87</v>
+        <v>29888.144</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H30" t="n">
-        <v>256.5</v>
+        <v>260</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
@@ -6117,17 +6125,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -6135,7 +6143,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -6145,29 +6153,29 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="V30" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="W30" t="b">
         <v>0</v>
@@ -6176,20 +6184,20 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>68446.63</v>
+        <v>62265.38</v>
       </c>
       <c r="AB30" t="n">
-        <v>75477.07000000001</v>
+        <v>79723.25999999999</v>
       </c>
       <c r="AC30" t="b">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.09</v>
+        <v>-0.22</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6208,14 +6216,14 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI30" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
@@ -6228,11 +6236,11 @@
         </is>
       </c>
       <c r="AM30" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -6272,7 +6280,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6281,40 +6289,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.18</v>
+        <v>-0.39</v>
       </c>
       <c r="D31" t="n">
-        <v>24833.927</v>
+        <v>20529.87</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>257.5</v>
+        <v>256.5</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-0.39</v>
+        <v>1.35</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -6322,12 +6330,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -6337,24 +6345,24 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="V31" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="W31" t="b">
         <v>0</v>
@@ -6363,20 +6371,20 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>92621.3</v>
+        <v>68446.63</v>
       </c>
       <c r="AB31" t="n">
-        <v>77736.25</v>
+        <v>75477.07000000001</v>
       </c>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -6395,14 +6403,14 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI31" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
@@ -6415,11 +6423,11 @@
         </is>
       </c>
       <c r="AM31" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -6459,7 +6467,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6468,40 +6476,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-2.31</v>
+        <v>1.18</v>
       </c>
       <c r="D32" t="n">
-        <v>37909.432</v>
+        <v>24833.927</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="H32" t="n">
-        <v>254.5</v>
+        <v>257.5</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -6509,39 +6517,39 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="V32" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="W32" t="b">
         <v>0</v>
@@ -6550,20 +6558,20 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>99362.71000000001</v>
+        <v>92621.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>74722.36</v>
+        <v>77736.25</v>
       </c>
       <c r="AC32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -6582,14 +6590,14 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI32" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
@@ -6602,11 +6610,11 @@
         </is>
       </c>
       <c r="AM32" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -6646,7 +6654,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6655,40 +6663,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.07</v>
+        <v>-2.31</v>
       </c>
       <c r="D33" t="n">
-        <v>79214.121</v>
+        <v>37909.432</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>33.87</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="H33" t="n">
-        <v>260.5</v>
+        <v>254.5</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-1.56</v>
+        <v>2.12</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -6696,36 +6704,36 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V33" t="n">
         <v>74</v>
@@ -6741,16 +6749,16 @@
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>111657.81</v>
+        <v>99362.71000000001</v>
       </c>
       <c r="AB33" t="n">
-        <v>79494.34</v>
+        <v>74722.36</v>
       </c>
       <c r="AC33" t="b">
         <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -6769,14 +6777,14 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI33" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
@@ -6789,11 +6797,11 @@
         </is>
       </c>
       <c r="AM33" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -6833,7 +6841,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6842,40 +6850,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.22</v>
+        <v>6.07</v>
       </c>
       <c r="D34" t="n">
-        <v>47743.43</v>
+        <v>79214.121</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>70.77</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="H34" t="n">
-        <v>245.5</v>
+        <v>260.5</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>4.29</v>
+        <v>-0.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -6883,39 +6891,39 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="V34" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="W34" t="b">
         <v>0</v>
@@ -6924,20 +6932,20 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>93992.64999999999</v>
+        <v>111657.81</v>
       </c>
       <c r="AB34" t="n">
-        <v>67606.03999999999</v>
+        <v>79494.34</v>
       </c>
       <c r="AC34" t="b">
         <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -6956,14 +6964,14 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI34" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -6976,11 +6984,11 @@
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -7020,7 +7028,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7029,40 +7037,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.26</v>
+        <v>1.22</v>
       </c>
       <c r="D35" t="n">
-        <v>59161.712</v>
+        <v>47743.43</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="H35" t="n">
-        <v>242.5</v>
+        <v>245.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>5.46</v>
+        <v>5.58</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -7070,39 +7078,39 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="V35" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="W35" t="b">
         <v>0</v>
@@ -7111,20 +7119,20 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>81906.25999999999</v>
+        <v>93992.64999999999</v>
       </c>
       <c r="AB35" t="n">
-        <v>59677.39</v>
+        <v>67606.03999999999</v>
       </c>
       <c r="AC35" t="b">
         <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -7143,14 +7151,14 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI35" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
@@ -7163,11 +7171,11 @@
         </is>
       </c>
       <c r="AM35" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -7207,7 +7215,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7216,40 +7224,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.33</v>
+        <v>4.26</v>
       </c>
       <c r="D36" t="n">
-        <v>55211.383</v>
+        <v>59161.712</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>49.32</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>232.5</v>
+        <v>242.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>9.359999999999999</v>
+        <v>6.73</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -7257,39 +7265,39 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="V36" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="W36" t="b">
         <v>0</v>
@@ -7298,20 +7306,20 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>59221.13</v>
+        <v>81906.25999999999</v>
       </c>
       <c r="AB36" t="n">
-        <v>47750.08</v>
+        <v>59677.39</v>
       </c>
       <c r="AC36" t="b">
         <v>1</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -7330,14 +7338,14 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI36" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
@@ -7350,11 +7358,11 @@
         </is>
       </c>
       <c r="AM36" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -7394,7 +7402,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7403,40 +7411,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.03</v>
+        <v>6.33</v>
       </c>
       <c r="D37" t="n">
-        <v>14920.271</v>
+        <v>55211.383</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>49.32</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>217.5</v>
+        <v>232.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>15.2</v>
+        <v>10.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -7444,39 +7452,39 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="V37" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="W37" t="b">
         <v>0</v>
@@ -7485,20 +7493,20 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>35971.02</v>
+        <v>59221.13</v>
       </c>
       <c r="AB37" t="n">
-        <v>28203.96</v>
+        <v>47750.08</v>
       </c>
       <c r="AC37" t="b">
         <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -7517,14 +7525,14 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI37" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
@@ -7537,11 +7545,11 @@
         </is>
       </c>
       <c r="AM37" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -7581,7 +7589,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7590,40 +7598,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.91</v>
+        <v>3.03</v>
       </c>
       <c r="D38" t="n">
-        <v>10238.076</v>
+        <v>14920.271</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>211</v>
+        <v>217.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>17.74</v>
+        <v>16.35</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7631,36 +7639,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-2.53</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="V38" t="n">
         <v>-1</v>
@@ -7676,16 +7684,16 @@
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>13085.67</v>
+        <v>35971.02</v>
       </c>
       <c r="AB38" t="n">
-        <v>17687.7</v>
+        <v>28203.96</v>
       </c>
       <c r="AC38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.26</v>
+        <v>0.28</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -7704,14 +7712,14 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI38" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
@@ -7724,11 +7732,11 @@
         </is>
       </c>
       <c r="AM38" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -7768,7 +7776,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7777,40 +7785,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.49</v>
+        <v>1.91</v>
       </c>
       <c r="D39" t="n">
-        <v>5523.871</v>
+        <v>10238.076</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>19.3</v>
+        <v>18.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -7818,39 +7826,39 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W39" t="b">
         <v>0</v>
@@ -7859,20 +7867,20 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>17508.16</v>
+        <v>13085.67</v>
       </c>
       <c r="AB39" t="n">
-        <v>18949.84</v>
+        <v>17687.7</v>
       </c>
       <c r="AC39" t="b">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.08</v>
+        <v>-0.26</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -7891,14 +7899,14 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI39" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
@@ -7911,11 +7919,11 @@
         </is>
       </c>
       <c r="AM39" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -7943,7 +7951,7 @@
       </c>
       <c r="AT39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU39" t="inlineStr">
@@ -7955,7 +7963,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7964,35 +7972,35 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1.45</v>
+        <v>0.49</v>
       </c>
       <c r="D40" t="n">
-        <v>8699.950000000001</v>
+        <v>5523.871</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>19.69</v>
+        <v>20.38</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -8005,12 +8013,12 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -8020,24 +8028,24 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-2.79</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W40" t="b">
         <v>0</v>
@@ -8046,20 +8054,20 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>20350.62</v>
+        <v>17508.16</v>
       </c>
       <c r="AB40" t="n">
-        <v>-5020.3</v>
+        <v>18949.84</v>
       </c>
       <c r="AC40" t="b">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>5.05</v>
+        <v>-0.08</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -8078,14 +8086,14 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI40" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
@@ -8098,11 +8106,11 @@
         </is>
       </c>
       <c r="AM40" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -8142,7 +8150,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8151,40 +8159,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.21</v>
+        <v>-1.45</v>
       </c>
       <c r="D41" t="n">
-        <v>8399.976000000001</v>
+        <v>8699.950000000001</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>18.52</v>
+        <v>20.77</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8192,12 +8200,12 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -8207,46 +8215,46 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-3.24</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>32449.92</v>
+        <v>20350.62</v>
       </c>
       <c r="AB41" t="n">
-        <v>-16467.72</v>
+        <v>-5020.3</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>2.97</v>
+        <v>5.05</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -8265,14 +8273,14 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI41" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ41" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
@@ -8285,11 +8293,11 @@
         </is>
       </c>
       <c r="AM41" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -8317,7 +8325,7 @@
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU41" t="inlineStr">
@@ -8329,7 +8337,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8338,40 +8346,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.67</v>
+        <v>1.21</v>
       </c>
       <c r="D42" t="n">
-        <v>11530.647</v>
+        <v>8399.976000000001</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
-        <v>206.5</v>
+        <v>209</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>19.49</v>
+        <v>19.62</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8379,39 +8387,39 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.24</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="V42" t="n">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="W42" t="b">
         <v>1</v>
@@ -8420,20 +8428,20 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AA42" t="n">
-        <v>17234.03</v>
+        <v>32449.92</v>
       </c>
       <c r="AB42" t="n">
-        <v>-8404.58</v>
+        <v>-16467.72</v>
       </c>
       <c r="AC42" t="b">
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
@@ -8452,14 +8460,14 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI42" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ42" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
@@ -8472,11 +8480,11 @@
         </is>
       </c>
       <c r="AM42" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -8504,7 +8512,7 @@
       </c>
       <c r="AT42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU42" t="inlineStr">
@@ -8516,7 +8524,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8525,40 +8533,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.68</v>
+        <v>-1.67</v>
       </c>
       <c r="D43" t="n">
-        <v>13439.525</v>
+        <v>11530.647</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="H43" t="n">
-        <v>210</v>
+        <v>206.5</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>18.13</v>
+        <v>20.58</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8566,12 +8574,12 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8586,19 +8594,19 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-3.73</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="W43" t="b">
         <v>1</v>
@@ -8607,20 +8615,20 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AA43" t="n">
-        <v>21318.41</v>
+        <v>17234.03</v>
       </c>
       <c r="AB43" t="n">
-        <v>-11628.81</v>
+        <v>-8404.58</v>
       </c>
       <c r="AC43" t="b">
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>2.83</v>
+        <v>3.05</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -8639,14 +8647,14 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI43" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ43" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
@@ -8659,11 +8667,11 @@
         </is>
       </c>
       <c r="AM43" t="n">
-        <v>17.67</v>
+        <v>17.63</v>
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -8703,7 +8711,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8712,22 +8720,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="D44" t="n">
-        <v>13425.679</v>
+        <v>8493.882</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="H44" t="n">
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
@@ -8735,17 +8743,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8753,7 +8761,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -8763,29 +8771,29 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V44" t="n">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="W44" t="b">
         <v>0</v>
@@ -8794,20 +8802,20 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AA44" t="n">
-        <v>11676.91</v>
+        <v>-18161.66</v>
       </c>
       <c r="AB44" t="n">
-        <v>-11176.52</v>
+        <v>-18241.35</v>
       </c>
       <c r="AC44" t="b">
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -8833,7 +8841,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ44" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
@@ -8846,11 +8854,11 @@
         </is>
       </c>
       <c r="AM44" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -8890,7 +8898,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8899,40 +8907,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.16</v>
+        <v>-0.14</v>
       </c>
       <c r="D45" t="n">
-        <v>19960.491</v>
+        <v>13425.679</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="H45" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -8940,7 +8948,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -8950,29 +8958,29 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V45" t="n">
-        <v>-28</v>
+        <v>-8</v>
       </c>
       <c r="W45" t="b">
         <v>0</v>
@@ -8981,20 +8989,20 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AA45" t="n">
-        <v>22220.05</v>
+        <v>11676.91</v>
       </c>
       <c r="AB45" t="n">
-        <v>-20888.38</v>
+        <v>-11176.52</v>
       </c>
       <c r="AC45" t="b">
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -9020,7 +9028,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ45" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
@@ -9033,11 +9041,11 @@
         </is>
       </c>
       <c r="AM45" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -9077,7 +9085,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9086,40 +9094,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-4.59</v>
+        <v>2.16</v>
       </c>
       <c r="D46" t="n">
-        <v>12526.571</v>
+        <v>19960.491</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="H46" t="n">
-        <v>68.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>-0.57</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -9127,39 +9135,39 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V46" t="n">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="W46" t="b">
         <v>0</v>
@@ -9168,20 +9176,20 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>-9485.18</v>
+        <v>22220.05</v>
       </c>
       <c r="AB46" t="n">
-        <v>-28984.82</v>
+        <v>-20888.38</v>
       </c>
       <c r="AC46" t="b">
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.67</v>
+        <v>2.06</v>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
@@ -9207,7 +9215,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ46" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
@@ -9220,11 +9228,11 @@
         </is>
       </c>
       <c r="AM46" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -9264,7 +9272,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9273,40 +9281,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.41</v>
+        <v>-4.59</v>
       </c>
       <c r="D47" t="n">
-        <v>9130.764999999999</v>
+        <v>12526.571</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H47" t="n">
-        <v>71.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-2.71</v>
+        <v>1.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9314,39 +9322,39 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="V47" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="W47" t="b">
         <v>0</v>
@@ -9355,20 +9363,20 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AA47" t="n">
-        <v>-11005.23</v>
+        <v>-9485.18</v>
       </c>
       <c r="AB47" t="n">
-        <v>-17607.64</v>
+        <v>-28984.82</v>
       </c>
       <c r="AC47" t="b">
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
@@ -9394,7 +9402,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ47" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
@@ -9407,11 +9415,11 @@
         </is>
       </c>
       <c r="AM47" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -9451,7 +9459,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9460,40 +9468,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.7</v>
+        <v>-0.41</v>
       </c>
       <c r="D48" t="n">
-        <v>23811.657</v>
+        <v>9130.764999999999</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="H48" t="n">
-        <v>72.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-3.14</v>
+        <v>-3.16</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9501,7 +9509,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -9511,29 +9519,29 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V48" t="n">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="W48" t="b">
         <v>0</v>
@@ -9542,20 +9550,20 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AA48" t="n">
-        <v>-18320.69</v>
+        <v>-11005.23</v>
       </c>
       <c r="AB48" t="n">
-        <v>-20839.83</v>
+        <v>-17607.64</v>
       </c>
       <c r="AC48" t="b">
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
@@ -9581,7 +9589,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ48" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
@@ -9594,11 +9602,11 @@
         </is>
       </c>
       <c r="AM48" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -9638,7 +9646,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9647,40 +9655,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="D49" t="n">
-        <v>11786.521</v>
+        <v>23811.657</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="H49" t="n">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-2.43</v>
+        <v>-3.59</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9688,39 +9696,39 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="V49" t="n">
-        <v>-42</v>
+        <v>-35</v>
       </c>
       <c r="W49" t="b">
         <v>0</v>
@@ -9729,20 +9737,20 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AA49" t="n">
-        <v>-19651.45</v>
+        <v>-18320.69</v>
       </c>
       <c r="AB49" t="n">
-        <v>-16364.01</v>
+        <v>-20839.83</v>
       </c>
       <c r="AC49" t="b">
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>-0.2</v>
+        <v>0.12</v>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
@@ -9768,7 +9776,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ49" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
@@ -9781,11 +9789,11 @@
         </is>
       </c>
       <c r="AM49" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -9825,7 +9833,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9834,40 +9842,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-2.04</v>
+        <v>0.42</v>
       </c>
       <c r="D50" t="n">
-        <v>21149.447</v>
+        <v>11786.521</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="H50" t="n">
-        <v>71.40000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-2</v>
+        <v>-2.87</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -9875,39 +9883,39 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="W50" t="b">
         <v>0</v>
@@ -9916,20 +9924,20 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AA50" t="n">
-        <v>-36964.57</v>
+        <v>-19651.45</v>
       </c>
       <c r="AB50" t="n">
-        <v>-11886.55</v>
+        <v>-16364.01</v>
       </c>
       <c r="AC50" t="b">
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>-2.11</v>
+        <v>-0.2</v>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
@@ -9955,7 +9963,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ50" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
@@ -9968,11 +9976,11 @@
         </is>
       </c>
       <c r="AM50" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -10012,7 +10020,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10021,40 +10029,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.14</v>
+        <v>-2.04</v>
       </c>
       <c r="D51" t="n">
-        <v>14019.086</v>
+        <v>21149.447</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="H51" t="n">
-        <v>72.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-4.14</v>
+        <v>-2.44</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10062,7 +10070,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -10072,29 +10080,29 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V51" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="W51" t="b">
         <v>0</v>
@@ -10103,20 +10111,20 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AA51" t="n">
-        <v>-39878.21</v>
+        <v>-36964.57</v>
       </c>
       <c r="AB51" t="n">
-        <v>-16987.74</v>
+        <v>-11886.55</v>
       </c>
       <c r="AC51" t="b">
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>-1.35</v>
+        <v>-2.11</v>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
@@ -10142,7 +10150,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ51" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -10155,11 +10163,11 @@
         </is>
       </c>
       <c r="AM51" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -10199,7 +10207,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10208,40 +10216,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-6.41</v>
+        <v>-0.14</v>
       </c>
       <c r="D52" t="n">
-        <v>23409.698</v>
+        <v>14019.086</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="H52" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-4.29</v>
+        <v>-4.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10249,69 +10257,61 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="W52" t="b">
         <v>0</v>
       </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AA52" t="n">
-        <v>-22337.03</v>
+        <v>-39878.21</v>
       </c>
       <c r="AB52" t="n">
-        <v>7192.86</v>
+        <v>-16987.74</v>
       </c>
       <c r="AC52" t="b">
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>-4.11</v>
+        <v>-1.35</v>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ52" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
@@ -10350,11 +10350,11 @@
         </is>
       </c>
       <c r="AM52" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -10394,7 +10394,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10403,40 +10403,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.38</v>
+        <v>-6.41</v>
       </c>
       <c r="D53" t="n">
-        <v>18928.77</v>
+        <v>23409.698</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="H53" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-11.43</v>
+        <v>-4.73</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10444,39 +10444,39 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W53" t="b">
         <v>0</v>
@@ -10493,20 +10493,20 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA53" t="n">
-        <v>-23085.7</v>
+        <v>-22337.03</v>
       </c>
       <c r="AB53" t="n">
-        <v>17651.13</v>
+        <v>7192.86</v>
       </c>
       <c r="AC53" t="b">
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>-2.31</v>
+        <v>-4.11</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ53" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK53" t="inlineStr">
         <is>
@@ -10545,11 +10545,11 @@
         </is>
       </c>
       <c r="AM53" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -10589,7 +10589,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10598,40 +10598,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-1.63</v>
+        <v>0.38</v>
       </c>
       <c r="D54" t="n">
-        <v>50369.695</v>
+        <v>18928.77</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>39.30</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="H54" t="n">
-        <v>77.7</v>
+        <v>78</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>-11</v>
+        <v>-11.91</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -10639,39 +10639,39 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W54" t="b">
         <v>0</v>
@@ -10688,20 +10688,20 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AA54" t="n">
-        <v>-12222.19</v>
+        <v>-23085.7</v>
       </c>
       <c r="AB54" t="n">
-        <v>-9078.559999999999</v>
+        <v>17651.13</v>
       </c>
       <c r="AC54" t="b">
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>-0.35</v>
+        <v>-2.31</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ54" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
@@ -10740,11 +10740,11 @@
         </is>
       </c>
       <c r="AM54" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -10784,7 +10784,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10793,40 +10793,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-2.23</v>
+        <v>-1.63</v>
       </c>
       <c r="D55" t="n">
-        <v>33079.207</v>
+        <v>50369.695</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>25.81</t>
+          <t>39.30</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="H55" t="n">
-        <v>79</v>
+        <v>77.7</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>-12.86</v>
+        <v>-11.48</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -10834,39 +10834,39 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V55" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="W55" t="b">
         <v>0</v>
@@ -10883,20 +10883,20 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>32921.11</v>
+        <v>-12222.19</v>
       </c>
       <c r="AB55" t="n">
-        <v>28530.36</v>
+        <v>-9078.559999999999</v>
       </c>
       <c r="AC55" t="b">
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.15</v>
+        <v>-0.35</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ55" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
@@ -10935,11 +10935,11 @@
         </is>
       </c>
       <c r="AM55" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -10979,7 +10979,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10988,40 +10988,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4.71</v>
+        <v>-2.23</v>
       </c>
       <c r="D56" t="n">
-        <v>55528.383</v>
+        <v>33079.207</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>43.32</t>
+          <t>25.81</t>
         </is>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>80.8</v>
+        <v>79</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>-15.43</v>
+        <v>-13.34</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -11029,12 +11029,12 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -11044,21 +11044,21 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V56" t="n">
         <v>3</v>
@@ -11082,16 +11082,16 @@
         </is>
       </c>
       <c r="AA56" t="n">
-        <v>31829.31</v>
+        <v>32921.11</v>
       </c>
       <c r="AB56" t="n">
-        <v>37530.72</v>
+        <v>28530.36</v>
       </c>
       <c r="AC56" t="b">
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>-0.15</v>
+        <v>0.15</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ56" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
@@ -11130,11 +11130,11 @@
         </is>
       </c>
       <c r="AM56" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="AT56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU56" t="inlineStr">
@@ -11174,7 +11174,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -11183,40 +11183,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-2.1</v>
+        <v>4.71</v>
       </c>
       <c r="D57" t="n">
-        <v>24168.419</v>
+        <v>55528.383</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18.86</t>
+          <t>43.32</t>
         </is>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>77.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>-10.14</v>
+        <v>-15.93</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -11224,39 +11224,39 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="V57" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="W57" t="b">
         <v>0</v>
@@ -11273,20 +11273,20 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA57" t="n">
-        <v>24544.19</v>
+        <v>31829.31</v>
       </c>
       <c r="AB57" t="n">
-        <v>23779.04</v>
+        <v>37530.72</v>
       </c>
       <c r="AC57" t="b">
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.03</v>
+        <v>-0.15</v>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>11.16</v>
       </c>
       <c r="AJ57" t="n">
-        <v>72.92</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
@@ -11325,11 +11325,11 @@
         </is>
       </c>
       <c r="AM57" t="n">
-        <v>27.32</v>
+        <v>27.21</v>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU61"/>
+  <dimension ref="A1:AU57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3</v>
+        <v>-2.07</v>
       </c>
       <c r="D2" t="n">
-        <v>30249</v>
+        <v>10758</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="H2" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -705,17 +705,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -723,39 +723,39 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="V2" t="n">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -767,25 +767,25 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>1146.19</v>
+        <v>987.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>672.33</v>
+        <v>1208.09</v>
       </c>
       <c r="AC2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7</v>
+        <v>-0.18</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -804,14 +804,14 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI2" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="AM2" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,40 +877,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.08</v>
+        <v>0.89</v>
       </c>
       <c r="D3" t="n">
-        <v>9920</v>
+        <v>9682</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>166.5</v>
+        <v>168.5</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>0.3</v>
+        <v>-2.12</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -918,39 +918,39 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
-        <v>-47</v>
+        <v>-15</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -962,25 +962,25 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>-428.23</v>
+        <v>1388.26</v>
       </c>
       <c r="AB3" t="n">
-        <v>814.35</v>
+        <v>1132.88</v>
       </c>
       <c r="AC3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>-1.53</v>
+        <v>0.23</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -999,14 +999,14 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI3" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="AM3" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1063,7 +1063,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="D4" t="n">
-        <v>9057</v>
+        <v>30249</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-1.8</v>
+        <v>-1.21</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1113,39 +1113,39 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="V4" t="n">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -1157,25 +1157,25 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>821.83</v>
+        <v>1146.19</v>
       </c>
       <c r="AB4" t="n">
-        <v>1024.77</v>
+        <v>672.33</v>
       </c>
       <c r="AC4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI4" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
@@ -1214,11 +1214,11 @@
         </is>
       </c>
       <c r="AM4" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1267,40 +1267,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.49</v>
+        <v>-2.08</v>
       </c>
       <c r="D5" t="n">
-        <v>17560</v>
+        <v>9920</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>167</v>
+        <v>166.5</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-0.91</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1318,29 +1318,29 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V5" t="n">
-        <v>-12</v>
+        <v>-47</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -1352,25 +1352,25 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>1394.35</v>
+        <v>-428.23</v>
       </c>
       <c r="AB5" t="n">
-        <v>807.8</v>
+        <v>814.35</v>
       </c>
       <c r="AC5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.73</v>
+        <v>-1.53</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1389,14 +1389,14 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI5" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -1409,11 +1409,11 @@
         </is>
       </c>
       <c r="AM5" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1453,7 +1453,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1462,40 +1462,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.79</v>
+        <v>1.8</v>
       </c>
       <c r="D6" t="n">
-        <v>8704</v>
+        <v>9057</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>164.5</v>
+        <v>170</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>-3.03</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1503,39 +1503,39 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>-6</v>
+        <v>-43</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -1547,25 +1547,25 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>799.73</v>
+        <v>821.83</v>
       </c>
       <c r="AB6" t="n">
-        <v>726.02</v>
+        <v>1024.77</v>
       </c>
       <c r="AC6" t="b">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI6" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AM6" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.46</v>
+        <v>1.49</v>
       </c>
       <c r="D7" t="n">
-        <v>13645</v>
+        <v>17560</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5</v>
+        <v>167</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-0.3</v>
+        <v>-1.21</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1698,39 +1698,39 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V7" t="n">
-        <v>17</v>
+        <v>-12</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1742,25 +1742,25 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>-640.0700000000001</v>
+        <v>1394.35</v>
       </c>
       <c r="AB7" t="n">
-        <v>652.95</v>
+        <v>807.8</v>
       </c>
       <c r="AC7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>-1.98</v>
+        <v>0.73</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1779,14 +1779,14 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI7" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
@@ -1799,11 +1799,11 @@
         </is>
       </c>
       <c r="AM7" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1852,40 +1852,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.89</v>
+        <v>-1.79</v>
       </c>
       <c r="D8" t="n">
-        <v>15638</v>
+        <v>8704</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>170</v>
+        <v>164.5</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-1.8</v>
+        <v>0.3</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1893,39 +1893,39 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>41</v>
+        <v>-6</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1937,25 +1937,25 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>1228.7</v>
+        <v>799.73</v>
       </c>
       <c r="AB8" t="n">
-        <v>626.71</v>
+        <v>726.02</v>
       </c>
       <c r="AC8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1974,14 +1974,14 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI8" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
@@ -1994,11 +1994,11 @@
         </is>
       </c>
       <c r="AM8" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.29</v>
+        <v>-1.46</v>
       </c>
       <c r="D9" t="n">
-        <v>46062</v>
+        <v>13645</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>65.38</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.18</v>
+        <v>0.67</v>
       </c>
       <c r="H9" t="n">
-        <v>168.5</v>
+        <v>167.5</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>-0.9</v>
+        <v>-1.52</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -2088,39 +2088,39 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -2132,25 +2132,25 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>1193.7</v>
+        <v>-640.0700000000001</v>
       </c>
       <c r="AB9" t="n">
-        <v>598.13</v>
+        <v>652.95</v>
       </c>
       <c r="AC9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>-1.98</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2169,14 +2169,14 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI9" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
@@ -2189,11 +2189,11 @@
         </is>
       </c>
       <c r="AM9" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -2233,7 +2233,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2242,40 +2242,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D10" t="n">
-        <v>21314</v>
+        <v>15638</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>-3.03</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2283,39 +2283,39 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-4.42</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V10" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -2327,25 +2327,25 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>-799.46</v>
+        <v>1228.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>251.14</v>
+        <v>626.71</v>
       </c>
       <c r="AC10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>-4.18</v>
+        <v>0.96</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2364,14 +2364,14 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI10" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -2384,11 +2384,11 @@
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2437,40 +2437,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.47</v>
+        <v>3.29</v>
       </c>
       <c r="D11" t="n">
-        <v>39936</v>
+        <v>46062</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>56.69</t>
+          <t>65.38</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H11" t="n">
-        <v>163.5</v>
+        <v>168.5</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>-2.12</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2478,39 +2478,39 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -2522,25 +2522,25 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>643.9299999999999</v>
+        <v>1193.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>903.41</v>
+        <v>598.13</v>
       </c>
       <c r="AC11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.29</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2559,14 +2559,14 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI11" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -2579,11 +2579,11 @@
         </is>
       </c>
       <c r="AM11" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -2623,7 +2623,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2632,40 +2632,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.93</v>
+        <v>-0.3</v>
       </c>
       <c r="D12" t="n">
-        <v>45282</v>
+        <v>21314</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>1.21</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2673,61 +2673,69 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-2.85</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-6.24</t>
+          <t>-4.42</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>1123.56</v>
+        <v>-799.46</v>
       </c>
       <c r="AB12" t="n">
-        <v>1144.67</v>
+        <v>251.14</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.02</v>
+        <v>-4.18</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2746,14 +2754,14 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI12" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
@@ -2766,11 +2774,11 @@
         </is>
       </c>
       <c r="AM12" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2810,7 +2818,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2819,40 +2827,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.66</v>
+        <v>-1.47</v>
       </c>
       <c r="D13" t="n">
-        <v>14873</v>
+        <v>39936</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>56.69</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>151</v>
+        <v>163.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>9.58</v>
+        <v>0.91</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2860,61 +2868,69 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-4.56</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-7.09</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>-850.99</v>
+        <v>643.9299999999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>1039.8</v>
+        <v>903.41</v>
       </c>
       <c r="AC13" t="b">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.82</v>
+        <v>-0.29</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2933,14 +2949,14 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI13" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ13" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -2953,11 +2969,11 @@
         </is>
       </c>
       <c r="AM13" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2985,7 +3001,7 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
@@ -2997,7 +3013,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3006,40 +3022,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.93</v>
       </c>
       <c r="D14" t="n">
-        <v>16548</v>
+        <v>45282</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>23.49</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>148.5</v>
+        <v>166</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>11.08</v>
+        <v>-0.61</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3047,39 +3063,39 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-5.15</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-7.72</t>
+          <t>-6.24</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>-8</v>
+        <v>21</v>
       </c>
       <c r="V14" t="n">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
@@ -3088,20 +3104,20 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>-842.26</v>
+        <v>1123.56</v>
       </c>
       <c r="AB14" t="n">
-        <v>1113.56</v>
+        <v>1144.67</v>
       </c>
       <c r="AC14" t="b">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-1.76</v>
+        <v>-0.02</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3120,14 +3136,14 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI14" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
@@ -3140,11 +3156,11 @@
         </is>
       </c>
       <c r="AM14" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -3172,7 +3188,7 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
@@ -3184,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3193,40 +3209,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="D15" t="n">
-        <v>11605</v>
+        <v>14873</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16.47</t>
+          <t>21.11</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>148.5</v>
+        <v>151</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>11.08</v>
+        <v>8.48</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -3234,39 +3250,39 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-5.57</t>
+          <t>-4.56</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-8.36</t>
+          <t>-7.09</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V15" t="n">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -3275,20 +3291,20 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>874.8</v>
+        <v>-850.99</v>
       </c>
       <c r="AB15" t="n">
-        <v>1101.69</v>
+        <v>1039.8</v>
       </c>
       <c r="AC15" t="b">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.21</v>
+        <v>-1.82</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3307,14 +3323,14 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI15" t="n">
         <v>7.58</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36.62</v>
+        <v>36.18</v>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
@@ -3327,11 +3343,11 @@
         </is>
       </c>
       <c r="AM15" t="n">
-        <v>60.69</v>
+        <v>60.21</v>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -3371,173 +3387,181 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-5.43</v>
+        <v>-1.22</v>
       </c>
       <c r="D16" t="n">
-        <v>16705</v>
+        <v>60073.015</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.84</v>
+        <v>1.26</v>
       </c>
       <c r="H16" t="n">
-        <v>145.5</v>
+        <v>82</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>12.87</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.39</v>
+        <v>0.89</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-6.03</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="W16" t="b">
-        <v>1</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>1103.47</v>
+        <v>-49968.05</v>
       </c>
       <c r="AB16" t="n">
-        <v>881.34</v>
+        <v>44719.79</v>
       </c>
       <c r="AC16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.25</v>
+        <v>-2.12</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>華星光</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI16" t="n">
-        <v>7.58</v>
+        <v>13.03</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36.62</v>
+        <v>4.58</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>22.46%</t>
+          <t>21.00%</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>18.48%</t>
+          <t>15.86%</t>
         </is>
       </c>
       <c r="AM16" t="n">
-        <v>60.69</v>
+        <v>17.31</v>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
+          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>華星光-通信網路業-上櫃</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AR16" t="n">
-        <v>23.91</v>
+        <v>100.22</v>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
@@ -3551,14 +3575,14 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>** 通信網路 - 主/被動元件</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3567,40 +3591,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3.67</v>
+        <v>-0.84</v>
       </c>
       <c r="D17" t="n">
-        <v>157042.134</v>
+        <v>55414.145</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>47.62</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="H17" t="n">
-        <v>83.7</v>
+        <v>83</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.22</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -3608,7 +3632,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3618,29 +3642,29 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
@@ -3652,25 +3676,25 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>-38559.06</v>
+        <v>-21825.25</v>
       </c>
       <c r="AB17" t="n">
-        <v>63982.29</v>
+        <v>59172.43</v>
       </c>
       <c r="AC17" t="b">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>-1.6</v>
+        <v>-1.37</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3689,14 +3713,14 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI17" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
@@ -3709,11 +3733,11 @@
         </is>
       </c>
       <c r="AM17" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -3753,7 +3777,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3762,40 +3786,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.36</v>
+        <v>-3.67</v>
       </c>
       <c r="D18" t="n">
-        <v>178996.807</v>
+        <v>157042.134</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>54.27</t>
+          <t>47.62</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="H18" t="n">
-        <v>86.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-3.82</v>
+        <v>-2.07</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -3803,39 +3827,39 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -3847,25 +3871,25 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>71451.41</v>
+        <v>-38559.06</v>
       </c>
       <c r="AB18" t="n">
-        <v>74695.83</v>
+        <v>63982.29</v>
       </c>
       <c r="AC18" t="b">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.04</v>
+        <v>-1.6</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3884,14 +3908,14 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI18" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
@@ -3904,11 +3928,11 @@
         </is>
       </c>
       <c r="AM18" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -3936,7 +3960,7 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
@@ -3948,7 +3972,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3957,40 +3981,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.24</v>
+        <v>4.36</v>
       </c>
       <c r="D19" t="n">
-        <v>59784.492</v>
+        <v>178996.807</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>54.27</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H19" t="n">
-        <v>83.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0.48</v>
+        <v>-5.98</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -3998,39 +4022,39 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V19" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -4042,25 +4066,25 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>60973.17</v>
+        <v>71451.41</v>
       </c>
       <c r="AB19" t="n">
-        <v>62920.57</v>
+        <v>74695.83</v>
       </c>
       <c r="AC19" t="b">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4079,14 +4103,14 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI19" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
@@ -4099,11 +4123,11 @@
         </is>
       </c>
       <c r="AM19" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -4143,7 +4167,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4152,35 +4176,35 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="D20" t="n">
-        <v>62501.355</v>
+        <v>59784.492</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="H20" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>0.24</v>
+        <v>-1.59</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4193,12 +4217,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4208,24 +4232,24 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="V20" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -4237,25 +4261,25 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>80601.03</v>
+        <v>60973.17</v>
       </c>
       <c r="AB20" t="n">
-        <v>66234.94</v>
+        <v>62920.57</v>
       </c>
       <c r="AC20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4274,14 +4298,14 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI20" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
@@ -4294,11 +4318,11 @@
         </is>
       </c>
       <c r="AM20" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -4338,7 +4362,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4347,35 +4371,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.83</v>
+        <v>0.24</v>
       </c>
       <c r="D21" t="n">
-        <v>115578.478</v>
+        <v>62501.355</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>0.48</v>
+        <v>-1.83</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4388,39 +4412,39 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="V21" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
@@ -4432,25 +4456,25 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>86481.75</v>
+        <v>80601.03</v>
       </c>
       <c r="AB21" t="n">
-        <v>63133.06</v>
+        <v>66234.94</v>
       </c>
       <c r="AC21" t="b">
         <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -4469,14 +4493,14 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI21" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ21" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
@@ -4489,11 +4513,11 @@
         </is>
       </c>
       <c r="AM21" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -4533,7 +4557,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4542,40 +4566,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.62</v>
+        <v>-0.83</v>
       </c>
       <c r="D22" t="n">
-        <v>235712.727</v>
+        <v>115578.478</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H22" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-0.36</v>
+        <v>-1.59</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -4583,39 +4607,39 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V22" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
@@ -4627,25 +4651,25 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>98357.86</v>
+        <v>86481.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>69370.52</v>
+        <v>63133.06</v>
       </c>
       <c r="AC22" t="b">
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -4664,14 +4688,14 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI22" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -4684,11 +4708,11 @@
         </is>
       </c>
       <c r="AM22" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -4728,7 +4752,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4737,40 +4761,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.12</v>
+        <v>5.62</v>
       </c>
       <c r="D23" t="n">
-        <v>104700.664</v>
+        <v>235712.727</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="H23" t="n">
-        <v>79.5</v>
+        <v>84</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>5.02</v>
+        <v>-2.44</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -4778,39 +4802,39 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="V23" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
@@ -4822,25 +4846,25 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>77805.08</v>
+        <v>98357.86</v>
       </c>
       <c r="AB23" t="n">
-        <v>55558.31</v>
+        <v>69370.52</v>
       </c>
       <c r="AC23" t="b">
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -4859,14 +4883,14 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI23" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -4879,11 +4903,11 @@
         </is>
       </c>
       <c r="AM23" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -4923,7 +4947,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4932,35 +4956,35 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.78</v>
+        <v>0.12</v>
       </c>
       <c r="D24" t="n">
-        <v>112713.378</v>
+        <v>104700.664</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>34.18</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>1.31</v>
       </c>
       <c r="H24" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>5.14</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4973,39 +4997,39 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>28.74</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V24" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
@@ -5017,25 +5041,25 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>64809.48</v>
+        <v>77805.08</v>
       </c>
       <c r="AB24" t="n">
-        <v>45623.98</v>
+        <v>55558.31</v>
       </c>
       <c r="AC24" t="b">
         <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -5054,14 +5078,14 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI24" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
@@ -5074,11 +5098,11 @@
         </is>
       </c>
       <c r="AM24" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -5118,7 +5142,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5127,40 +5151,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.95</v>
+        <v>1.78</v>
       </c>
       <c r="D25" t="n">
-        <v>129755.714</v>
+        <v>112713.378</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>39.34</t>
+          <t>34.18</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="H25" t="n">
-        <v>78</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>6.81</v>
+        <v>3.17</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -5168,7 +5192,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -5178,29 +5202,29 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="V25" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>
@@ -5212,25 +5236,25 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>47724.31</v>
+        <v>64809.48</v>
       </c>
       <c r="AB25" t="n">
-        <v>35880.88</v>
+        <v>45623.98</v>
       </c>
       <c r="AC25" t="b">
         <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -5249,14 +5273,14 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI25" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
@@ -5269,11 +5293,11 @@
         </is>
       </c>
       <c r="AM25" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -5313,7 +5337,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5322,40 +5346,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.96</v>
+        <v>6.95</v>
       </c>
       <c r="D26" t="n">
-        <v>18225.738</v>
+        <v>129755.714</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>39.34</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H26" t="n">
-        <v>72.5</v>
+        <v>78</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>13.38</v>
+        <v>4.88</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -5363,39 +5387,39 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="V26" t="n">
-        <v>-18</v>
+        <v>31</v>
       </c>
       <c r="W26" t="b">
         <v>0</v>
@@ -5407,25 +5431,25 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>22191.7</v>
+        <v>47724.31</v>
       </c>
       <c r="AB26" t="n">
-        <v>9771.34</v>
+        <v>35880.88</v>
       </c>
       <c r="AC26" t="b">
         <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.27</v>
+        <v>0.33</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -5444,14 +5468,14 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI26" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
@@ -5464,11 +5488,11 @@
         </is>
       </c>
       <c r="AM26" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -5496,7 +5520,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
@@ -5508,7 +5532,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5517,35 +5541,35 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.83</v>
+        <v>0.96</v>
       </c>
       <c r="D27" t="n">
-        <v>20986.35</v>
+        <v>18225.738</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H27" t="n">
-        <v>71.8</v>
+        <v>72.5</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>14.22</v>
+        <v>11.59</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5558,39 +5582,39 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>21</v>
       </c>
       <c r="V27" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="W27" t="b">
         <v>0</v>
@@ -5602,25 +5626,25 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>-7051.92</v>
+        <v>22191.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>-12837.16</v>
+        <v>9771.34</v>
       </c>
       <c r="AC27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.45</v>
+        <v>1.27</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -5639,14 +5663,14 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI27" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
@@ -5659,11 +5683,11 @@
         </is>
       </c>
       <c r="AM27" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -5703,7 +5727,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5712,40 +5736,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.71</v>
+        <v>1.83</v>
       </c>
       <c r="D28" t="n">
-        <v>12154.124</v>
+        <v>20986.35</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.5</v>
+        <v>71.8</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>15.77</v>
+        <v>12.44</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -5753,39 +5777,39 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V28" t="n">
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="W28" t="b">
         <v>0</v>
@@ -5797,25 +5821,25 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>10946.32</v>
+        <v>-7051.92</v>
       </c>
       <c r="AB28" t="n">
-        <v>-11678.68</v>
+        <v>-12837.16</v>
       </c>
       <c r="AC28" t="b">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1.94</v>
+        <v>0.45</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -5834,14 +5858,14 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI28" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
@@ -5854,11 +5878,11 @@
         </is>
       </c>
       <c r="AM28" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -5898,7 +5922,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5907,40 +5931,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.28</v>
+        <v>-0.71</v>
       </c>
       <c r="D29" t="n">
-        <v>9898.530000000001</v>
+        <v>12154.124</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>71</v>
+        <v>70.5</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>15.17</v>
+        <v>14.02</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -5948,12 +5972,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5963,24 +5987,24 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="V29" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="W29" t="b">
         <v>0</v>
@@ -5992,25 +6016,25 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>-6097.07</v>
+        <v>10946.32</v>
       </c>
       <c r="AB29" t="n">
-        <v>-15261.97</v>
+        <v>-11678.68</v>
       </c>
       <c r="AC29" t="b">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.6</v>
+        <v>1.94</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -6029,14 +6053,14 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI29" t="n">
         <v>13.03</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
@@ -6049,11 +6073,11 @@
         </is>
       </c>
       <c r="AM29" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -6081,7 +6105,7 @@
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
@@ -6093,123 +6117,115 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>16725.328</v>
+        <v>15762.398</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>71.2</v>
+        <v>253</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>14.93</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V30" t="n">
-        <v>-8</v>
+        <v>-39</v>
       </c>
       <c r="W30" t="b">
         <v>0</v>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>2025-05-24</t>
-        </is>
-      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>17241.41</v>
+        <v>-48165.22</v>
       </c>
       <c r="AB30" t="n">
-        <v>-19593.52</v>
+        <v>55941.11</v>
       </c>
       <c r="AC30" t="b">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.88</v>
+        <v>-1.86</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -6224,41 +6240,41 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI30" t="n">
-        <v>13.03</v>
+        <v>50.79</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4.67</v>
+        <v>3.67</v>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>21.00%</t>
+          <t>30.27%</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>15.86%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AM30" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -6267,7 +6283,7 @@
         </is>
       </c>
       <c r="AR30" t="n">
-        <v>100.22</v>
+        <v>284.07</v>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
@@ -6276,7 +6292,7 @@
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
@@ -6288,123 +6304,115 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.7</v>
+        <v>-1.17</v>
       </c>
       <c r="D31" t="n">
-        <v>19624.622</v>
+        <v>11250.473</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>70.40000000000001</v>
+        <v>253</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>15.89</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V31" t="n">
-        <v>-16</v>
+        <v>-40</v>
       </c>
       <c r="W31" t="b">
-        <v>1</v>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>2025-05-24</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>-17364.15</v>
+        <v>-16029.25</v>
       </c>
       <c r="AB31" t="n">
-        <v>-8084.39</v>
+        <v>69339.78</v>
       </c>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>-1.15</v>
+        <v>-1.23</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -6419,41 +6427,41 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI31" t="n">
-        <v>13.03</v>
+        <v>50.79</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4.67</v>
+        <v>3.67</v>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>21.00%</t>
+          <t>30.27%</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>15.86%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AM31" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6462,7 +6470,7 @@
         </is>
       </c>
       <c r="AR31" t="n">
-        <v>100.22</v>
+        <v>284.07</v>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
@@ -6511,16 +6519,16 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1.19</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6533,7 +6541,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -6606,14 +6614,14 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI32" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
@@ -6626,11 +6634,11 @@
         </is>
       </c>
       <c r="AM32" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -6698,16 +6706,16 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-1.56</v>
+        <v>-2.77</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6720,7 +6728,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -6793,14 +6801,14 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI33" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
@@ -6813,11 +6821,11 @@
         </is>
       </c>
       <c r="AM33" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -6885,16 +6893,16 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-0.2</v>
+        <v>-1.38</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6907,7 +6915,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -6980,14 +6988,14 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI34" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -7000,11 +7008,11 @@
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -7072,16 +7080,16 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-0.59</v>
+        <v>-1.78</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -7094,7 +7102,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -7167,14 +7175,14 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI35" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
@@ -7187,11 +7195,11 @@
         </is>
       </c>
       <c r="AM35" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -7259,16 +7267,16 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>0.59</v>
+        <v>-0.59</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -7281,7 +7289,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -7354,14 +7362,14 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI36" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
@@ -7374,11 +7382,11 @@
         </is>
       </c>
       <c r="AM36" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -7446,16 +7454,16 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-1.76</v>
+        <v>-2.96</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -7468,7 +7476,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -7541,14 +7549,14 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI37" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
@@ -7561,11 +7569,11 @@
         </is>
       </c>
       <c r="AM37" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -7633,16 +7641,16 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -7655,7 +7663,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -7728,14 +7736,14 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI38" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
@@ -7748,11 +7756,11 @@
         </is>
       </c>
       <c r="AM38" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -7820,16 +7828,16 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>5.27</v>
+        <v>4.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -7842,7 +7850,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -7915,14 +7923,14 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI39" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
@@ -7935,11 +7943,11 @@
         </is>
       </c>
       <c r="AM39" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -8007,16 +8015,16 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>9.18</v>
+        <v>8.1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -8029,7 +8037,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -8102,14 +8110,14 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI40" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
@@ -8122,11 +8130,11 @@
         </is>
       </c>
       <c r="AM40" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -8194,16 +8202,16 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>15.04</v>
+        <v>14.03</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -8216,7 +8224,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -8289,14 +8297,14 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI41" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ41" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
@@ -8309,11 +8317,11 @@
         </is>
       </c>
       <c r="AM41" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -8381,16 +8389,16 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>17.58</v>
+        <v>16.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -8403,7 +8411,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -8476,14 +8484,14 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI42" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ42" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
@@ -8496,11 +8504,11 @@
         </is>
       </c>
       <c r="AM42" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -8568,16 +8576,16 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>19.14</v>
+        <v>18.18</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -8590,7 +8598,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -8663,14 +8671,14 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI43" t="n">
         <v>50.79</v>
       </c>
       <c r="AJ43" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
@@ -8683,11 +8691,11 @@
         </is>
       </c>
       <c r="AM43" t="n">
-        <v>17.56</v>
+        <v>17.31</v>
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -8727,89 +8735,89 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-1.45</v>
+        <v>-3.04</v>
       </c>
       <c r="D44" t="n">
-        <v>8699.950000000001</v>
+        <v>6673.803</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="H44" t="n">
-        <v>206</v>
+        <v>63.8</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>19.53</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="W44" t="b">
         <v>0</v>
@@ -8818,29 +8826,29 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AA44" t="n">
-        <v>20350.62</v>
+        <v>-24373.73</v>
       </c>
       <c r="AB44" t="n">
-        <v>-5020.3</v>
+        <v>-7083.36</v>
       </c>
       <c r="AC44" t="b">
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>5.05</v>
+        <v>-2.44</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -8850,50 +8858,50 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI44" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AJ44" t="n">
-        <v>3.71</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AM44" t="n">
-        <v>17.56</v>
+        <v>26.12</v>
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AR44" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
@@ -8907,127 +8915,127 @@
       </c>
       <c r="AU44" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.21</v>
+        <v>-1.93</v>
       </c>
       <c r="D45" t="n">
-        <v>8399.976000000001</v>
+        <v>4691.497</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="H45" t="n">
-        <v>209</v>
+        <v>65.8</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>18.36</v>
+        <v>-3.13</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>-3.24</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>-3</v>
+        <v>30</v>
       </c>
       <c r="V45" t="n">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="W45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AA45" t="n">
-        <v>32449.92</v>
+        <v>-15021.23</v>
       </c>
       <c r="AB45" t="n">
-        <v>-16467.72</v>
+        <v>-12561.97</v>
       </c>
       <c r="AC45" t="b">
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.97</v>
+        <v>-0.2</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -9037,50 +9045,50 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI45" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AJ45" t="n">
-        <v>3.71</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AM45" t="n">
-        <v>17.56</v>
+        <v>26.12</v>
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AR45" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AS45" t="inlineStr">
         <is>
@@ -9089,132 +9097,132 @@
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.67</v>
+        <v>-3.71</v>
       </c>
       <c r="D46" t="n">
-        <v>11530.647</v>
+        <v>10178.928</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="H46" t="n">
-        <v>206.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>19.34</v>
+        <v>-5.17</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="V46" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="W46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>17234.03</v>
+        <v>-18306.88</v>
       </c>
       <c r="AB46" t="n">
-        <v>-8404.58</v>
+        <v>-15103.93</v>
       </c>
       <c r="AC46" t="b">
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>3.05</v>
+        <v>-0.21</v>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -9224,50 +9232,50 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI46" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AJ46" t="n">
-        <v>3.71</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AM46" t="n">
-        <v>17.56</v>
+        <v>26.12</v>
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AR46" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AS46" t="inlineStr">
         <is>
@@ -9281,14 +9289,14 @@
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9297,40 +9305,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-3.71</v>
+        <v>-0.43</v>
       </c>
       <c r="D47" t="n">
-        <v>10178.928</v>
+        <v>8493.882</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="H47" t="n">
-        <v>67.09999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>-9.25</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9338,39 +9346,39 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="V47" t="n">
-        <v>-12</v>
+        <v>-21</v>
       </c>
       <c r="W47" t="b">
         <v>0</v>
@@ -9379,20 +9387,20 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AA47" t="n">
-        <v>-18306.88</v>
+        <v>-18161.66</v>
       </c>
       <c r="AB47" t="n">
-        <v>-15103.93</v>
+        <v>-18241.35</v>
       </c>
       <c r="AC47" t="b">
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
@@ -9411,14 +9419,14 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI47" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ47" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
@@ -9431,11 +9439,11 @@
         </is>
       </c>
       <c r="AM47" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -9475,7 +9483,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9484,40 +9492,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.43</v>
+        <v>-0.14</v>
       </c>
       <c r="D48" t="n">
-        <v>8493.882</v>
+        <v>13425.679</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="H48" t="n">
-        <v>69.7</v>
+        <v>70</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-3.87</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9525,7 +9533,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -9535,29 +9543,29 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V48" t="n">
-        <v>-21</v>
+        <v>-8</v>
       </c>
       <c r="W48" t="b">
         <v>0</v>
@@ -9566,20 +9574,20 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AA48" t="n">
-        <v>-18161.66</v>
+        <v>11676.91</v>
       </c>
       <c r="AB48" t="n">
-        <v>-18241.35</v>
+        <v>-11176.52</v>
       </c>
       <c r="AC48" t="b">
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
@@ -9598,14 +9606,14 @@
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI48" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ48" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
@@ -9618,11 +9626,11 @@
         </is>
       </c>
       <c r="AM48" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -9662,7 +9670,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9671,40 +9679,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.14</v>
+        <v>2.16</v>
       </c>
       <c r="D49" t="n">
-        <v>13425.679</v>
+        <v>19960.491</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="H49" t="n">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-4.32</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9712,7 +9720,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -9722,29 +9730,29 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="V49" t="n">
-        <v>-8</v>
+        <v>-28</v>
       </c>
       <c r="W49" t="b">
         <v>0</v>
@@ -9753,20 +9761,20 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA49" t="n">
-        <v>11676.91</v>
+        <v>22220.05</v>
       </c>
       <c r="AB49" t="n">
-        <v>-11176.52</v>
+        <v>-20888.38</v>
       </c>
       <c r="AC49" t="b">
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
@@ -9785,14 +9793,14 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI49" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ49" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
@@ -9805,11 +9813,11 @@
         </is>
       </c>
       <c r="AM49" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -9849,7 +9857,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9858,40 +9866,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.16</v>
+        <v>-4.59</v>
       </c>
       <c r="D50" t="n">
-        <v>19960.491</v>
+        <v>12526.571</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.97</v>
+        <v>1.27</v>
       </c>
       <c r="H50" t="n">
-        <v>70.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-4.47</v>
+        <v>-7.52</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -9899,39 +9907,39 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V50" t="n">
-        <v>-28</v>
+        <v>-32</v>
       </c>
       <c r="W50" t="b">
         <v>0</v>
@@ -9940,20 +9948,20 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AA50" t="n">
-        <v>22220.05</v>
+        <v>-9485.18</v>
       </c>
       <c r="AB50" t="n">
-        <v>-20888.38</v>
+        <v>-28984.82</v>
       </c>
       <c r="AC50" t="b">
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>2.06</v>
+        <v>0.67</v>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
@@ -9972,14 +9980,14 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI50" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ50" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
@@ -9992,11 +10000,11 @@
         </is>
       </c>
       <c r="AM50" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -10036,7 +10044,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10045,40 +10053,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-4.59</v>
+        <v>-0.41</v>
       </c>
       <c r="D51" t="n">
-        <v>12526.571</v>
+        <v>9130.764999999999</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H51" t="n">
-        <v>68.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-2.24</v>
+        <v>-12.7</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10086,39 +10094,39 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="V51" t="n">
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="W51" t="b">
         <v>0</v>
@@ -10127,20 +10135,20 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AA51" t="n">
-        <v>-9485.18</v>
+        <v>-11005.23</v>
       </c>
       <c r="AB51" t="n">
-        <v>-28984.82</v>
+        <v>-17607.64</v>
       </c>
       <c r="AC51" t="b">
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.67</v>
+        <v>0.37</v>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
@@ -10159,14 +10167,14 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI51" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ51" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -10179,11 +10187,11 @@
         </is>
       </c>
       <c r="AM51" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -10223,7 +10231,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10232,40 +10240,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.41</v>
+        <v>0.7</v>
       </c>
       <c r="D52" t="n">
-        <v>9130.764999999999</v>
+        <v>23811.657</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="H52" t="n">
-        <v>71.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-7.15</v>
+        <v>-13.17</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10273,7 +10281,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -10283,29 +10291,29 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V52" t="n">
-        <v>-42</v>
+        <v>-35</v>
       </c>
       <c r="W52" t="b">
         <v>0</v>
@@ -10314,20 +10322,20 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AA52" t="n">
-        <v>-11005.23</v>
+        <v>-18320.69</v>
       </c>
       <c r="AB52" t="n">
-        <v>-17607.64</v>
+        <v>-20839.83</v>
       </c>
       <c r="AC52" t="b">
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
@@ -10346,14 +10354,14 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI52" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ52" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
@@ -10366,11 +10374,11 @@
         </is>
       </c>
       <c r="AM52" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -10410,7 +10418,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10419,40 +10427,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="D53" t="n">
-        <v>23811.657</v>
+        <v>11786.521</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="H53" t="n">
-        <v>72.2</v>
+        <v>71.7</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-7.6</v>
+        <v>-12.38</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10460,39 +10468,39 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="W53" t="b">
         <v>0</v>
@@ -10501,20 +10509,20 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AA53" t="n">
-        <v>-18320.69</v>
+        <v>-19651.45</v>
       </c>
       <c r="AB53" t="n">
-        <v>-20839.83</v>
+        <v>-16364.01</v>
       </c>
       <c r="AC53" t="b">
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.12</v>
+        <v>-0.2</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
@@ -10533,14 +10541,14 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI53" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ53" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK53" t="inlineStr">
         <is>
@@ -10553,11 +10561,11 @@
         </is>
       </c>
       <c r="AM53" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -10597,7 +10605,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10606,40 +10614,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.42</v>
+        <v>-2.04</v>
       </c>
       <c r="D54" t="n">
-        <v>11786.521</v>
+        <v>21149.447</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="H54" t="n">
-        <v>71.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>-6.86</v>
+        <v>-11.91</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -10647,39 +10655,39 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V54" t="n">
-        <v>-42</v>
+        <v>-19</v>
       </c>
       <c r="W54" t="b">
         <v>0</v>
@@ -10688,20 +10696,20 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AA54" t="n">
-        <v>-19651.45</v>
+        <v>-36964.57</v>
       </c>
       <c r="AB54" t="n">
-        <v>-16364.01</v>
+        <v>-11886.55</v>
       </c>
       <c r="AC54" t="b">
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>-0.2</v>
+        <v>-2.11</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
@@ -10720,14 +10728,14 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI54" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ54" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
@@ -10740,11 +10748,11 @@
         </is>
       </c>
       <c r="AM54" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -10784,7 +10792,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10793,40 +10801,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-2.04</v>
+        <v>-0.14</v>
       </c>
       <c r="D55" t="n">
-        <v>21149.447</v>
+        <v>14019.086</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.27</v>
+        <v>0.95</v>
       </c>
       <c r="H55" t="n">
-        <v>71.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>-6.41</v>
+        <v>-14.26</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -10834,7 +10842,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -10844,29 +10852,29 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="W55" t="b">
         <v>0</v>
@@ -10875,20 +10883,20 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>-36964.57</v>
+        <v>-39878.21</v>
       </c>
       <c r="AB55" t="n">
-        <v>-11886.55</v>
+        <v>-16987.74</v>
       </c>
       <c r="AC55" t="b">
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>-2.11</v>
+        <v>-1.35</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -10907,14 +10915,14 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI55" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ55" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
@@ -10927,11 +10935,11 @@
         </is>
       </c>
       <c r="AM55" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -10971,7 +10979,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10980,40 +10988,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.14</v>
+        <v>-6.41</v>
       </c>
       <c r="D56" t="n">
-        <v>14019.086</v>
+        <v>23409.698</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="H56" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>-8.640000000000001</v>
+        <v>-14.42</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -11021,61 +11029,69 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
         <v>5</v>
       </c>
-      <c r="V56" t="n">
-        <v>-15</v>
-      </c>
       <c r="W56" t="b">
         <v>0</v>
       </c>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA56" t="n">
-        <v>-39878.21</v>
+        <v>-22337.03</v>
       </c>
       <c r="AB56" t="n">
-        <v>-16987.74</v>
+        <v>7192.86</v>
       </c>
       <c r="AC56" t="b">
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>-1.35</v>
+        <v>-4.11</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -11094,14 +11110,14 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI56" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ56" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
@@ -11114,11 +11130,11 @@
         </is>
       </c>
       <c r="AM56" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -11158,7 +11174,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -11167,40 +11183,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-6.41</v>
+        <v>0.38</v>
       </c>
       <c r="D57" t="n">
-        <v>23409.698</v>
+        <v>18928.77</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="H57" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>-8.789999999999999</v>
+        <v>-22.26</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -11208,39 +11224,39 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W57" t="b">
         <v>0</v>
@@ -11257,20 +11273,20 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AA57" t="n">
-        <v>-22337.03</v>
+        <v>-23085.7</v>
       </c>
       <c r="AB57" t="n">
-        <v>7192.86</v>
+        <v>17651.13</v>
       </c>
       <c r="AC57" t="b">
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>-4.11</v>
+        <v>-2.31</v>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
@@ -11289,14 +11305,14 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI57" t="n">
         <v>11.16</v>
       </c>
       <c r="AJ57" t="n">
-        <v>69.90000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
@@ -11309,11 +11325,11 @@
         </is>
       </c>
       <c r="AM57" t="n">
-        <v>26.68</v>
+        <v>26.12</v>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -11345,786 +11361,6 @@
         </is>
       </c>
       <c r="AU57" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D58" t="n">
-        <v>18928.77</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>14.77</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H58" t="n">
-        <v>78</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>-16.24</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>10179</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>-2.95</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="U58" t="n">
-        <v>2</v>
-      </c>
-      <c r="V58" t="n">
-        <v>10</v>
-      </c>
-      <c r="W58" t="b">
-        <v>0</v>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AA58" t="n">
-        <v>-23085.7</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>17651.13</v>
-      </c>
-      <c r="AC58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="AI58" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AL58" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AM58" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="AN58" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AP58" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AQ58" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AR58" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AS58" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AT58" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AU58" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>-1.63</v>
-      </c>
-      <c r="D59" t="n">
-        <v>50369.695</v>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>39.30</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H59" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>-15.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>10179</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>-2.95</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="U59" t="n">
-        <v>19</v>
-      </c>
-      <c r="V59" t="n">
-        <v>20</v>
-      </c>
-      <c r="W59" t="b">
-        <v>0</v>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AA59" t="n">
-        <v>-12222.19</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>-9078.559999999999</v>
-      </c>
-      <c r="AC59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="AI59" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AL59" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AM59" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="AN59" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AP59" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AQ59" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AR59" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AS59" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AT59" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AU59" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>-2.23</v>
-      </c>
-      <c r="D60" t="n">
-        <v>33079.207</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>79</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>-17.73</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>10179</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>-2.95</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="U60" t="n">
-        <v>23</v>
-      </c>
-      <c r="V60" t="n">
-        <v>3</v>
-      </c>
-      <c r="W60" t="b">
-        <v>0</v>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AA60" t="n">
-        <v>32921.11</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>28530.36</v>
-      </c>
-      <c r="AC60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AG60" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="AI60" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AL60" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AM60" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="AN60" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AP60" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AQ60" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AR60" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AS60" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AT60" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AU60" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025-05-05</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="D61" t="n">
-        <v>55528.383</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>43.32</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>-20.42</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>10179</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>-2.95</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="U61" t="n">
-        <v>21</v>
-      </c>
-      <c r="V61" t="n">
-        <v>3</v>
-      </c>
-      <c r="W61" t="b">
-        <v>0</v>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AA61" t="n">
-        <v>31829.31</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>37530.72</v>
-      </c>
-      <c r="AC61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="AE61" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AF61" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AG61" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="AI61" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="AK61" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AL61" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AM61" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="AN61" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AP61" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AQ61" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AR61" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AS61" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AT61" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AU61" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU57"/>
+  <dimension ref="A1:AV57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,135 +536,140 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>MACD_golden_cross</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>MA_break</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum_12</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_break</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_%</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -751,115 +756,118 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>14</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>-18</v>
       </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>-18</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>987.3</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>1208.09</v>
       </c>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>-0.18</v>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -946,115 +954,118 @@
           <t>1.74</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>8</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>-15</v>
       </c>
-      <c r="W3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>-15</t>
         </is>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>1388.26</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>1132.88</v>
       </c>
-      <c r="AC3" t="b">
+      <c r="AD3" t="b">
         <v>1</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>0.23</v>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -1141,115 +1152,118 @@
           <t>1.38</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>26</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>-28</v>
       </c>
-      <c r="W4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>-28</t>
         </is>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>1146.19</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>672.33</v>
       </c>
-      <c r="AC4" t="b">
+      <c r="AD4" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.7</v>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -1336,115 +1350,118 @@
           <t>0.96</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>16</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>-47</v>
       </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>-47</t>
         </is>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>-428.23</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>814.35</v>
       </c>
-      <c r="AC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>-1.53</v>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -1531,115 +1548,118 @@
           <t>0.45</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>3</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>-43</v>
       </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>-43</t>
         </is>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>821.83</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>1024.77</v>
       </c>
-      <c r="AC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -1726,115 +1746,118 @@
           <t>-0.18</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>17</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>-12</v>
       </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>-12</t>
         </is>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>1394.35</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>807.8</v>
       </c>
-      <c r="AC7" t="b">
+      <c r="AD7" t="b">
         <v>1</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>0.73</v>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -1921,115 +1944,118 @@
           <t>-0.84</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>23</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>-6</v>
       </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>-6</t>
         </is>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>799.73</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>726.02</v>
       </c>
-      <c r="AC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.1</v>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -2116,115 +2142,118 @@
           <t>-1.60</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>17</v>
       </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>-640.0700000000001</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>652.95</v>
       </c>
-      <c r="AC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>-1.98</v>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR9" t="n">
+      <c r="AS9" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -2311,115 +2340,118 @@
           <t>-2.49</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>15</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>41</v>
       </c>
-      <c r="W10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>1228.7</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>626.71</v>
       </c>
-      <c r="AC10" t="b">
+      <c r="AD10" t="b">
         <v>1</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>0.96</v>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AV10" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -2506,115 +2538,118 @@
           <t>-3.46</t>
         </is>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>25</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>40</v>
       </c>
-      <c r="W11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>1193.7</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>598.13</v>
       </c>
-      <c r="AC11" t="b">
+      <c r="AD11" t="b">
         <v>1</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -2701,115 +2736,118 @@
           <t>-4.42</t>
         </is>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>16</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>22</v>
       </c>
-      <c r="W12" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>-799.46</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>251.14</v>
       </c>
-      <c r="AC12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>-4.18</v>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -2896,115 +2934,118 @@
           <t>-5.33</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>5</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>11</v>
       </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>643.9299999999999</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>903.41</v>
       </c>
-      <c r="AC13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>-0.29</v>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -3091,107 +3132,110 @@
           <t>-6.24</t>
         </is>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>21</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>1</v>
       </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>1123.56</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>1144.67</v>
       </c>
-      <c r="AC14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM14" t="n">
+      <c r="AN14" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -3278,107 +3322,110 @@
           <t>-7.09</t>
         </is>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>-1</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>-21</v>
       </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>-21</t>
         </is>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>-850.99</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>1039.8</v>
       </c>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>-1.82</v>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>7.58</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>36.18</v>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM15" t="n">
+      <c r="AN15" t="n">
         <v>60.21</v>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
         <v>23.91</v>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -3465,115 +3512,118 @@
           <t>2.74</t>
         </is>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>27</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>-9</v>
       </c>
-      <c r="W16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>-9</t>
         </is>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>-49968.05</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>44719.79</v>
       </c>
-      <c r="AC16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>-2.12</v>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -3660,115 +3710,118 @@
           <t>2.60</t>
         </is>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>10</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>-13</v>
       </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>-13</t>
         </is>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>-21825.25</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>59172.43</v>
       </c>
-      <c r="AC17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>-1.37</v>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM17" t="n">
+      <c r="AN17" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -3855,115 +3908,118 @@
           <t>2.38</t>
         </is>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>3</v>
       </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr">
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>-38559.06</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>63982.29</v>
       </c>
-      <c r="AC18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AI18" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -4050,115 +4106,118 @@
           <t>2.08</t>
         </is>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>30</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>28</v>
       </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>71451.41</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>74695.83</v>
       </c>
-      <c r="AC19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>-0.04</v>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
+      <c r="AV19" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -4245,115 +4304,118 @@
           <t>1.72</t>
         </is>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>29</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>35</v>
       </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" t="inlineStr">
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>60973.17</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>62920.57</v>
       </c>
-      <c r="AC20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
         <v>-0.03</v>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AI20" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM20" t="n">
+      <c r="AN20" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR20" t="n">
+      <c r="AS20" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -4440,115 +4502,118 @@
           <t>1.38</t>
         </is>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>39</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>56</v>
       </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr">
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>80601.03</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>66234.94</v>
       </c>
-      <c r="AC21" t="b">
+      <c r="AD21" t="b">
         <v>1</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>0.22</v>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AI21" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM21" t="n">
+      <c r="AN21" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -4635,115 +4700,118 @@
           <t>1.00</t>
         </is>
       </c>
-      <c r="U22" t="n">
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>97</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>82</v>
       </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr">
+      <c r="X22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>86481.75</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>63133.06</v>
       </c>
-      <c r="AC22" t="b">
+      <c r="AD22" t="b">
         <v>1</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>0.37</v>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AI22" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI22" t="n">
+      <c r="AJ22" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM22" t="n">
+      <c r="AN22" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -4830,115 +4898,118 @@
           <t>0.62</t>
         </is>
       </c>
-      <c r="U23" t="n">
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>98</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>79</v>
       </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" t="inlineStr">
+      <c r="X23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>98357.86</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>69370.52</v>
       </c>
-      <c r="AC23" t="b">
+      <c r="AD23" t="b">
         <v>1</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>0.42</v>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM23" t="n">
+      <c r="AN23" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -5025,115 +5096,118 @@
           <t>0.25</t>
         </is>
       </c>
-      <c r="U24" t="n">
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>84</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>64</v>
       </c>
-      <c r="W24" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr">
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="AA24" t="n">
+      <c r="AB24" t="n">
         <v>77805.08</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>55558.31</v>
       </c>
-      <c r="AC24" t="b">
+      <c r="AD24" t="b">
         <v>1</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AI24" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI24" t="n">
+      <c r="AJ24" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AK24" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AM24" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM24" t="n">
+      <c r="AN24" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -5220,115 +5294,118 @@
           <t>-0.04</t>
         </is>
       </c>
-      <c r="U25" t="n">
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>83</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>51</v>
       </c>
-      <c r="W25" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25" t="inlineStr">
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
         <v>64809.48</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>45623.98</v>
       </c>
-      <c r="AC25" t="b">
+      <c r="AD25" t="b">
         <v>1</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>0.42</v>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AI25" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI25" t="n">
+      <c r="AJ25" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM25" t="n">
+      <c r="AN25" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -5415,115 +5492,118 @@
           <t>-0.29</t>
         </is>
       </c>
-      <c r="U26" t="n">
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>74</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>31</v>
       </c>
-      <c r="W26" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr">
+      <c r="X26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="n">
         <v>47724.31</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>35880.88</v>
       </c>
-      <c r="AC26" t="b">
+      <c r="AD26" t="b">
         <v>1</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="n">
         <v>0.33</v>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AI26" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI26" t="n">
+      <c r="AJ26" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AK26" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AM26" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM26" t="n">
+      <c r="AN26" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AR26" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR26" t="n">
+      <c r="AS26" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -5610,115 +5690,118 @@
           <t>-0.47</t>
         </is>
       </c>
-      <c r="U27" t="n">
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>21</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>-18</v>
       </c>
-      <c r="W27" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr">
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>-18</t>
         </is>
       </c>
-      <c r="AA27" t="n">
+      <c r="AB27" t="n">
         <v>22191.7</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>9771.34</v>
       </c>
-      <c r="AC27" t="b">
+      <c r="AD27" t="b">
         <v>1</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
         <v>1.27</v>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AI27" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI27" t="n">
+      <c r="AJ27" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AK27" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AM27" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM27" t="n">
+      <c r="AN27" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AR27" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR27" t="n">
+      <c r="AS27" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -5805,115 +5888,118 @@
           <t>-0.55</t>
         </is>
       </c>
-      <c r="U28" t="n">
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>21</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>-17</v>
       </c>
-      <c r="W28" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28" t="inlineStr">
+      <c r="X28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>-17</t>
         </is>
       </c>
-      <c r="AA28" t="n">
+      <c r="AB28" t="n">
         <v>-7051.92</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>-12837.16</v>
       </c>
-      <c r="AC28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
         <v>0.45</v>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AI28" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI28" t="n">
+      <c r="AJ28" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AK28" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AM28" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM28" t="n">
+      <c r="AN28" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AR28" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR28" t="n">
+      <c r="AS28" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU28" t="inlineStr">
+      <c r="AV28" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -6000,115 +6086,118 @@
           <t>-0.62</t>
         </is>
       </c>
-      <c r="U29" t="n">
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>24</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>-7</v>
       </c>
-      <c r="W29" t="b">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr">
+      <c r="X29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>-7</t>
         </is>
       </c>
-      <c r="AA29" t="n">
+      <c r="AB29" t="n">
         <v>10946.32</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AC29" t="n">
         <v>-11678.68</v>
       </c>
-      <c r="AC29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
         <v>1.94</v>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI29" t="n">
+      <c r="AJ29" t="n">
         <v>13.03</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AK29" t="n">
         <v>4.58</v>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AM29" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM29" t="n">
+      <c r="AN29" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AR29" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR29" t="n">
+      <c r="AS29" t="n">
         <v>100.22</v>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT29" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU29" t="inlineStr">
+      <c r="AV29" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -6195,107 +6284,110 @@
           <t>10.19</t>
         </is>
       </c>
-      <c r="U30" t="n">
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>21</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>-39</v>
       </c>
-      <c r="W30" t="b">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr">
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
         <is>
           <t>-39</t>
         </is>
       </c>
-      <c r="AA30" t="n">
+      <c r="AB30" t="n">
         <v>-48165.22</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AC30" t="n">
         <v>55941.11</v>
       </c>
-      <c r="AC30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
         <v>-1.86</v>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH30" t="inlineStr">
+      <c r="AI30" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI30" t="n">
+      <c r="AJ30" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AK30" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK30" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AM30" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM30" t="n">
+      <c r="AN30" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN30" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AR30" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR30" t="n">
+      <c r="AS30" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT30" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU30" t="inlineStr">
+      <c r="AV30" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -6382,107 +6474,110 @@
           <t>9.65</t>
         </is>
       </c>
-      <c r="U31" t="n">
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>7</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>-40</v>
       </c>
-      <c r="W31" t="b">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr">
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr">
         <is>
           <t>-40</t>
         </is>
       </c>
-      <c r="AA31" t="n">
+      <c r="AB31" t="n">
         <v>-16029.25</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
         <v>69339.78</v>
       </c>
-      <c r="AC31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
         <v>-1.23</v>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AI31" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI31" t="n">
+      <c r="AJ31" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AK31" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK31" t="inlineStr">
+      <c r="AL31" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AM31" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM31" t="n">
+      <c r="AN31" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AR31" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR31" t="n">
+      <c r="AS31" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT31" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU31" t="inlineStr">
+      <c r="AV31" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -6569,107 +6664,110 @@
           <t>8.89</t>
         </is>
       </c>
-      <c r="U32" t="n">
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>2</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>-26</v>
       </c>
-      <c r="W32" t="b">
-        <v>0</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr">
         <is>
           <t>-26</t>
         </is>
       </c>
-      <c r="AA32" t="n">
+      <c r="AB32" t="n">
         <v>-40403.99</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
         <v>73603.61</v>
       </c>
-      <c r="AC32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
         <v>-1.55</v>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="AI32" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI32" t="n">
+      <c r="AJ32" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AK32" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK32" t="inlineStr">
+      <c r="AL32" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AM32" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM32" t="n">
+      <c r="AN32" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AR32" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR32" t="n">
+      <c r="AS32" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT32" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU32" t="inlineStr">
+      <c r="AV32" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -6756,107 +6854,110 @@
           <t>7.87</t>
         </is>
       </c>
-      <c r="U33" t="n">
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>14</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>5</v>
       </c>
-      <c r="W33" t="b">
-        <v>0</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr">
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AA33" t="n">
+      <c r="AB33" t="n">
         <v>62265.38</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AC33" t="n">
         <v>79723.25999999999</v>
       </c>
-      <c r="AC33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
         <v>-0.22</v>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH33" t="inlineStr">
+      <c r="AI33" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI33" t="n">
+      <c r="AJ33" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AK33" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK33" t="inlineStr">
+      <c r="AL33" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AM33" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM33" t="n">
+      <c r="AN33" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AR33" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR33" t="n">
+      <c r="AS33" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT33" t="inlineStr">
+      <c r="AU33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU33" t="inlineStr">
+      <c r="AV33" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -6943,107 +7044,110 @@
           <t>6.63</t>
         </is>
       </c>
-      <c r="U34" t="n">
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>24</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>22</v>
       </c>
-      <c r="W34" t="b">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr">
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AA34" t="n">
+      <c r="AB34" t="n">
         <v>68446.63</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AC34" t="n">
         <v>75477.07000000001</v>
       </c>
-      <c r="AC34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
         <v>-0.09</v>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH34" t="inlineStr">
+      <c r="AI34" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI34" t="n">
+      <c r="AJ34" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AK34" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK34" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AM34" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM34" t="n">
+      <c r="AN34" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AR34" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR34" t="n">
+      <c r="AS34" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT34" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU34" t="inlineStr">
+      <c r="AV34" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -7130,107 +7234,110 @@
           <t>5.29</t>
         </is>
       </c>
-      <c r="U35" t="n">
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>36</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>49</v>
       </c>
-      <c r="W35" t="b">
-        <v>0</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr">
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="AA35" t="n">
+      <c r="AB35" t="n">
         <v>92621.3</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AC35" t="n">
         <v>77736.25</v>
       </c>
-      <c r="AC35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
         <v>0.19</v>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="AI35" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AK35" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK35" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AM35" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM35" t="n">
+      <c r="AN35" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AR35" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR35" t="n">
+      <c r="AS35" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT35" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU35" t="inlineStr">
+      <c r="AV35" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -7317,107 +7424,110 @@
           <t>3.81</t>
         </is>
       </c>
-      <c r="U36" t="n">
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>85</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>74</v>
       </c>
-      <c r="W36" t="b">
-        <v>0</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr">
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="AA36" t="n">
+      <c r="AB36" t="n">
         <v>99362.71000000001</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>74722.36</v>
       </c>
-      <c r="AC36" t="b">
+      <c r="AD36" t="b">
         <v>1</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AE36" t="n">
         <v>0.33</v>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG36" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH36" t="inlineStr">
+      <c r="AI36" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI36" t="n">
+      <c r="AJ36" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AK36" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK36" t="inlineStr">
+      <c r="AL36" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AM36" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM36" t="n">
+      <c r="AN36" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AR36" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR36" t="n">
+      <c r="AS36" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT36" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU36" t="inlineStr">
+      <c r="AV36" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -7504,107 +7614,110 @@
           <t>2.30</t>
         </is>
       </c>
-      <c r="U37" t="n">
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>92</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>74</v>
       </c>
-      <c r="W37" t="b">
-        <v>0</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr">
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="AA37" t="n">
+      <c r="AB37" t="n">
         <v>111657.81</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AC37" t="n">
         <v>79494.34</v>
       </c>
-      <c r="AC37" t="b">
+      <c r="AD37" t="b">
         <v>1</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AE37" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG37" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH37" t="inlineStr">
+      <c r="AI37" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI37" t="n">
+      <c r="AJ37" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AK37" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK37" t="inlineStr">
+      <c r="AL37" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AM37" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM37" t="n">
+      <c r="AN37" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AR37" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR37" t="n">
+      <c r="AS37" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT37" t="inlineStr">
+      <c r="AU37" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU37" t="inlineStr">
+      <c r="AV37" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -7691,107 +7804,110 @@
           <t>0.79</t>
         </is>
       </c>
-      <c r="U38" t="n">
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>83</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>63</v>
       </c>
-      <c r="W38" t="b">
-        <v>0</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr">
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="AA38" t="n">
+      <c r="AB38" t="n">
         <v>93992.64999999999</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AC38" t="n">
         <v>67606.03999999999</v>
       </c>
-      <c r="AC38" t="b">
+      <c r="AD38" t="b">
         <v>1</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AE38" t="n">
         <v>0.39</v>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG38" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH38" t="inlineStr">
+      <c r="AI38" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI38" t="n">
+      <c r="AJ38" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AK38" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK38" t="inlineStr">
+      <c r="AL38" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AM38" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM38" t="n">
+      <c r="AN38" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AR38" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR38" t="n">
+      <c r="AS38" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT38" t="inlineStr">
+      <c r="AU38" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU38" t="inlineStr">
+      <c r="AV38" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -7878,107 +7994,110 @@
           <t>-0.42</t>
         </is>
       </c>
-      <c r="U39" t="n">
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>69</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>52</v>
       </c>
-      <c r="W39" t="b">
-        <v>0</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AA39" t="n">
+      <c r="AB39" t="n">
         <v>81906.25999999999</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>59677.39</v>
       </c>
-      <c r="AC39" t="b">
+      <c r="AD39" t="b">
         <v>1</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AE39" t="n">
         <v>0.37</v>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG39" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH39" t="inlineStr">
+      <c r="AI39" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AK39" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK39" t="inlineStr">
+      <c r="AL39" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AM39" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM39" t="n">
+      <c r="AN39" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AR39" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR39" t="n">
+      <c r="AS39" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU39" t="inlineStr">
+      <c r="AV39" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -8065,107 +8184,110 @@
           <t>-1.43</t>
         </is>
       </c>
-      <c r="U40" t="n">
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>49</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>35</v>
       </c>
-      <c r="W40" t="b">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
+      <c r="X40" t="b">
+        <v>0</v>
+      </c>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr">
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AA40" t="n">
+      <c r="AB40" t="n">
         <v>59221.13</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
         <v>47750.08</v>
       </c>
-      <c r="AC40" t="b">
+      <c r="AD40" t="b">
         <v>1</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AE40" t="n">
         <v>0.24</v>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AG40" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG40" t="inlineStr">
+      <c r="AH40" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH40" t="inlineStr">
+      <c r="AI40" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI40" t="n">
+      <c r="AJ40" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AK40" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK40" t="inlineStr">
+      <c r="AL40" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AM40" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM40" t="n">
+      <c r="AN40" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AO40" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AR40" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR40" t="n">
+      <c r="AS40" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU40" t="inlineStr">
+      <c r="AV40" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -8252,107 +8374,110 @@
           <t>-2.13</t>
         </is>
       </c>
-      <c r="U41" t="n">
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>7</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>-1</v>
       </c>
-      <c r="W41" t="b">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
+      <c r="X41" t="b">
+        <v>0</v>
+      </c>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr">
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="AA41" t="n">
+      <c r="AB41" t="n">
         <v>35971.02</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
         <v>28203.96</v>
       </c>
-      <c r="AC41" t="b">
+      <c r="AD41" t="b">
         <v>1</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AE41" t="n">
         <v>0.28</v>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AG41" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG41" t="inlineStr">
+      <c r="AH41" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH41" t="inlineStr">
+      <c r="AI41" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI41" t="n">
+      <c r="AJ41" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AK41" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK41" t="inlineStr">
+      <c r="AL41" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AM41" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM41" t="n">
+      <c r="AN41" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AR41" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR41" t="n">
+      <c r="AS41" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT41" t="inlineStr">
+      <c r="AU41" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU41" t="inlineStr">
+      <c r="AV41" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -8439,107 +8564,110 @@
           <t>-2.53</t>
         </is>
       </c>
-      <c r="U42" t="n">
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>-8</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>-1</v>
       </c>
-      <c r="W42" t="b">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr">
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="AA42" t="n">
+      <c r="AB42" t="n">
         <v>13085.67</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AC42" t="n">
         <v>17687.7</v>
       </c>
-      <c r="AC42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
         <v>-0.26</v>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG42" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH42" t="inlineStr">
+      <c r="AI42" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI42" t="n">
+      <c r="AJ42" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ42" t="n">
+      <c r="AK42" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK42" t="inlineStr">
+      <c r="AL42" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AM42" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM42" t="n">
+      <c r="AN42" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN42" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr">
+      <c r="AR42" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR42" t="n">
+      <c r="AS42" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT42" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU42" t="inlineStr">
+      <c r="AV42" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -8626,107 +8754,110 @@
           <t>-2.79</t>
         </is>
       </c>
-      <c r="U43" t="n">
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>-2</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>3</v>
       </c>
-      <c r="W43" t="b">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
+      <c r="X43" t="b">
+        <v>0</v>
+      </c>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr">
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA43" t="n">
+      <c r="AB43" t="n">
         <v>17508.16</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AC43" t="n">
         <v>18949.84</v>
       </c>
-      <c r="AC43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
         <v>-0.08</v>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG43" t="inlineStr">
+      <c r="AH43" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH43" t="inlineStr">
+      <c r="AI43" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI43" t="n">
+      <c r="AJ43" t="n">
         <v>50.79</v>
       </c>
-      <c r="AJ43" t="n">
+      <c r="AK43" t="n">
         <v>3.67</v>
       </c>
-      <c r="AK43" t="inlineStr">
+      <c r="AL43" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AM43" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM43" t="n">
+      <c r="AN43" t="n">
         <v>17.31</v>
       </c>
-      <c r="AN43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AR43" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR43" t="n">
+      <c r="AS43" t="n">
         <v>284.07</v>
       </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT43" t="inlineStr">
+      <c r="AU43" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU43" t="inlineStr">
+      <c r="AV43" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -8813,107 +8944,110 @@
           <t>2.92</t>
         </is>
       </c>
-      <c r="U44" t="n">
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>30</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>-29</v>
       </c>
-      <c r="W44" t="b">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr">
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr">
         <is>
           <t>-29</t>
         </is>
       </c>
-      <c r="AA44" t="n">
+      <c r="AB44" t="n">
         <v>-24373.73</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
         <v>-7083.36</v>
       </c>
-      <c r="AC44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
         <v>-2.44</v>
       </c>
-      <c r="AE44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AG44" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG44" t="inlineStr">
+      <c r="AH44" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH44" t="inlineStr">
+      <c r="AI44" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI44" t="n">
+      <c r="AJ44" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ44" t="n">
+      <c r="AK44" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK44" t="inlineStr">
+      <c r="AL44" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AM44" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM44" t="n">
+      <c r="AN44" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN44" t="inlineStr">
+      <c r="AO44" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr">
+      <c r="AR44" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR44" t="n">
+      <c r="AS44" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT44" t="inlineStr">
+      <c r="AU44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU44" t="inlineStr">
+      <c r="AV44" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -9000,107 +9134,110 @@
           <t>3.40</t>
         </is>
       </c>
-      <c r="U45" t="n">
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>30</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>-17</v>
       </c>
-      <c r="W45" t="b">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
+      <c r="X45" t="b">
+        <v>0</v>
+      </c>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr">
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr">
         <is>
           <t>-17</t>
         </is>
       </c>
-      <c r="AA45" t="n">
+      <c r="AB45" t="n">
         <v>-15021.23</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AC45" t="n">
         <v>-12561.97</v>
       </c>
-      <c r="AC45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AG45" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG45" t="inlineStr">
+      <c r="AH45" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH45" t="inlineStr">
+      <c r="AI45" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI45" t="n">
+      <c r="AJ45" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ45" t="n">
+      <c r="AK45" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK45" t="inlineStr">
+      <c r="AL45" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AM45" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM45" t="n">
+      <c r="AN45" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN45" t="inlineStr">
+      <c r="AO45" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr">
+      <c r="AR45" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR45" t="n">
+      <c r="AS45" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT45" t="inlineStr">
+      <c r="AU45" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU45" t="inlineStr">
+      <c r="AV45" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -9187,107 +9324,110 @@
           <t>3.86</t>
         </is>
       </c>
-      <c r="U46" t="n">
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>22</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>-12</v>
       </c>
-      <c r="W46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
+      <c r="X46" t="b">
+        <v>0</v>
+      </c>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr">
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr">
         <is>
           <t>-12</t>
         </is>
       </c>
-      <c r="AA46" t="n">
+      <c r="AB46" t="n">
         <v>-18306.88</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AC46" t="n">
         <v>-15103.93</v>
       </c>
-      <c r="AC46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
         <v>-0.21</v>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG46" t="inlineStr">
+      <c r="AH46" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH46" t="inlineStr">
+      <c r="AI46" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI46" t="n">
+      <c r="AJ46" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ46" t="n">
+      <c r="AK46" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK46" t="inlineStr">
+      <c r="AL46" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AM46" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM46" t="n">
+      <c r="AN46" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN46" t="inlineStr">
+      <c r="AO46" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr">
+      <c r="AR46" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR46" t="n">
+      <c r="AS46" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT46" t="inlineStr">
+      <c r="AU46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU46" t="inlineStr">
+      <c r="AV46" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -9374,107 +9514,110 @@
           <t>4.29</t>
         </is>
       </c>
-      <c r="U47" t="n">
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
         <v>26</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>-21</v>
       </c>
-      <c r="W47" t="b">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr"/>
+      <c r="X47" t="b">
+        <v>0</v>
+      </c>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr">
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr">
         <is>
           <t>-21</t>
         </is>
       </c>
-      <c r="AA47" t="n">
+      <c r="AB47" t="n">
         <v>-18161.66</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AC47" t="n">
         <v>-18241.35</v>
       </c>
-      <c r="AC47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG47" t="inlineStr">
+      <c r="AH47" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH47" t="inlineStr">
+      <c r="AI47" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI47" t="n">
+      <c r="AJ47" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ47" t="n">
+      <c r="AK47" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK47" t="inlineStr">
+      <c r="AL47" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AM47" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM47" t="n">
+      <c r="AN47" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN47" t="inlineStr">
+      <c r="AO47" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr">
+      <c r="AR47" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR47" t="n">
+      <c r="AS47" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT47" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU47" t="inlineStr">
+      <c r="AV47" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -9561,107 +9704,110 @@
           <t>4.70</t>
         </is>
       </c>
-      <c r="U48" t="n">
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
         <v>25</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>-8</v>
       </c>
-      <c r="W48" t="b">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr"/>
+      <c r="X48" t="b">
+        <v>0</v>
+      </c>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr">
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr">
         <is>
           <t>-8</t>
         </is>
       </c>
-      <c r="AA48" t="n">
+      <c r="AB48" t="n">
         <v>11676.91</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AC48" t="n">
         <v>-11176.52</v>
       </c>
-      <c r="AC48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
         <v>2.04</v>
       </c>
-      <c r="AE48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG48" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH48" t="inlineStr">
+      <c r="AI48" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI48" t="n">
+      <c r="AJ48" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AK48" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK48" t="inlineStr">
+      <c r="AL48" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL48" t="inlineStr">
+      <c r="AM48" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM48" t="n">
+      <c r="AN48" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN48" t="inlineStr">
+      <c r="AO48" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ48" t="inlineStr">
+      <c r="AR48" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR48" t="n">
+      <c r="AS48" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT48" t="inlineStr">
+      <c r="AU48" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU48" t="inlineStr">
+      <c r="AV48" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -9748,107 +9894,110 @@
           <t>5.12</t>
         </is>
       </c>
-      <c r="U49" t="n">
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
         <v>15</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>-28</v>
       </c>
-      <c r="W49" t="b">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
+      <c r="X49" t="b">
+        <v>0</v>
+      </c>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr">
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr">
         <is>
           <t>-28</t>
         </is>
       </c>
-      <c r="AA49" t="n">
+      <c r="AB49" t="n">
         <v>22220.05</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AC49" t="n">
         <v>-20888.38</v>
       </c>
-      <c r="AC49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
         <v>2.06</v>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AG49" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG49" t="inlineStr">
+      <c r="AH49" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH49" t="inlineStr">
+      <c r="AI49" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI49" t="n">
+      <c r="AJ49" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AK49" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK49" t="inlineStr">
+      <c r="AL49" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AM49" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM49" t="n">
+      <c r="AN49" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AR49" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR49" t="n">
+      <c r="AS49" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT49" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU49" t="inlineStr">
+      <c r="AV49" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -9935,107 +10084,110 @@
           <t>5.55</t>
         </is>
       </c>
-      <c r="U50" t="n">
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
         <v>14</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>-32</v>
       </c>
-      <c r="W50" t="b">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr">
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr">
         <is>
           <t>-32</t>
         </is>
       </c>
-      <c r="AA50" t="n">
+      <c r="AB50" t="n">
         <v>-9485.18</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AC50" t="n">
         <v>-28984.82</v>
       </c>
-      <c r="AC50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
         <v>0.67</v>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AG50" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG50" t="inlineStr">
+      <c r="AH50" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH50" t="inlineStr">
+      <c r="AI50" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI50" t="n">
+      <c r="AJ50" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ50" t="n">
+      <c r="AK50" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK50" t="inlineStr">
+      <c r="AL50" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AM50" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM50" t="n">
+      <c r="AN50" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN50" t="inlineStr">
+      <c r="AO50" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AR50" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR50" t="n">
+      <c r="AS50" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU50" t="inlineStr">
+      <c r="AV50" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -10122,107 +10274,110 @@
           <t>5.98</t>
         </is>
       </c>
-      <c r="U51" t="n">
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
         <v>20</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>-42</v>
       </c>
-      <c r="W51" t="b">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr"/>
+      <c r="X51" t="b">
+        <v>0</v>
+      </c>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr">
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr">
         <is>
           <t>-42</t>
         </is>
       </c>
-      <c r="AA51" t="n">
+      <c r="AB51" t="n">
         <v>-11005.23</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AC51" t="n">
         <v>-17607.64</v>
       </c>
-      <c r="AC51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
         <v>0.37</v>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG51" t="inlineStr">
+      <c r="AH51" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH51" t="inlineStr">
+      <c r="AI51" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI51" t="n">
+      <c r="AJ51" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ51" t="n">
+      <c r="AK51" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK51" t="inlineStr">
+      <c r="AL51" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AM51" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM51" t="n">
+      <c r="AN51" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN51" t="inlineStr">
+      <c r="AO51" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AR51" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR51" t="n">
+      <c r="AS51" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT51" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU51" t="inlineStr">
+      <c r="AV51" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -10309,107 +10464,110 @@
           <t>6.34</t>
         </is>
       </c>
-      <c r="U52" t="n">
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
         <v>19</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>-35</v>
       </c>
-      <c r="W52" t="b">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
+      <c r="X52" t="b">
+        <v>0</v>
+      </c>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr">
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr">
         <is>
           <t>-35</t>
         </is>
       </c>
-      <c r="AA52" t="n">
+      <c r="AB52" t="n">
         <v>-18320.69</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AC52" t="n">
         <v>-20839.83</v>
       </c>
-      <c r="AC52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
         <v>0.12</v>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AG52" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG52" t="inlineStr">
+      <c r="AH52" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH52" t="inlineStr">
+      <c r="AI52" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI52" t="n">
+      <c r="AJ52" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AK52" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK52" t="inlineStr">
+      <c r="AL52" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AM52" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM52" t="n">
+      <c r="AN52" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN52" t="inlineStr">
+      <c r="AO52" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AR52" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR52" t="n">
+      <c r="AS52" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT52" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU52" t="inlineStr">
+      <c r="AV52" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -10496,107 +10654,110 @@
           <t>6.68</t>
         </is>
       </c>
-      <c r="U53" t="n">
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
         <v>5</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>-42</v>
       </c>
-      <c r="W53" t="b">
-        <v>0</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
+      <c r="X53" t="b">
+        <v>0</v>
+      </c>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr">
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr">
         <is>
           <t>-42</t>
         </is>
       </c>
-      <c r="AA53" t="n">
+      <c r="AB53" t="n">
         <v>-19651.45</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AC53" t="n">
         <v>-16364.01</v>
       </c>
-      <c r="AC53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AG53" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG53" t="inlineStr">
+      <c r="AH53" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH53" t="inlineStr">
+      <c r="AI53" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI53" t="n">
+      <c r="AJ53" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ53" t="n">
+      <c r="AK53" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK53" t="inlineStr">
+      <c r="AL53" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL53" t="inlineStr">
+      <c r="AM53" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM53" t="n">
+      <c r="AN53" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN53" t="inlineStr">
+      <c r="AO53" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AR53" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR53" t="n">
+      <c r="AS53" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT53" t="inlineStr">
+      <c r="AU53" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU53" t="inlineStr">
+      <c r="AV53" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -10683,107 +10844,110 @@
           <t>6.99</t>
         </is>
       </c>
-      <c r="U54" t="n">
+      <c r="U54" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
         <v>8</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>-19</v>
       </c>
-      <c r="W54" t="b">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
+      <c r="X54" t="b">
+        <v>0</v>
+      </c>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr">
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr">
         <is>
           <t>-19</t>
         </is>
       </c>
-      <c r="AA54" t="n">
+      <c r="AB54" t="n">
         <v>-36964.57</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AC54" t="n">
         <v>-11886.55</v>
       </c>
-      <c r="AC54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
         <v>-2.11</v>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG54" t="inlineStr">
+      <c r="AH54" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH54" t="inlineStr">
+      <c r="AI54" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI54" t="n">
+      <c r="AJ54" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ54" t="n">
+      <c r="AK54" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK54" t="inlineStr">
+      <c r="AL54" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL54" t="inlineStr">
+      <c r="AM54" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM54" t="n">
+      <c r="AN54" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AO54" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AR54" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR54" t="n">
+      <c r="AS54" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU54" t="inlineStr">
+      <c r="AV54" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -10870,107 +11034,110 @@
           <t>7.24</t>
         </is>
       </c>
-      <c r="U55" t="n">
+      <c r="U55" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
         <v>5</v>
       </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
         <v>-15</v>
       </c>
-      <c r="W55" t="b">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
+      <c r="X55" t="b">
+        <v>0</v>
+      </c>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr">
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr">
         <is>
           <t>-15</t>
         </is>
       </c>
-      <c r="AA55" t="n">
+      <c r="AB55" t="n">
         <v>-39878.21</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AC55" t="n">
         <v>-16987.74</v>
       </c>
-      <c r="AC55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
         <v>-1.35</v>
       </c>
-      <c r="AE55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AG55" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG55" t="inlineStr">
+      <c r="AH55" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH55" t="inlineStr">
+      <c r="AI55" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI55" t="n">
+      <c r="AJ55" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ55" t="n">
+      <c r="AK55" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK55" t="inlineStr">
+      <c r="AL55" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL55" t="inlineStr">
+      <c r="AM55" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM55" t="n">
+      <c r="AN55" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AO55" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AR55" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR55" t="n">
+      <c r="AS55" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU55" t="inlineStr">
+      <c r="AV55" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -11057,115 +11224,118 @@
           <t>7.37</t>
         </is>
       </c>
-      <c r="U56" t="n">
+      <c r="U56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
         <v>4</v>
       </c>
-      <c r="V56" t="n">
+      <c r="W56" t="n">
         <v>5</v>
       </c>
-      <c r="W56" t="b">
-        <v>0</v>
-      </c>
-      <c r="X56" t="inlineStr">
+      <c r="X56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="Z56" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AA56" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AA56" t="n">
+      <c r="AB56" t="n">
         <v>-22337.03</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AC56" t="n">
         <v>7192.86</v>
       </c>
-      <c r="AC56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
         <v>-4.11</v>
       </c>
-      <c r="AE56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG56" t="inlineStr">
+      <c r="AH56" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH56" t="inlineStr">
+      <c r="AI56" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI56" t="n">
+      <c r="AJ56" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ56" t="n">
+      <c r="AK56" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK56" t="inlineStr">
+      <c r="AL56" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL56" t="inlineStr">
+      <c r="AM56" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM56" t="n">
+      <c r="AN56" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AO56" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AR56" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR56" t="n">
+      <c r="AS56" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU56" t="inlineStr">
+      <c r="AV56" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -11252,115 +11422,118 @@
           <t>7.39</t>
         </is>
       </c>
-      <c r="U57" t="n">
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
         <v>2</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>10</v>
       </c>
-      <c r="W57" t="b">
-        <v>0</v>
-      </c>
-      <c r="X57" t="inlineStr">
+      <c r="X57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Z57" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AA57" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AA57" t="n">
+      <c r="AB57" t="n">
         <v>-23085.7</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AC57" t="n">
         <v>17651.13</v>
       </c>
-      <c r="AC57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
         <v>-2.31</v>
       </c>
-      <c r="AE57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AG57" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG57" t="inlineStr">
+      <c r="AH57" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH57" t="inlineStr">
+      <c r="AI57" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI57" t="n">
+      <c r="AJ57" t="n">
         <v>11.16</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AK57" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="AK57" t="inlineStr">
+      <c r="AL57" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL57" t="inlineStr">
+      <c r="AM57" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM57" t="n">
+      <c r="AN57" t="n">
         <v>26.12</v>
       </c>
-      <c r="AN57" t="inlineStr">
+      <c r="AO57" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP57" t="inlineStr">
+      <c r="AQ57" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AR57" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR57" t="n">
+      <c r="AS57" t="n">
         <v>18.22</v>
       </c>
-      <c r="AS57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT57" t="inlineStr">
+      <c r="AU57" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU57" t="inlineStr">
+      <c r="AV57" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.07</v>
+        <v>-2.38</v>
       </c>
       <c r="D2" t="n">
-        <v>10758</v>
+        <v>7665</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="H2" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,17 +710,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -728,42 +728,42 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="W2" t="n">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -775,25 +775,25 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>987.3</v>
+        <v>647.5700000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1208.09</v>
+        <v>739.85</v>
       </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -812,14 +812,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>7.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -885,40 +885,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.89</v>
+        <v>-2.07</v>
       </c>
       <c r="D3" t="n">
-        <v>9682</v>
+        <v>10758</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="H3" t="n">
-        <v>168.5</v>
+        <v>165</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>-2.12</v>
+        <v>-2.48</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -926,42 +926,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -973,25 +973,25 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>1388.26</v>
+        <v>987.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>1132.88</v>
+        <v>1208.09</v>
       </c>
       <c r="AD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>7.58</v>
       </c>
       <c r="AK3" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1083,40 +1083,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D4" t="n">
-        <v>30249</v>
+        <v>9682</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>167</v>
+        <v>168.5</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-1.21</v>
+        <v>-4.66</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1139,27 +1139,27 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="W4" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -1171,25 +1171,25 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>1146.19</v>
+        <v>1388.26</v>
       </c>
       <c r="AC4" t="n">
-        <v>672.33</v>
+        <v>1132.88</v>
       </c>
       <c r="AD4" t="b">
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1208,14 +1208,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>7.58</v>
       </c>
       <c r="AK4" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1228,11 +1228,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1281,40 +1281,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.08</v>
+        <v>0.3</v>
       </c>
       <c r="D5" t="n">
-        <v>9920</v>
+        <v>30249</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>166.5</v>
+        <v>167</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-0.91</v>
+        <v>-3.73</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -1322,98 +1322,98 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>26</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-28</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>1146.19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>672.33</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>華星光</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>0.96</t>
-        </is>
-      </c>
-      <c r="U5" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>16</v>
-      </c>
-      <c r="W5" t="n">
-        <v>-47</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>-47</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>-428.23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>814.35</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>-1.53</v>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>華星光</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0.94</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>7.58</v>
       </c>
       <c r="AK5" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1426,11 +1426,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1479,40 +1479,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D6" t="n">
-        <v>9057</v>
+        <v>9920</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-3.03</v>
+        <v>-3.42</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1520,42 +1520,42 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="W6" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1567,25 +1567,25 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>821.83</v>
+        <v>-428.23</v>
       </c>
       <c r="AC6" t="n">
-        <v>1024.77</v>
+        <v>814.35</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.2</v>
+        <v>-1.53</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>7.58</v>
       </c>
       <c r="AK6" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1624,11 +1624,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1677,40 +1677,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="D7" t="n">
-        <v>17560</v>
+        <v>9057</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-1.21</v>
+        <v>-5.59</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1718,42 +1718,42 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1765,25 +1765,25 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>1394.35</v>
+        <v>821.83</v>
       </c>
       <c r="AC7" t="n">
-        <v>807.8</v>
+        <v>1024.77</v>
       </c>
       <c r="AD7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.73</v>
+        <v>-0.2</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1802,14 +1802,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>7.58</v>
       </c>
       <c r="AK7" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1875,40 +1875,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.79</v>
+        <v>1.49</v>
       </c>
       <c r="D8" t="n">
-        <v>8704</v>
+        <v>17560</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>164.5</v>
+        <v>167</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.3</v>
+        <v>-3.73</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W8" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1963,25 +1963,25 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>799.73</v>
+        <v>1394.35</v>
       </c>
       <c r="AC8" t="n">
-        <v>726.02</v>
+        <v>807.8</v>
       </c>
       <c r="AD8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -2000,14 +2000,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>7.58</v>
       </c>
       <c r="AK8" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2020,11 +2020,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2073,40 +2073,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.46</v>
+        <v>-1.79</v>
       </c>
       <c r="D9" t="n">
-        <v>13645</v>
+        <v>8704</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>167.5</v>
+        <v>164.5</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>-1.52</v>
+        <v>-2.17</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2129,27 +2129,27 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W9" t="n">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2161,25 +2161,25 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-640.0700000000001</v>
+        <v>799.73</v>
       </c>
       <c r="AC9" t="n">
-        <v>652.95</v>
+        <v>726.02</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-1.98</v>
+        <v>0.1</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2198,14 +2198,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>7.58</v>
       </c>
       <c r="AK9" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2218,11 +2218,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2271,40 +2271,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.89</v>
+        <v>-1.46</v>
       </c>
       <c r="D10" t="n">
-        <v>15638</v>
+        <v>13645</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="H10" t="n">
-        <v>170</v>
+        <v>167.5</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>-3.03</v>
+        <v>-4.04</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2312,42 +2312,42 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2359,25 +2359,25 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>1228.7</v>
+        <v>-640.0700000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>626.71</v>
+        <v>652.95</v>
       </c>
       <c r="AD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.96</v>
+        <v>-1.98</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2396,14 +2396,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>7.58</v>
       </c>
       <c r="AK10" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2416,11 +2416,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2469,40 +2469,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.29</v>
+        <v>0.89</v>
       </c>
       <c r="D11" t="n">
-        <v>46062</v>
+        <v>15638</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.38</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>168.5</v>
+        <v>170</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>-2.12</v>
+        <v>-5.59</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2510,42 +2510,42 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2557,25 +2557,25 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>1193.7</v>
+        <v>1228.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>598.13</v>
+        <v>626.71</v>
       </c>
       <c r="AD11" t="b">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2594,14 +2594,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>7.58</v>
       </c>
       <c r="AK11" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2614,11 +2614,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2667,40 +2667,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3</v>
+        <v>3.29</v>
       </c>
       <c r="D12" t="n">
-        <v>21314</v>
+        <v>46062</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>65.38</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H12" t="n">
-        <v>163</v>
+        <v>168.5</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1.21</v>
+        <v>-4.66</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2708,42 +2708,42 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-4.42</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W12" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-799.46</v>
+        <v>1193.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>251.14</v>
+        <v>598.13</v>
       </c>
       <c r="AD12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>-4.18</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2792,14 +2792,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>7.58</v>
       </c>
       <c r="AK12" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2812,11 +2812,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2865,40 +2865,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.47</v>
+        <v>-0.3</v>
       </c>
       <c r="D13" t="n">
-        <v>39936</v>
+        <v>21314</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56.69</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>163.5</v>
+        <v>163</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.91</v>
+        <v>-1.24</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2906,42 +2906,42 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>-4.42</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2953,25 +2953,25 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>643.9299999999999</v>
+        <v>-799.46</v>
       </c>
       <c r="AC13" t="n">
-        <v>903.41</v>
+        <v>251.14</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.29</v>
+        <v>-4.18</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2990,14 +2990,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>7.58</v>
       </c>
       <c r="AK13" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -3010,11 +3010,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3054,7 +3054,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3063,40 +3063,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.93</v>
+        <v>-1.47</v>
       </c>
       <c r="D14" t="n">
-        <v>45282</v>
+        <v>39936</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>56.69</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>166</v>
+        <v>163.5</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-0.61</v>
+        <v>-1.55</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3104,64 +3104,72 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-2.85</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-6.24</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
       </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>1123.56</v>
+        <v>643.9299999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>1144.67</v>
+        <v>903.41</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.02</v>
+        <v>-0.29</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3180,14 +3188,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>7.58</v>
       </c>
       <c r="AK14" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3200,11 +3208,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3244,7 +3252,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3253,40 +3261,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.66</v>
+        <v>9.93</v>
       </c>
       <c r="D15" t="n">
-        <v>14873</v>
+        <v>45282</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>8.48</v>
+        <v>-3.11</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -3294,12 +3302,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3309,27 +3317,27 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-4.56</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-7.09</t>
+          <t>-6.24</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="W15" t="n">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
@@ -3338,20 +3346,20 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-850.99</v>
+        <v>1123.56</v>
       </c>
       <c r="AC15" t="n">
-        <v>1039.8</v>
+        <v>1144.67</v>
       </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-1.82</v>
+        <v>-0.02</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3370,14 +3378,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>7.58</v>
       </c>
       <c r="AK15" t="n">
-        <v>36.18</v>
+        <v>35.31</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3390,11 +3398,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>60.21</v>
+        <v>59.63</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3422,7 +3430,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -3434,7 +3442,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3443,22 +3451,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.22</v>
+        <v>-0.85</v>
       </c>
       <c r="D16" t="n">
-        <v>60073.015</v>
+        <v>69555.459</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -3466,17 +3474,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -3484,7 +3492,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3494,32 +3502,32 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W16" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -3531,25 +3539,25 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-49968.05</v>
+        <v>-51333.06</v>
       </c>
       <c r="AC16" t="n">
-        <v>44719.79</v>
+        <v>23266.32</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-2.12</v>
+        <v>-3.21</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3568,14 +3576,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>13.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3588,11 +3596,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3632,7 +3640,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3641,40 +3649,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.84</v>
+        <v>-1.22</v>
       </c>
       <c r="D17" t="n">
-        <v>55414.145</v>
+        <v>60073.015</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>16.80</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="H17" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-1.22</v>
+        <v>-0.86</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -3682,42 +3690,42 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="W17" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -3729,25 +3737,25 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-21825.25</v>
+        <v>-49968.05</v>
       </c>
       <c r="AC17" t="n">
-        <v>59172.43</v>
+        <v>44719.79</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.37</v>
+        <v>-2.12</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3766,14 +3774,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>13.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3786,11 +3794,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3830,7 +3838,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3839,40 +3847,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-3.67</v>
+        <v>-0.84</v>
       </c>
       <c r="D18" t="n">
-        <v>157042.134</v>
+        <v>55414.145</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>47.62</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="H18" t="n">
-        <v>83.7</v>
+        <v>83</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-2.07</v>
+        <v>-2.09</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -3880,7 +3888,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3890,32 +3898,32 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -3927,25 +3935,25 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-38559.06</v>
+        <v>-21825.25</v>
       </c>
       <c r="AC18" t="n">
-        <v>63982.29</v>
+        <v>59172.43</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.6</v>
+        <v>-1.37</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3964,14 +3972,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>13.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3984,11 +3992,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4028,7 +4036,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4037,40 +4045,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.36</v>
+        <v>-3.67</v>
       </c>
       <c r="D19" t="n">
-        <v>178996.807</v>
+        <v>157042.134</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>54.27</t>
+          <t>47.62</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="H19" t="n">
-        <v>86.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-5.98</v>
+        <v>-2.95</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -4078,42 +4086,42 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4125,25 +4133,25 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>71451.41</v>
+        <v>-38559.06</v>
       </c>
       <c r="AC19" t="n">
-        <v>74695.83</v>
+        <v>63982.29</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.04</v>
+        <v>-1.6</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4162,14 +4170,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>13.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4182,11 +4190,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4214,7 +4222,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
@@ -4226,7 +4234,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4235,40 +4243,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.24</v>
+        <v>4.36</v>
       </c>
       <c r="D20" t="n">
-        <v>59784.492</v>
+        <v>178996.807</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>54.27</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H20" t="n">
-        <v>83.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-1.59</v>
+        <v>-6.89</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -4276,42 +4284,42 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W20" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4323,25 +4331,25 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>60973.17</v>
+        <v>71451.41</v>
       </c>
       <c r="AC20" t="n">
-        <v>62920.57</v>
+        <v>74695.83</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4360,14 +4368,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>13.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4380,11 +4388,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4424,7 +4432,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4433,35 +4441,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="D21" t="n">
-        <v>62501.355</v>
+        <v>59784.492</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="H21" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-1.83</v>
+        <v>-2.46</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4474,12 +4482,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4489,27 +4497,27 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W21" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4521,25 +4529,25 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>80601.03</v>
+        <v>60973.17</v>
       </c>
       <c r="AC21" t="n">
-        <v>66234.94</v>
+        <v>62920.57</v>
       </c>
       <c r="AD21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4558,14 +4566,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>13.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4578,11 +4586,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4622,7 +4630,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4631,35 +4639,35 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.83</v>
+        <v>0.24</v>
       </c>
       <c r="D22" t="n">
-        <v>115578.478</v>
+        <v>62501.355</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-1.59</v>
+        <v>-2.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4672,42 +4680,42 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="W22" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4719,25 +4727,25 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>86481.75</v>
+        <v>80601.03</v>
       </c>
       <c r="AC22" t="n">
-        <v>63133.06</v>
+        <v>66234.94</v>
       </c>
       <c r="AD22" t="b">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4756,14 +4764,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>13.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4776,11 +4784,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4820,7 +4828,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4829,40 +4837,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.62</v>
+        <v>-0.83</v>
       </c>
       <c r="D23" t="n">
-        <v>235712.727</v>
+        <v>115578.478</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H23" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-2.44</v>
+        <v>-2.46</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -4870,42 +4878,42 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W23" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4917,25 +4925,25 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>98357.86</v>
+        <v>86481.75</v>
       </c>
       <c r="AC23" t="n">
-        <v>69370.52</v>
+        <v>63133.06</v>
       </c>
       <c r="AD23" t="b">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4954,14 +4962,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>13.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4974,11 +4982,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -5018,7 +5026,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5027,40 +5035,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.12</v>
+        <v>5.62</v>
       </c>
       <c r="D24" t="n">
-        <v>104700.664</v>
+        <v>235712.727</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="H24" t="n">
-        <v>79.5</v>
+        <v>84</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>-3.32</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -5068,42 +5076,42 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="W24" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5115,25 +5123,25 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>77805.08</v>
+        <v>98357.86</v>
       </c>
       <c r="AC24" t="n">
-        <v>55558.31</v>
+        <v>69370.52</v>
       </c>
       <c r="AD24" t="b">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5152,14 +5160,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>13.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5172,11 +5180,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5216,7 +5224,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5225,35 +5233,35 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.78</v>
+        <v>0.12</v>
       </c>
       <c r="D25" t="n">
-        <v>112713.378</v>
+        <v>104700.664</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>34.18</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>1.31</v>
       </c>
       <c r="H25" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>3.17</v>
+        <v>2.21</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5266,42 +5274,42 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>28.74</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W25" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5313,25 +5321,25 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>64809.48</v>
+        <v>77805.08</v>
       </c>
       <c r="AC25" t="n">
-        <v>45623.98</v>
+        <v>55558.31</v>
       </c>
       <c r="AD25" t="b">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5350,14 +5358,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>13.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5370,11 +5378,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5414,7 +5422,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5423,40 +5431,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.95</v>
+        <v>1.78</v>
       </c>
       <c r="D26" t="n">
-        <v>129755.714</v>
+        <v>112713.378</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>39.34</t>
+          <t>34.18</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="H26" t="n">
-        <v>78</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>4.88</v>
+        <v>2.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -5464,7 +5472,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -5474,32 +5482,32 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="W26" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5511,25 +5519,25 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>47724.31</v>
+        <v>64809.48</v>
       </c>
       <c r="AC26" t="n">
-        <v>35880.88</v>
+        <v>45623.98</v>
       </c>
       <c r="AD26" t="b">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5548,14 +5556,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>13.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5568,11 +5576,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5612,7 +5620,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5621,40 +5629,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.96</v>
+        <v>6.95</v>
       </c>
       <c r="D27" t="n">
-        <v>18225.738</v>
+        <v>129755.714</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>39.34</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H27" t="n">
-        <v>72.5</v>
+        <v>78</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>11.59</v>
+        <v>4.06</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -5662,42 +5670,42 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="W27" t="n">
-        <v>-18</v>
+        <v>31</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5709,25 +5717,25 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>22191.7</v>
+        <v>47724.31</v>
       </c>
       <c r="AC27" t="n">
-        <v>9771.34</v>
+        <v>35880.88</v>
       </c>
       <c r="AD27" t="b">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.27</v>
+        <v>0.33</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5746,14 +5754,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>13.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5766,11 +5774,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5798,7 +5806,7 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
@@ -5810,7 +5818,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5819,35 +5827,35 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.83</v>
+        <v>0.96</v>
       </c>
       <c r="D28" t="n">
-        <v>20986.35</v>
+        <v>18225.738</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H28" t="n">
-        <v>71.8</v>
+        <v>72.5</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>12.44</v>
+        <v>10.82</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5860,32 +5868,32 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="U28" t="b">
@@ -5895,7 +5903,7 @@
         <v>21</v>
       </c>
       <c r="W28" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5907,25 +5915,25 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-7051.92</v>
+        <v>22191.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-12837.16</v>
+        <v>9771.34</v>
       </c>
       <c r="AD28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.45</v>
+        <v>1.27</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5944,14 +5952,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>13.03</v>
       </c>
       <c r="AK28" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5964,11 +5972,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -6008,7 +6016,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6017,40 +6025,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.71</v>
+        <v>1.83</v>
       </c>
       <c r="D29" t="n">
-        <v>12154.124</v>
+        <v>20986.35</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>70.5</v>
+        <v>71.8</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>14.02</v>
+        <v>11.69</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -6058,42 +6066,42 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W29" t="n">
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -6105,25 +6113,25 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>10946.32</v>
+        <v>-7051.92</v>
       </c>
       <c r="AC29" t="n">
-        <v>-11678.68</v>
+        <v>-12837.16</v>
       </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.94</v>
+        <v>0.45</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6142,14 +6150,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>13.03</v>
       </c>
       <c r="AK29" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6162,11 +6170,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6206,7 +6214,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6215,22 +6223,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
       <c r="D30" t="n">
-        <v>15762.398</v>
+        <v>18242.127</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="H30" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
@@ -6238,17 +6246,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -6256,42 +6264,42 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="W30" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -6300,20 +6308,20 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-48165.22</v>
+        <v>-46739.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>55941.11</v>
+        <v>35357.62</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1.86</v>
+        <v>-2.32</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6332,14 +6340,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>50.79</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6352,11 +6360,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6396,7 +6404,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6405,35 +6413,35 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>11250.473</v>
+        <v>15762.398</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="H31" t="n">
         <v>253</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.61</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -6446,7 +6454,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -6456,32 +6464,32 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="W31" t="n">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6490,20 +6498,20 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-16029.25</v>
+        <v>-48165.22</v>
       </c>
       <c r="AC31" t="n">
-        <v>69339.78</v>
+        <v>55941.11</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1.23</v>
+        <v>-1.86</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6522,14 +6530,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>50.79</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6542,11 +6550,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6586,7 +6594,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6595,40 +6603,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1.53</v>
+        <v>-1.17</v>
       </c>
       <c r="D32" t="n">
-        <v>27921.207</v>
+        <v>11250.473</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-1.19</v>
+        <v>-1.61</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -6636,42 +6644,42 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W32" t="n">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6680,20 +6688,20 @@
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-40403.99</v>
+        <v>-16029.25</v>
       </c>
       <c r="AC32" t="n">
-        <v>73603.61</v>
+        <v>69339.78</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.55</v>
+        <v>-1.23</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6712,14 +6720,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>50.79</v>
       </c>
       <c r="AK32" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6732,11 +6740,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6776,7 +6784,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6785,40 +6793,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.38</v>
+        <v>-1.53</v>
       </c>
       <c r="D33" t="n">
-        <v>29888.144</v>
+        <v>27921.207</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="H33" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-2.77</v>
+        <v>-2.81</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -6826,42 +6834,42 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>-26</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6870,20 +6878,20 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>62265.38</v>
+        <v>-40403.99</v>
       </c>
       <c r="AC33" t="n">
-        <v>79723.25999999999</v>
+        <v>73603.61</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.22</v>
+        <v>-1.55</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6902,14 +6910,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>50.79</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6922,11 +6930,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6954,7 +6962,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6966,7 +6974,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6975,40 +6983,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.39</v>
+        <v>1.38</v>
       </c>
       <c r="D34" t="n">
-        <v>20529.87</v>
+        <v>29888.144</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H34" t="n">
-        <v>256.5</v>
+        <v>260</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-1.38</v>
+        <v>-4.42</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -7016,7 +7024,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -7026,32 +7034,32 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="W34" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -7060,20 +7068,20 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>68446.63</v>
+        <v>62265.38</v>
       </c>
       <c r="AC34" t="n">
-        <v>75477.07000000001</v>
+        <v>79723.25999999999</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.09</v>
+        <v>-0.22</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7092,14 +7100,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>50.79</v>
       </c>
       <c r="AK34" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7112,11 +7120,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7156,7 +7164,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7165,40 +7173,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.18</v>
+        <v>-0.39</v>
       </c>
       <c r="D35" t="n">
-        <v>24833.927</v>
+        <v>20529.87</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>257.5</v>
+        <v>256.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-1.78</v>
+        <v>-3.01</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -7206,12 +7214,12 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -7221,27 +7229,27 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W35" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7250,20 +7258,20 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>92621.3</v>
+        <v>68446.63</v>
       </c>
       <c r="AC35" t="n">
-        <v>77736.25</v>
+        <v>75477.07000000001</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7282,14 +7290,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>50.79</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7302,11 +7310,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7346,7 +7354,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7355,40 +7363,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-2.31</v>
+        <v>1.18</v>
       </c>
       <c r="D36" t="n">
-        <v>37909.432</v>
+        <v>24833.927</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="H36" t="n">
-        <v>254.5</v>
+        <v>257.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-0.59</v>
+        <v>-3.41</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -7396,42 +7404,42 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="W36" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7440,20 +7448,20 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>99362.71000000001</v>
+        <v>92621.3</v>
       </c>
       <c r="AC36" t="n">
-        <v>74722.36</v>
+        <v>77736.25</v>
       </c>
       <c r="AD36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7472,14 +7480,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>50.79</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7492,11 +7500,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7536,7 +7544,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7545,40 +7553,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.07</v>
+        <v>-2.31</v>
       </c>
       <c r="D37" t="n">
-        <v>79214.121</v>
+        <v>37909.432</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>33.87</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="H37" t="n">
-        <v>260.5</v>
+        <v>254.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-2.96</v>
+        <v>-2.21</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -7586,39 +7594,39 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W37" t="n">
         <v>74</v>
@@ -7634,16 +7642,16 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>111657.81</v>
+        <v>99362.71000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>79494.34</v>
+        <v>74722.36</v>
       </c>
       <c r="AD37" t="b">
         <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7662,14 +7670,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>50.79</v>
       </c>
       <c r="AK37" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7682,11 +7690,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7726,7 +7734,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7735,40 +7743,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.22</v>
+        <v>6.07</v>
       </c>
       <c r="D38" t="n">
-        <v>47743.43</v>
+        <v>79214.121</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>70.77</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="H38" t="n">
-        <v>245.5</v>
+        <v>260.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>2.96</v>
+        <v>-4.62</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7776,42 +7784,42 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="W38" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -7820,20 +7828,20 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>93992.64999999999</v>
+        <v>111657.81</v>
       </c>
       <c r="AC38" t="n">
-        <v>67606.03999999999</v>
+        <v>79494.34</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7852,14 +7860,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>50.79</v>
       </c>
       <c r="AK38" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7872,11 +7880,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7916,7 +7924,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7925,40 +7933,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.26</v>
+        <v>1.22</v>
       </c>
       <c r="D39" t="n">
-        <v>59161.712</v>
+        <v>47743.43</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="H39" t="n">
-        <v>242.5</v>
+        <v>245.5</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>4.15</v>
+        <v>1.41</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -7966,42 +7974,42 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="W39" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -8010,20 +8018,20 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>81906.25999999999</v>
+        <v>93992.64999999999</v>
       </c>
       <c r="AC39" t="n">
-        <v>59677.39</v>
+        <v>67606.03999999999</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8042,14 +8050,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>50.79</v>
       </c>
       <c r="AK39" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8062,11 +8070,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8106,7 +8114,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8115,40 +8123,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6.33</v>
+        <v>4.26</v>
       </c>
       <c r="D40" t="n">
-        <v>55211.383</v>
+        <v>59161.712</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>49.32</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>232.5</v>
+        <v>242.5</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>8.1</v>
+        <v>2.61</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -8156,42 +8164,42 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="W40" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -8200,20 +8208,20 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>59221.13</v>
+        <v>81906.25999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>47750.08</v>
+        <v>59677.39</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8232,14 +8240,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>50.79</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8252,11 +8260,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8296,7 +8304,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8305,40 +8313,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.03</v>
+        <v>6.33</v>
       </c>
       <c r="D41" t="n">
-        <v>14920.271</v>
+        <v>55211.383</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>49.32</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>217.5</v>
+        <v>232.5</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>14.03</v>
+        <v>6.63</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8346,42 +8354,42 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="W41" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8390,20 +8398,20 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>35971.02</v>
+        <v>59221.13</v>
       </c>
       <c r="AC41" t="n">
-        <v>28203.96</v>
+        <v>47750.08</v>
       </c>
       <c r="AD41" t="b">
         <v>1</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8422,14 +8430,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>50.79</v>
       </c>
       <c r="AK41" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8442,11 +8450,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8486,7 +8494,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8495,40 +8503,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.91</v>
+        <v>3.03</v>
       </c>
       <c r="D42" t="n">
-        <v>10238.076</v>
+        <v>14920.271</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>211</v>
+        <v>217.5</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>16.6</v>
+        <v>12.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8536,39 +8544,39 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-2.53</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="W42" t="n">
         <v>-1</v>
@@ -8584,16 +8592,16 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>13085.67</v>
+        <v>35971.02</v>
       </c>
       <c r="AC42" t="n">
-        <v>17687.7</v>
+        <v>28203.96</v>
       </c>
       <c r="AD42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42" t="n">
-        <v>-0.26</v>
+        <v>0.28</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8612,14 +8620,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>50.79</v>
       </c>
       <c r="AK42" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8632,11 +8640,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8676,7 +8684,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8685,40 +8693,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.49</v>
+        <v>1.91</v>
       </c>
       <c r="D43" t="n">
-        <v>5523.871</v>
+        <v>10238.076</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>18.18</v>
+        <v>15.26</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>18242</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8726,42 +8734,42 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="W43" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8770,20 +8778,20 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>17508.16</v>
+        <v>13085.67</v>
       </c>
       <c r="AC43" t="n">
-        <v>18949.84</v>
+        <v>17687.7</v>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.08</v>
+        <v>-0.26</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8802,14 +8810,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>50.79</v>
       </c>
       <c r="AK43" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8822,11 +8830,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>17.31</v>
+        <v>17.1</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8854,7 +8862,7 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
@@ -8866,7 +8874,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8875,22 +8883,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-3.04</v>
+        <v>-3.07</v>
       </c>
       <c r="D44" t="n">
-        <v>6673.803</v>
+        <v>5204.13</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H44" t="n">
-        <v>63.8</v>
+        <v>61.8</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
@@ -8898,17 +8906,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8916,42 +8924,42 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W44" t="n">
-        <v>-29</v>
+        <v>-40</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8960,20 +8968,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-24373.73</v>
+        <v>-21721.22</v>
       </c>
       <c r="AC44" t="n">
-        <v>-7083.36</v>
+        <v>-12951.08</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-2.44</v>
+        <v>-0.68</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8992,14 +9000,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>11.16</v>
       </c>
       <c r="AK44" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9012,11 +9020,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9056,7 +9064,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9065,40 +9073,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-1.93</v>
+        <v>-3.04</v>
       </c>
       <c r="D45" t="n">
-        <v>4691.497</v>
+        <v>6673.803</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H45" t="n">
-        <v>65.8</v>
+        <v>63.8</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-3.13</v>
+        <v>-3.24</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -9106,32 +9114,32 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U45" t="b">
@@ -9141,7 +9149,7 @@
         <v>30</v>
       </c>
       <c r="W45" t="n">
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9150,20 +9158,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-15021.23</v>
+        <v>-24373.73</v>
       </c>
       <c r="AC45" t="n">
-        <v>-12561.97</v>
+        <v>-7083.36</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.2</v>
+        <v>-2.44</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9182,14 +9190,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>11.16</v>
       </c>
       <c r="AK45" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9202,11 +9210,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9246,7 +9254,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9255,40 +9263,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-3.71</v>
+        <v>-1.93</v>
       </c>
       <c r="D46" t="n">
-        <v>10178.928</v>
+        <v>4691.497</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H46" t="n">
-        <v>67.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>-5.17</v>
+        <v>-6.47</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -9296,12 +9304,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -9311,27 +9319,27 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W46" t="n">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9340,20 +9348,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-18306.88</v>
+        <v>-15021.23</v>
       </c>
       <c r="AC46" t="n">
-        <v>-15103.93</v>
+        <v>-12561.97</v>
       </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9372,14 +9380,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>11.16</v>
       </c>
       <c r="AK46" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9392,11 +9400,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9436,7 +9444,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9445,40 +9453,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.43</v>
+        <v>-3.71</v>
       </c>
       <c r="D47" t="n">
-        <v>8493.882</v>
+        <v>10178.928</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="H47" t="n">
-        <v>69.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-9.25</v>
+        <v>-8.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9486,42 +9494,42 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W47" t="n">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9530,20 +9538,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-18161.66</v>
+        <v>-18306.88</v>
       </c>
       <c r="AC47" t="n">
-        <v>-18241.35</v>
+        <v>-15103.93</v>
       </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9562,14 +9570,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>11.16</v>
       </c>
       <c r="AK47" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9582,11 +9590,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9626,7 +9634,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9635,40 +9643,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="D48" t="n">
-        <v>13425.679</v>
+        <v>8493.882</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="H48" t="n">
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-9.720000000000001</v>
+        <v>-12.78</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9676,7 +9684,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -9686,32 +9694,32 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W48" t="n">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9720,20 +9728,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>11676.91</v>
+        <v>-18161.66</v>
       </c>
       <c r="AC48" t="n">
-        <v>-11176.52</v>
+        <v>-18241.35</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9752,14 +9760,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>11.16</v>
       </c>
       <c r="AK48" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9772,11 +9780,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9816,7 +9824,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9825,40 +9833,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.16</v>
+        <v>-0.14</v>
       </c>
       <c r="D49" t="n">
-        <v>19960.491</v>
+        <v>13425.679</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="H49" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-9.869999999999999</v>
+        <v>-13.27</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9866,7 +9874,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -9876,32 +9884,32 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W49" t="n">
-        <v>-28</v>
+        <v>-8</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9910,20 +9918,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>22220.05</v>
+        <v>11676.91</v>
       </c>
       <c r="AC49" t="n">
-        <v>-20888.38</v>
+        <v>-11176.52</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9942,14 +9950,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>11.16</v>
       </c>
       <c r="AK49" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9962,11 +9970,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -10006,7 +10014,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10015,40 +10023,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-4.59</v>
+        <v>2.16</v>
       </c>
       <c r="D50" t="n">
-        <v>12526.571</v>
+        <v>19960.491</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="H50" t="n">
-        <v>68.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-7.52</v>
+        <v>-13.43</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -10056,42 +10064,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W50" t="n">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10100,20 +10108,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-9485.18</v>
+        <v>22220.05</v>
       </c>
       <c r="AC50" t="n">
-        <v>-28984.82</v>
+        <v>-20888.38</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.67</v>
+        <v>2.06</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10132,14 +10140,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>11.16</v>
       </c>
       <c r="AK50" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10152,11 +10160,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10196,7 +10204,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10205,40 +10213,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.41</v>
+        <v>-4.59</v>
       </c>
       <c r="D51" t="n">
-        <v>9130.764999999999</v>
+        <v>12526.571</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H51" t="n">
-        <v>71.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-12.7</v>
+        <v>-11</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10246,42 +10254,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W51" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10290,20 +10298,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-11005.23</v>
+        <v>-9485.18</v>
       </c>
       <c r="AC51" t="n">
-        <v>-17607.64</v>
+        <v>-28984.82</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10322,14 +10330,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>11.16</v>
       </c>
       <c r="AK51" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10342,11 +10350,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10386,7 +10394,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10395,40 +10403,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.7</v>
+        <v>-0.41</v>
       </c>
       <c r="D52" t="n">
-        <v>23811.657</v>
+        <v>9130.764999999999</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="H52" t="n">
-        <v>72.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-13.17</v>
+        <v>-16.34</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10436,7 +10444,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -10446,32 +10454,32 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W52" t="n">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10480,20 +10488,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-18320.69</v>
+        <v>-11005.23</v>
       </c>
       <c r="AC52" t="n">
-        <v>-20839.83</v>
+        <v>-17607.64</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10512,14 +10520,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>11.16</v>
       </c>
       <c r="AK52" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10532,11 +10540,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10576,7 +10584,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10585,40 +10593,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="D53" t="n">
-        <v>11786.521</v>
+        <v>23811.657</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="H53" t="n">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-12.38</v>
+        <v>-16.83</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10626,42 +10634,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="W53" t="n">
-        <v>-42</v>
+        <v>-35</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10670,20 +10678,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-19651.45</v>
+        <v>-18320.69</v>
       </c>
       <c r="AC53" t="n">
-        <v>-16364.01</v>
+        <v>-20839.83</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>-0.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10702,14 +10710,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>11.16</v>
       </c>
       <c r="AK53" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10722,11 +10730,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10766,7 +10774,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10775,40 +10783,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-2.04</v>
+        <v>0.42</v>
       </c>
       <c r="D54" t="n">
-        <v>21149.447</v>
+        <v>11786.521</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="H54" t="n">
-        <v>71.40000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>-11.91</v>
+        <v>-16.02</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -10816,42 +10824,42 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="U54" t="b">
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W54" t="n">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="X54" t="b">
         <v>0</v>
@@ -10860,20 +10868,20 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-36964.57</v>
+        <v>-19651.45</v>
       </c>
       <c r="AC54" t="n">
-        <v>-11886.55</v>
+        <v>-16364.01</v>
       </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>-2.11</v>
+        <v>-0.2</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -10892,14 +10900,14 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ54" t="n">
         <v>11.16</v>
       </c>
       <c r="AK54" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL54" t="inlineStr">
         <is>
@@ -10912,11 +10920,11 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
@@ -10956,7 +10964,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10965,40 +10973,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.14</v>
+        <v>-2.04</v>
       </c>
       <c r="D55" t="n">
-        <v>14019.086</v>
+        <v>21149.447</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="H55" t="n">
-        <v>72.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>-14.26</v>
+        <v>-15.53</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -11006,7 +11014,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -11016,32 +11024,32 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="U55" t="b">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W55" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="X55" t="b">
         <v>0</v>
@@ -11050,20 +11058,20 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>-39878.21</v>
+        <v>-36964.57</v>
       </c>
       <c r="AC55" t="n">
-        <v>-16987.74</v>
+        <v>-11886.55</v>
       </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>-1.35</v>
+        <v>-2.11</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11082,14 +11090,14 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ55" t="n">
         <v>11.16</v>
       </c>
       <c r="AK55" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
@@ -11102,11 +11110,11 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -11146,7 +11154,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11155,40 +11163,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-6.41</v>
+        <v>-0.14</v>
       </c>
       <c r="D56" t="n">
-        <v>23409.698</v>
+        <v>14019.086</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="H56" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>-14.42</v>
+        <v>-17.96</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -11196,72 +11204,64 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="U56" t="b">
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W56" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="X56" t="b">
         <v>0</v>
       </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>-22337.03</v>
+        <v>-39878.21</v>
       </c>
       <c r="AC56" t="n">
-        <v>7192.86</v>
+        <v>-16987.74</v>
       </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>-4.11</v>
+        <v>-1.35</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11280,14 +11280,14 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ56" t="n">
         <v>11.16</v>
       </c>
       <c r="AK56" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL56" t="inlineStr">
         <is>
@@ -11300,11 +11300,11 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
@@ -11344,7 +11344,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -11353,40 +11353,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.38</v>
+        <v>-6.41</v>
       </c>
       <c r="D57" t="n">
-        <v>18928.77</v>
+        <v>23409.698</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="H57" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>-22.26</v>
+        <v>-18.12</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -11394,42 +11394,42 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="U57" t="b">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W57" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X57" t="b">
         <v>0</v>
@@ -11446,20 +11446,20 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>-23085.7</v>
+        <v>-22337.03</v>
       </c>
       <c r="AC57" t="n">
-        <v>17651.13</v>
+        <v>7192.86</v>
       </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>-2.31</v>
+        <v>-4.11</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
@@ -11478,14 +11478,14 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ57" t="n">
         <v>11.16</v>
       </c>
       <c r="AK57" t="n">
-        <v>66.45999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
@@ -11498,11 +11498,11 @@
         </is>
       </c>
       <c r="AN57" t="n">
-        <v>26.12</v>
+        <v>25.82</v>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.38</v>
+        <v>1.52</v>
       </c>
       <c r="D2" t="n">
-        <v>7665</v>
+        <v>8001</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="H2" t="n">
-        <v>161</v>
+        <v>163.5</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,17 +710,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -728,42 +728,42 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -775,25 +775,25 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>647.5700000000001</v>
+        <v>1005.54</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.85</v>
+        <v>643.33</v>
       </c>
       <c r="AD2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -812,14 +812,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>7.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -885,40 +885,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.07</v>
+        <v>-2.38</v>
       </c>
       <c r="D3" t="n">
-        <v>10758</v>
+        <v>7665</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="H3" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>-2.48</v>
+        <v>1.53</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -926,42 +926,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="W3" t="n">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -973,25 +973,25 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>987.3</v>
+        <v>647.5700000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1208.09</v>
+        <v>739.85</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>7.58</v>
       </c>
       <c r="AK3" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1083,40 +1083,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.89</v>
+        <v>-2.07</v>
       </c>
       <c r="D4" t="n">
-        <v>9682</v>
+        <v>10758</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="H4" t="n">
-        <v>168.5</v>
+        <v>165</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-4.66</v>
+        <v>-0.92</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1124,42 +1124,42 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>49.09</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W4" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -1171,25 +1171,25 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>1388.26</v>
+        <v>987.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>1132.88</v>
+        <v>1208.09</v>
       </c>
       <c r="AD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1208,14 +1208,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>7.58</v>
       </c>
       <c r="AK4" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1228,11 +1228,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1281,40 +1281,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D5" t="n">
-        <v>30249</v>
+        <v>9682</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H5" t="n">
-        <v>167</v>
+        <v>168.5</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-3.73</v>
+        <v>-3.06</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -1322,42 +1322,42 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="W5" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1369,25 +1369,25 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>1146.19</v>
+        <v>1388.26</v>
       </c>
       <c r="AC5" t="n">
-        <v>672.33</v>
+        <v>1132.88</v>
       </c>
       <c r="AD5" t="b">
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1406,14 +1406,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>7.58</v>
       </c>
       <c r="AK5" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1426,11 +1426,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1479,40 +1479,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.08</v>
+        <v>0.3</v>
       </c>
       <c r="D6" t="n">
-        <v>9920</v>
+        <v>30249</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>166.5</v>
+        <v>167</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-3.42</v>
+        <v>-2.14</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1520,42 +1520,42 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>121.29</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="W6" t="n">
-        <v>-47</v>
+        <v>-28</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1567,25 +1567,25 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-428.23</v>
+        <v>1146.19</v>
       </c>
       <c r="AC6" t="n">
-        <v>814.35</v>
+        <v>672.33</v>
       </c>
       <c r="AD6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>-1.53</v>
+        <v>0.7</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>7.58</v>
       </c>
       <c r="AK6" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1624,11 +1624,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1677,40 +1677,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D7" t="n">
-        <v>9057</v>
+        <v>9920</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-5.59</v>
+        <v>-1.83</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1718,42 +1718,42 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>212.72</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="W7" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1765,25 +1765,25 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>821.83</v>
+        <v>-428.23</v>
       </c>
       <c r="AC7" t="n">
-        <v>1024.77</v>
+        <v>814.35</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.2</v>
+        <v>-1.53</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1802,14 +1802,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>7.58</v>
       </c>
       <c r="AK7" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1875,40 +1875,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="D8" t="n">
-        <v>17560</v>
+        <v>9057</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-3.73</v>
+        <v>-3.98</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>556.19</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1963,25 +1963,25 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>1394.35</v>
+        <v>821.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>807.8</v>
+        <v>1024.77</v>
       </c>
       <c r="AD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.73</v>
+        <v>-0.2</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -2000,14 +2000,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>7.58</v>
       </c>
       <c r="AK8" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2020,11 +2020,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2073,40 +2073,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.79</v>
+        <v>1.49</v>
       </c>
       <c r="D9" t="n">
-        <v>8704</v>
+        <v>17560</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>164.5</v>
+        <v>167</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>-2.17</v>
+        <v>-2.14</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -2114,42 +2114,42 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1515.46</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W9" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2161,25 +2161,25 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>799.73</v>
+        <v>1394.35</v>
       </c>
       <c r="AC9" t="n">
-        <v>726.02</v>
+        <v>807.8</v>
       </c>
       <c r="AD9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2198,14 +2198,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>7.58</v>
       </c>
       <c r="AK9" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2218,11 +2218,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2271,40 +2271,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.46</v>
+        <v>-1.79</v>
       </c>
       <c r="D10" t="n">
-        <v>13645</v>
+        <v>8704</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>167.5</v>
+        <v>164.5</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>-4.04</v>
+        <v>-0.61</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2312,42 +2312,42 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>356.85</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2359,25 +2359,25 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-640.0700000000001</v>
+        <v>799.73</v>
       </c>
       <c r="AC10" t="n">
-        <v>652.95</v>
+        <v>726.02</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1.98</v>
+        <v>0.1</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2396,14 +2396,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>7.58</v>
       </c>
       <c r="AK10" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2416,11 +2416,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2469,40 +2469,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.89</v>
+        <v>-1.46</v>
       </c>
       <c r="D11" t="n">
-        <v>15638</v>
+        <v>13645</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="H11" t="n">
-        <v>170</v>
+        <v>167.5</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>-5.59</v>
+        <v>-2.45</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2510,42 +2510,42 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>223.58</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2557,25 +2557,25 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>1228.7</v>
+        <v>-640.0700000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>626.71</v>
+        <v>652.95</v>
       </c>
       <c r="AD11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.96</v>
+        <v>-1.98</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2594,14 +2594,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>7.58</v>
       </c>
       <c r="AK11" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2614,11 +2614,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2667,40 +2667,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.29</v>
+        <v>0.89</v>
       </c>
       <c r="D12" t="n">
-        <v>46062</v>
+        <v>15638</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>65.38</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>168.5</v>
+        <v>170</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-4.66</v>
+        <v>-3.98</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2708,42 +2708,42 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>155.89</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>1193.7</v>
+        <v>1228.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>598.13</v>
+        <v>626.71</v>
       </c>
       <c r="AD12" t="b">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2792,14 +2792,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>7.58</v>
       </c>
       <c r="AK12" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2812,11 +2812,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2865,40 +2865,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3</v>
+        <v>3.29</v>
       </c>
       <c r="D13" t="n">
-        <v>21314</v>
+        <v>46062</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>65.38</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H13" t="n">
-        <v>163</v>
+        <v>168.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>-1.24</v>
+        <v>-3.06</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2906,42 +2906,42 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>110.80</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-4.42</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W13" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2953,25 +2953,25 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-799.46</v>
+        <v>1193.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>251.14</v>
+        <v>598.13</v>
       </c>
       <c r="AD13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>-4.18</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2990,14 +2990,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>7.58</v>
       </c>
       <c r="AK13" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -3010,11 +3010,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3054,7 +3054,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3063,40 +3063,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.47</v>
+        <v>-0.3</v>
       </c>
       <c r="D14" t="n">
-        <v>39936</v>
+        <v>21314</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>56.69</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>163.5</v>
+        <v>163</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-1.55</v>
+        <v>0.31</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3104,42 +3104,42 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>82.38</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>-4.42</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3151,25 +3151,25 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>643.9299999999999</v>
+        <v>-799.46</v>
       </c>
       <c r="AC14" t="n">
-        <v>903.41</v>
+        <v>251.14</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.29</v>
+        <v>-4.18</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3188,14 +3188,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>7.58</v>
       </c>
       <c r="AK14" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3208,11 +3208,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3261,40 +3261,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.93</v>
+        <v>-1.47</v>
       </c>
       <c r="D15" t="n">
-        <v>45282</v>
+        <v>39936</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>56.69</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>166</v>
+        <v>163.5</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-3.11</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -3302,64 +3302,72 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>68.52</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-2.85</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-6.24</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>1123.56</v>
+        <v>643.9299999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1144.67</v>
+        <v>903.41</v>
       </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.02</v>
+        <v>-0.29</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3378,14 +3386,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>7.58</v>
       </c>
       <c r="AK15" t="n">
-        <v>35.31</v>
+        <v>35.86</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3398,11 +3406,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>59.63</v>
+        <v>61.14</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3442,7 +3450,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3451,22 +3459,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.85</v>
+        <v>-2.11</v>
       </c>
       <c r="D16" t="n">
-        <v>69555.459</v>
+        <v>86772.791</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="H16" t="n">
-        <v>81.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -3474,60 +3482,60 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="W16" t="n">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -3544,20 +3552,20 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-51333.06</v>
+        <v>-84204.02</v>
       </c>
       <c r="AC16" t="n">
-        <v>23266.32</v>
+        <v>-31504.06</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-3.21</v>
+        <v>-1.67</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3576,14 +3584,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>13.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3596,11 +3604,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3640,7 +3648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3649,83 +3657,83 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.22</v>
+        <v>-0.85</v>
       </c>
       <c r="D17" t="n">
-        <v>60073.015</v>
+        <v>69555.459</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-0.86</v>
+        <v>-2.14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W17" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -3742,20 +3750,20 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-49968.05</v>
+        <v>-51333.06</v>
       </c>
       <c r="AC17" t="n">
-        <v>44719.79</v>
+        <v>23266.32</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-2.12</v>
+        <v>-3.21</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3774,14 +3782,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>13.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3794,11 +3802,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3838,7 +3846,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3847,83 +3855,83 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.84</v>
+        <v>-1.22</v>
       </c>
       <c r="D18" t="n">
-        <v>55414.145</v>
+        <v>60073.015</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>16.80</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="H18" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-2.09</v>
+        <v>-3.02</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="W18" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -3940,20 +3948,20 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-21825.25</v>
+        <v>-49968.05</v>
       </c>
       <c r="AC18" t="n">
-        <v>59172.43</v>
+        <v>44719.79</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.37</v>
+        <v>-2.12</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3972,14 +3980,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>13.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3992,11 +4000,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4036,7 +4044,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4045,83 +4053,83 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-3.67</v>
+        <v>-0.84</v>
       </c>
       <c r="D19" t="n">
-        <v>157042.134</v>
+        <v>55414.145</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>47.62</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="H19" t="n">
-        <v>83.7</v>
+        <v>83</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-2.95</v>
+        <v>-4.27</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4138,20 +4146,20 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-38559.06</v>
+        <v>-21825.25</v>
       </c>
       <c r="AC19" t="n">
-        <v>63982.29</v>
+        <v>59172.43</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-1.6</v>
+        <v>-1.37</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4170,14 +4178,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>13.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4190,11 +4198,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4234,7 +4242,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4243,83 +4251,83 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.36</v>
+        <v>-3.67</v>
       </c>
       <c r="D20" t="n">
-        <v>178996.807</v>
+        <v>157042.134</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>54.27</t>
+          <t>47.62</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="H20" t="n">
-        <v>86.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-6.89</v>
+        <v>-5.15</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>49.61</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4336,20 +4344,20 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>71451.41</v>
+        <v>-38559.06</v>
       </c>
       <c r="AC20" t="n">
-        <v>74695.83</v>
+        <v>63982.29</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.04</v>
+        <v>-1.6</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4368,14 +4376,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>13.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4388,11 +4396,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4420,7 +4428,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
@@ -4432,7 +4440,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4441,83 +4449,83 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.24</v>
+        <v>4.36</v>
       </c>
       <c r="D21" t="n">
-        <v>59784.492</v>
+        <v>178996.807</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>54.27</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H21" t="n">
-        <v>83.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-2.46</v>
+        <v>-9.17</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>69.07</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W21" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4534,20 +4542,20 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>60973.17</v>
+        <v>71451.41</v>
       </c>
       <c r="AC21" t="n">
-        <v>62920.57</v>
+        <v>74695.83</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4566,14 +4574,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>13.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4586,11 +4594,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4630,7 +4638,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4639,35 +4647,35 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="D22" t="n">
-        <v>62501.355</v>
+        <v>59784.492</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="H22" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-2.71</v>
+        <v>-4.65</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4676,46 +4684,46 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W22" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4732,20 +4740,20 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>80601.03</v>
+        <v>60973.17</v>
       </c>
       <c r="AC22" t="n">
-        <v>66234.94</v>
+        <v>62920.57</v>
       </c>
       <c r="AD22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4764,14 +4772,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>13.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4784,11 +4792,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4828,7 +4836,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4837,35 +4845,35 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.83</v>
+        <v>0.24</v>
       </c>
       <c r="D23" t="n">
-        <v>115578.478</v>
+        <v>62501.355</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-2.46</v>
+        <v>-4.9</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4874,46 +4882,46 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>108.80</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="W23" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4930,20 +4938,20 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>86481.75</v>
+        <v>80601.03</v>
       </c>
       <c r="AC23" t="n">
-        <v>63133.06</v>
+        <v>66234.94</v>
       </c>
       <c r="AD23" t="b">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4962,14 +4970,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>13.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4982,11 +4990,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -5026,7 +5034,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5035,83 +5043,83 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.62</v>
+        <v>-0.83</v>
       </c>
       <c r="D24" t="n">
-        <v>235712.727</v>
+        <v>115578.478</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H24" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-3.32</v>
+        <v>-4.65</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>152.87</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W24" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5128,20 +5136,20 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>98357.86</v>
+        <v>86481.75</v>
       </c>
       <c r="AC24" t="n">
-        <v>69370.52</v>
+        <v>63133.06</v>
       </c>
       <c r="AD24" t="b">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5160,14 +5168,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>13.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5180,11 +5188,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5224,7 +5232,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5233,83 +5241,83 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.12</v>
+        <v>5.62</v>
       </c>
       <c r="D25" t="n">
-        <v>104700.664</v>
+        <v>235712.727</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="H25" t="n">
-        <v>79.5</v>
+        <v>84</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>2.21</v>
+        <v>-5.53</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>236.50</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="W25" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5326,20 +5334,20 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>77805.08</v>
+        <v>98357.86</v>
       </c>
       <c r="AC25" t="n">
-        <v>55558.31</v>
+        <v>69370.52</v>
       </c>
       <c r="AD25" t="b">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5358,14 +5366,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>13.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5378,11 +5386,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5422,7 +5430,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5431,35 +5439,35 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.78</v>
+        <v>0.12</v>
       </c>
       <c r="D26" t="n">
-        <v>112713.378</v>
+        <v>104700.664</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>34.18</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>1.31</v>
       </c>
       <c r="H26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>2.34</v>
+        <v>0.13</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5468,46 +5476,46 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>28.74</t>
+          <t>455.82</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W26" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5524,20 +5532,20 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>64809.48</v>
+        <v>77805.08</v>
       </c>
       <c r="AC26" t="n">
-        <v>45623.98</v>
+        <v>55558.31</v>
       </c>
       <c r="AD26" t="b">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5556,14 +5564,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>13.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5576,11 +5584,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5620,7 +5628,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5629,83 +5637,83 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.95</v>
+        <v>1.78</v>
       </c>
       <c r="D27" t="n">
-        <v>129755.714</v>
+        <v>112713.378</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>39.34</t>
+          <t>34.18</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="H27" t="n">
-        <v>78</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>4.06</v>
+        <v>0.25</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2873.83</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="W27" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5722,20 +5730,20 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>47724.31</v>
+        <v>64809.48</v>
       </c>
       <c r="AC27" t="n">
-        <v>35880.88</v>
+        <v>45623.98</v>
       </c>
       <c r="AD27" t="b">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5754,14 +5762,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>13.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5774,11 +5782,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5818,7 +5826,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5827,83 +5835,83 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.96</v>
+        <v>6.95</v>
       </c>
       <c r="D28" t="n">
-        <v>18225.738</v>
+        <v>129755.714</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>39.34</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H28" t="n">
-        <v>72.5</v>
+        <v>78</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>10.82</v>
+        <v>2.01</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>248.95</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="W28" t="n">
-        <v>-18</v>
+        <v>31</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5920,20 +5928,20 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>22191.7</v>
+        <v>47724.31</v>
       </c>
       <c r="AC28" t="n">
-        <v>9771.34</v>
+        <v>35880.88</v>
       </c>
       <c r="AD28" t="b">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.27</v>
+        <v>0.33</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5952,14 +5960,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>13.03</v>
       </c>
       <c r="AK28" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5972,11 +5980,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -6004,7 +6012,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -6016,7 +6024,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6025,35 +6033,35 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.83</v>
+        <v>0.96</v>
       </c>
       <c r="D29" t="n">
-        <v>20986.35</v>
+        <v>18225.738</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H29" t="n">
-        <v>71.8</v>
+        <v>72.5</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>11.69</v>
+        <v>8.92</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -6062,36 +6070,36 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>71.36</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="U29" t="b">
@@ -6101,7 +6109,7 @@
         <v>21</v>
       </c>
       <c r="W29" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -6118,20 +6126,20 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-7051.92</v>
+        <v>22191.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-12837.16</v>
+        <v>9771.34</v>
       </c>
       <c r="AD29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.45</v>
+        <v>1.27</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6150,14 +6158,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>13.03</v>
       </c>
       <c r="AK29" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6170,11 +6178,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6214,7 +6222,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6223,22 +6231,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-1.57</v>
+        <v>-1.82</v>
       </c>
       <c r="D30" t="n">
-        <v>18242.127</v>
+        <v>23875.171</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="H30" t="n">
-        <v>249</v>
+        <v>244.5</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
@@ -6246,17 +6254,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -6264,39 +6272,39 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W30" t="n">
         <v>-33</v>
@@ -6312,16 +6320,16 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-46739.9</v>
+        <v>-70008.25999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>35357.62</v>
+        <v>-22629.4</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>-2.32</v>
+        <v>-2.09</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6340,14 +6348,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>50.79</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6360,11 +6368,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6404,7 +6412,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6413,40 +6421,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
       <c r="D31" t="n">
-        <v>15762.398</v>
+        <v>18242.127</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="H31" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-1.61</v>
+        <v>-1.84</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -6454,42 +6462,42 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="W31" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6498,20 +6506,20 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-48165.22</v>
+        <v>-46739.9</v>
       </c>
       <c r="AC31" t="n">
-        <v>55941.11</v>
+        <v>35357.62</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1.86</v>
+        <v>-2.32</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6530,14 +6538,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>50.79</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6550,11 +6558,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6594,7 +6602,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6603,35 +6611,35 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>11250.473</v>
+        <v>15762.398</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="H32" t="n">
         <v>253</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-1.61</v>
+        <v>-3.48</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6644,42 +6652,42 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="W32" t="n">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6688,20 +6696,20 @@
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-16029.25</v>
+        <v>-48165.22</v>
       </c>
       <c r="AC32" t="n">
-        <v>69339.78</v>
+        <v>55941.11</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.23</v>
+        <v>-1.86</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6720,14 +6728,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>50.79</v>
       </c>
       <c r="AK32" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6740,11 +6748,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6784,7 +6792,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6793,40 +6801,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1.53</v>
+        <v>-1.17</v>
       </c>
       <c r="D33" t="n">
-        <v>27921.207</v>
+        <v>11250.473</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-2.81</v>
+        <v>-3.48</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -6834,42 +6842,42 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W33" t="n">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6878,20 +6886,20 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-40403.99</v>
+        <v>-16029.25</v>
       </c>
       <c r="AC33" t="n">
-        <v>73603.61</v>
+        <v>69339.78</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.55</v>
+        <v>-1.23</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6910,14 +6918,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>50.79</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6930,11 +6938,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6974,7 +6982,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6983,40 +6991,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.38</v>
+        <v>-1.53</v>
       </c>
       <c r="D34" t="n">
-        <v>29888.144</v>
+        <v>27921.207</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="H34" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-4.42</v>
+        <v>-4.7</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -7024,42 +7032,42 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>45.92</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>-26</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -7068,20 +7076,20 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>62265.38</v>
+        <v>-40403.99</v>
       </c>
       <c r="AC34" t="n">
-        <v>79723.25999999999</v>
+        <v>73603.61</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.22</v>
+        <v>-1.55</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7100,14 +7108,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>50.79</v>
       </c>
       <c r="AK34" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7120,11 +7128,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7152,7 +7160,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7164,7 +7172,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7173,40 +7181,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.39</v>
+        <v>1.38</v>
       </c>
       <c r="D35" t="n">
-        <v>20529.87</v>
+        <v>29888.144</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H35" t="n">
-        <v>256.5</v>
+        <v>260</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-3.01</v>
+        <v>-6.34</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -7214,42 +7222,42 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>62.83</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="W35" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7258,20 +7266,20 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>68446.63</v>
+        <v>62265.38</v>
       </c>
       <c r="AC35" t="n">
-        <v>75477.07000000001</v>
+        <v>79723.25999999999</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.09</v>
+        <v>-0.22</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7290,14 +7298,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>50.79</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7310,11 +7318,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7354,7 +7362,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7363,40 +7371,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.18</v>
+        <v>-0.39</v>
       </c>
       <c r="D36" t="n">
-        <v>24833.927</v>
+        <v>20529.87</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>257.5</v>
+        <v>256.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-3.41</v>
+        <v>-4.91</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -7404,42 +7412,42 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W36" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7448,20 +7456,20 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>92621.3</v>
+        <v>68446.63</v>
       </c>
       <c r="AC36" t="n">
-        <v>77736.25</v>
+        <v>75477.07000000001</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7480,14 +7488,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>50.79</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7500,11 +7508,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7544,7 +7552,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7553,40 +7561,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-2.31</v>
+        <v>1.18</v>
       </c>
       <c r="D37" t="n">
-        <v>37909.432</v>
+        <v>24833.927</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="H37" t="n">
-        <v>254.5</v>
+        <v>257.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-2.21</v>
+        <v>-5.32</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -7594,42 +7602,42 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>111.57</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="W37" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7638,20 +7646,20 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>99362.71000000001</v>
+        <v>92621.3</v>
       </c>
       <c r="AC37" t="n">
-        <v>74722.36</v>
+        <v>77736.25</v>
       </c>
       <c r="AD37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7670,14 +7678,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>50.79</v>
       </c>
       <c r="AK37" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7690,11 +7698,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7734,7 +7742,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7743,40 +7751,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.07</v>
+        <v>-2.31</v>
       </c>
       <c r="D38" t="n">
-        <v>79214.121</v>
+        <v>37909.432</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>33.87</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="H38" t="n">
-        <v>260.5</v>
+        <v>254.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-4.62</v>
+        <v>-4.09</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7784,39 +7792,39 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>158.57</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W38" t="n">
         <v>74</v>
@@ -7832,16 +7840,16 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>111657.81</v>
+        <v>99362.71000000001</v>
       </c>
       <c r="AC38" t="n">
-        <v>79494.34</v>
+        <v>74722.36</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7860,14 +7868,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>50.79</v>
       </c>
       <c r="AK38" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7880,11 +7888,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7924,7 +7932,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7933,40 +7941,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.22</v>
+        <v>6.07</v>
       </c>
       <c r="D39" t="n">
-        <v>47743.43</v>
+        <v>79214.121</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>70.77</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="H39" t="n">
-        <v>245.5</v>
+        <v>260.5</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>1.41</v>
+        <v>-6.54</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -7974,42 +7982,42 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>261.79</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="W39" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -8018,20 +8026,20 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>93992.64999999999</v>
+        <v>111657.81</v>
       </c>
       <c r="AC39" t="n">
-        <v>67606.03999999999</v>
+        <v>79494.34</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8050,14 +8058,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>50.79</v>
       </c>
       <c r="AK39" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8070,11 +8078,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8114,7 +8122,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8123,40 +8131,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.26</v>
+        <v>1.22</v>
       </c>
       <c r="D40" t="n">
-        <v>59161.712</v>
+        <v>47743.43</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="H40" t="n">
-        <v>242.5</v>
+        <v>245.5</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>2.61</v>
+        <v>-0.41</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -8164,42 +8172,42 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>608.90</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="W40" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -8208,20 +8216,20 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>81906.25999999999</v>
+        <v>93992.64999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>59677.39</v>
+        <v>67606.03999999999</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8240,14 +8248,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>50.79</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8260,11 +8268,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8304,7 +8312,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8313,40 +8321,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.33</v>
+        <v>4.26</v>
       </c>
       <c r="D41" t="n">
-        <v>55211.383</v>
+        <v>59161.712</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>49.32</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>232.5</v>
+        <v>242.5</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>6.63</v>
+        <v>0.82</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8354,42 +8362,42 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>979.07</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="W41" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8398,20 +8406,20 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>59221.13</v>
+        <v>81906.25999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>47750.08</v>
+        <v>59677.39</v>
       </c>
       <c r="AD41" t="b">
         <v>1</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8430,14 +8438,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>50.79</v>
       </c>
       <c r="AK41" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8450,11 +8458,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8494,7 +8502,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8503,40 +8511,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.03</v>
+        <v>6.33</v>
       </c>
       <c r="D42" t="n">
-        <v>14920.271</v>
+        <v>55211.383</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>49.32</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>217.5</v>
+        <v>232.5</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>12.65</v>
+        <v>4.91</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8544,42 +8552,42 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>195.53</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="W42" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8588,20 +8596,20 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>35971.02</v>
+        <v>59221.13</v>
       </c>
       <c r="AC42" t="n">
-        <v>28203.96</v>
+        <v>47750.08</v>
       </c>
       <c r="AD42" t="b">
         <v>1</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8620,14 +8628,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>50.79</v>
       </c>
       <c r="AK42" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8640,11 +8648,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8684,7 +8692,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8693,40 +8701,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.91</v>
+        <v>3.03</v>
       </c>
       <c r="D43" t="n">
-        <v>10238.076</v>
+        <v>14920.271</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>211</v>
+        <v>217.5</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>15.26</v>
+        <v>11.04</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8734,39 +8742,39 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>74.32</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-2.53</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="W43" t="n">
         <v>-1</v>
@@ -8782,16 +8790,16 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>13085.67</v>
+        <v>35971.02</v>
       </c>
       <c r="AC43" t="n">
-        <v>17687.7</v>
+        <v>28203.96</v>
       </c>
       <c r="AD43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.26</v>
+        <v>0.28</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8810,14 +8818,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>50.79</v>
       </c>
       <c r="AK43" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8830,11 +8838,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8874,7 +8882,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8883,22 +8891,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-3.07</v>
+        <v>-1.12</v>
       </c>
       <c r="D44" t="n">
-        <v>5204.13</v>
+        <v>5020.029</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="H44" t="n">
-        <v>61.8</v>
+        <v>61.1</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
@@ -8906,17 +8914,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8924,42 +8932,42 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-10.21</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-112.17</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W44" t="n">
-        <v>-40</v>
+        <v>-36</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8968,20 +8976,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-21721.22</v>
+        <v>-20343.32</v>
       </c>
       <c r="AC44" t="n">
-        <v>-12951.08</v>
+        <v>-19283.37</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-0.68</v>
+        <v>-0.05</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9000,14 +9008,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>11.16</v>
       </c>
       <c r="AK44" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9020,11 +9028,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9064,7 +9072,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9073,40 +9081,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-3.04</v>
+        <v>-3.07</v>
       </c>
       <c r="D45" t="n">
-        <v>6673.803</v>
+        <v>5204.13</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H45" t="n">
-        <v>63.8</v>
+        <v>61.8</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-3.24</v>
+        <v>-1.15</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -9114,42 +9122,42 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-5.85</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-9.06</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-86.07</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W45" t="n">
-        <v>-29</v>
+        <v>-40</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9158,20 +9166,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-24373.73</v>
+        <v>-21721.22</v>
       </c>
       <c r="AC45" t="n">
-        <v>-7083.36</v>
+        <v>-12951.08</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-2.44</v>
+        <v>-0.68</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9190,14 +9198,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>11.16</v>
       </c>
       <c r="AK45" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9210,11 +9218,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9254,7 +9262,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9263,40 +9271,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.93</v>
+        <v>-3.04</v>
       </c>
       <c r="D46" t="n">
-        <v>4691.497</v>
+        <v>6673.803</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H46" t="n">
-        <v>65.8</v>
+        <v>63.8</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>-6.47</v>
+        <v>-4.42</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -9304,32 +9312,32 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-5.17</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-7.95</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-66.53</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U46" t="b">
@@ -9339,7 +9347,7 @@
         <v>30</v>
       </c>
       <c r="W46" t="n">
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9348,20 +9356,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-15021.23</v>
+        <v>-24373.73</v>
       </c>
       <c r="AC46" t="n">
-        <v>-12561.97</v>
+        <v>-7083.36</v>
       </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.2</v>
+        <v>-2.44</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9380,14 +9388,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>11.16</v>
       </c>
       <c r="AK46" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9400,11 +9408,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9444,7 +9452,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9453,40 +9461,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-3.71</v>
+        <v>-1.93</v>
       </c>
       <c r="D47" t="n">
-        <v>10178.928</v>
+        <v>4691.497</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H47" t="n">
-        <v>67.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-8.58</v>
+        <v>-7.69</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9494,42 +9502,42 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-4.00</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-6.80</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-53.62</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W47" t="n">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9538,20 +9546,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-18306.88</v>
+        <v>-15021.23</v>
       </c>
       <c r="AC47" t="n">
-        <v>-15103.93</v>
+        <v>-12561.97</v>
       </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9570,14 +9578,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>11.16</v>
       </c>
       <c r="AK47" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9590,11 +9598,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9634,7 +9642,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9643,40 +9651,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.43</v>
+        <v>-3.71</v>
       </c>
       <c r="D48" t="n">
-        <v>8493.882</v>
+        <v>10178.928</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="H48" t="n">
-        <v>69.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-12.78</v>
+        <v>-9.82</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9684,42 +9692,42 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-45.09</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W48" t="n">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9728,20 +9736,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>-18161.66</v>
+        <v>-18306.88</v>
       </c>
       <c r="AC48" t="n">
-        <v>-18241.35</v>
+        <v>-15103.93</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9760,14 +9768,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>11.16</v>
       </c>
       <c r="AK48" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9780,11 +9788,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9824,7 +9832,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9833,40 +9841,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="D49" t="n">
-        <v>13425.679</v>
+        <v>8493.882</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="H49" t="n">
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-13.27</v>
+        <v>-14.08</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9874,42 +9882,42 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-5.31</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-38.37</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W49" t="n">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9918,20 +9926,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>11676.91</v>
+        <v>-18161.66</v>
       </c>
       <c r="AC49" t="n">
-        <v>-11176.52</v>
+        <v>-18241.35</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9950,14 +9958,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>11.16</v>
       </c>
       <c r="AK49" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9970,11 +9978,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -10014,7 +10022,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10023,40 +10031,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.16</v>
+        <v>-0.14</v>
       </c>
       <c r="D50" t="n">
-        <v>19960.491</v>
+        <v>13425.679</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="H50" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-13.43</v>
+        <v>-14.57</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -10064,42 +10072,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-4.10</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-35.92</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W50" t="n">
-        <v>-28</v>
+        <v>-8</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10108,20 +10116,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>22220.05</v>
+        <v>11676.91</v>
       </c>
       <c r="AC50" t="n">
-        <v>-20888.38</v>
+        <v>-11176.52</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10140,14 +10148,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>11.16</v>
       </c>
       <c r="AK50" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10160,11 +10168,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10204,7 +10212,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10213,40 +10221,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-4.59</v>
+        <v>2.16</v>
       </c>
       <c r="D51" t="n">
-        <v>12526.571</v>
+        <v>19960.491</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="H51" t="n">
-        <v>68.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-11</v>
+        <v>-14.73</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10254,42 +10262,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-33.45</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W51" t="n">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10298,20 +10306,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-9485.18</v>
+        <v>22220.05</v>
       </c>
       <c r="AC51" t="n">
-        <v>-28984.82</v>
+        <v>-20888.38</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.67</v>
+        <v>2.06</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10330,14 +10338,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>11.16</v>
       </c>
       <c r="AK51" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10350,11 +10358,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10394,7 +10402,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10403,40 +10411,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.41</v>
+        <v>-4.59</v>
       </c>
       <c r="D52" t="n">
-        <v>9130.764999999999</v>
+        <v>12526.571</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H52" t="n">
-        <v>71.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-16.34</v>
+        <v>-12.27</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10444,42 +10452,42 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-30.54</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W52" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10488,20 +10496,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-11005.23</v>
+        <v>-9485.18</v>
       </c>
       <c r="AC52" t="n">
-        <v>-17607.64</v>
+        <v>-28984.82</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10520,14 +10528,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>11.16</v>
       </c>
       <c r="AK52" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10540,11 +10548,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10584,7 +10592,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10593,40 +10601,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.7</v>
+        <v>-0.41</v>
       </c>
       <c r="D53" t="n">
-        <v>23811.657</v>
+        <v>9130.764999999999</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="H53" t="n">
-        <v>72.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-16.83</v>
+        <v>-17.68</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10634,42 +10642,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-24.31</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W53" t="n">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10678,20 +10686,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-18320.69</v>
+        <v>-11005.23</v>
       </c>
       <c r="AC53" t="n">
-        <v>-20839.83</v>
+        <v>-17607.64</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10710,14 +10718,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>11.16</v>
       </c>
       <c r="AK53" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10730,11 +10738,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10774,7 +10782,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10783,40 +10791,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="D54" t="n">
-        <v>11786.521</v>
+        <v>23811.657</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="H54" t="n">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>-16.02</v>
+        <v>-18.17</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -10824,42 +10832,42 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-21.56</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="U54" t="b">
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="W54" t="n">
-        <v>-42</v>
+        <v>-35</v>
       </c>
       <c r="X54" t="b">
         <v>0</v>
@@ -10868,20 +10876,20 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-19651.45</v>
+        <v>-18320.69</v>
       </c>
       <c r="AC54" t="n">
-        <v>-16364.01</v>
+        <v>-20839.83</v>
       </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>-0.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -10900,14 +10908,14 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ54" t="n">
         <v>11.16</v>
       </c>
       <c r="AK54" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL54" t="inlineStr">
         <is>
@@ -10920,11 +10928,11 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
@@ -10964,7 +10972,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10973,40 +10981,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-2.04</v>
+        <v>0.42</v>
       </c>
       <c r="D55" t="n">
-        <v>21149.447</v>
+        <v>11786.521</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="H55" t="n">
-        <v>71.40000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>-15.53</v>
+        <v>-17.35</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -11014,42 +11022,42 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-18.53</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="U55" t="b">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W55" t="n">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="X55" t="b">
         <v>0</v>
@@ -11058,20 +11066,20 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>-36964.57</v>
+        <v>-19651.45</v>
       </c>
       <c r="AC55" t="n">
-        <v>-11886.55</v>
+        <v>-16364.01</v>
       </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>-2.11</v>
+        <v>-0.2</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11090,14 +11098,14 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ55" t="n">
         <v>11.16</v>
       </c>
       <c r="AK55" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
@@ -11110,11 +11118,11 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -11154,7 +11162,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11163,40 +11171,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.14</v>
+        <v>-2.04</v>
       </c>
       <c r="D56" t="n">
-        <v>14019.086</v>
+        <v>21149.447</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="H56" t="n">
-        <v>72.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>-17.96</v>
+        <v>-16.86</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -11204,42 +11212,42 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-13.95</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="U56" t="b">
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W56" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="X56" t="b">
         <v>0</v>
@@ -11248,20 +11256,20 @@
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>-39878.21</v>
+        <v>-36964.57</v>
       </c>
       <c r="AC56" t="n">
-        <v>-16987.74</v>
+        <v>-11886.55</v>
       </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>-1.35</v>
+        <v>-2.11</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11280,14 +11288,14 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ56" t="n">
         <v>11.16</v>
       </c>
       <c r="AK56" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL56" t="inlineStr">
         <is>
@@ -11300,11 +11308,11 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
@@ -11344,7 +11352,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -11353,40 +11361,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-6.41</v>
+        <v>-0.14</v>
       </c>
       <c r="D57" t="n">
-        <v>23409.698</v>
+        <v>14019.086</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="H57" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>-18.12</v>
+        <v>-19.31</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -11394,72 +11402,64 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-4.23</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-7.54</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="U57" t="b">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W57" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="X57" t="b">
         <v>0</v>
       </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>-22337.03</v>
+        <v>-39878.21</v>
       </c>
       <c r="AC57" t="n">
-        <v>7192.86</v>
+        <v>-16987.74</v>
       </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>-4.11</v>
+        <v>-1.35</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
@@ -11478,14 +11478,14 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ57" t="n">
         <v>11.16</v>
       </c>
       <c r="AK57" t="n">
-        <v>64.38</v>
+        <v>63.65</v>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
@@ -11498,11 +11498,11 @@
         </is>
       </c>
       <c r="AN57" t="n">
-        <v>25.82</v>
+        <v>25.99</v>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV57"/>
+  <dimension ref="A1:AV53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.52</v>
+        <v>-2.17</v>
       </c>
       <c r="D2" t="n">
-        <v>8001</v>
+        <v>8852</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="H2" t="n">
-        <v>163.5</v>
+        <v>160</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,60 +710,60 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>-15.68</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>-26</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -775,25 +775,25 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>1005.54</v>
+        <v>-553.1900000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>643.33</v>
+        <v>709.83</v>
       </c>
       <c r="AD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5600000000000001</v>
+        <v>-1.78</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -812,14 +812,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>7.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -885,83 +885,83 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.38</v>
+        <v>1.52</v>
       </c>
       <c r="D3" t="n">
-        <v>7665</v>
+        <v>8001</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="H3" t="n">
-        <v>161</v>
+        <v>163.5</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1.53</v>
+        <v>-2.19</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -973,25 +973,25 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>647.5700000000001</v>
+        <v>1005.54</v>
       </c>
       <c r="AC3" t="n">
-        <v>739.85</v>
+        <v>643.33</v>
       </c>
       <c r="AD3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>7.58</v>
       </c>
       <c r="AK3" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1083,83 +1083,83 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.07</v>
+        <v>-2.38</v>
       </c>
       <c r="D4" t="n">
-        <v>10758</v>
+        <v>7665</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="H4" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-0.92</v>
+        <v>-0.62</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>49.09</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="W4" t="n">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -1171,25 +1171,25 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>987.3</v>
+        <v>647.5700000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1208.09</v>
+        <v>739.85</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1208,14 +1208,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>7.58</v>
       </c>
       <c r="AK4" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1228,11 +1228,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1281,83 +1281,83 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.89</v>
+        <v>-2.07</v>
       </c>
       <c r="D5" t="n">
-        <v>9682</v>
+        <v>10758</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="H5" t="n">
-        <v>168.5</v>
+        <v>165</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-3.06</v>
+        <v>-3.12</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>49.09</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1369,25 +1369,25 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>1388.26</v>
+        <v>987.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>1132.88</v>
+        <v>1208.09</v>
       </c>
       <c r="AD5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1406,14 +1406,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>7.58</v>
       </c>
       <c r="AK5" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1426,11 +1426,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1479,83 +1479,83 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D6" t="n">
-        <v>30249</v>
+        <v>9682</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>167</v>
+        <v>168.5</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-2.14</v>
+        <v>-5.31</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>121.29</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="W6" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1567,25 +1567,25 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>1146.19</v>
+        <v>1388.26</v>
       </c>
       <c r="AC6" t="n">
-        <v>672.33</v>
+        <v>1132.88</v>
       </c>
       <c r="AD6" t="b">
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>7.58</v>
       </c>
       <c r="AK6" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1624,11 +1624,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1677,83 +1677,83 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.08</v>
+        <v>0.3</v>
       </c>
       <c r="D7" t="n">
-        <v>9920</v>
+        <v>30249</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>166.5</v>
+        <v>167</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-1.83</v>
+        <v>-4.38</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>212.72</t>
+          <t>121.29</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="W7" t="n">
-        <v>-47</v>
+        <v>-28</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1765,25 +1765,25 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-428.23</v>
+        <v>1146.19</v>
       </c>
       <c r="AC7" t="n">
-        <v>814.35</v>
+        <v>672.33</v>
       </c>
       <c r="AD7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>-1.53</v>
+        <v>0.7</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1802,14 +1802,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>7.58</v>
       </c>
       <c r="AK7" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1875,83 +1875,83 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D8" t="n">
-        <v>9057</v>
+        <v>9920</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-3.98</v>
+        <v>-4.06</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>556.19</t>
+          <t>212.72</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="W8" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1963,25 +1963,25 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>821.83</v>
+        <v>-428.23</v>
       </c>
       <c r="AC8" t="n">
-        <v>1024.77</v>
+        <v>814.35</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.2</v>
+        <v>-1.53</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -2000,14 +2000,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>7.58</v>
       </c>
       <c r="AK8" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2020,11 +2020,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2073,83 +2073,83 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="D9" t="n">
-        <v>17560</v>
+        <v>9057</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>-2.14</v>
+        <v>-6.25</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1515.46</t>
+          <t>556.19</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2161,25 +2161,25 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>1394.35</v>
+        <v>821.83</v>
       </c>
       <c r="AC9" t="n">
-        <v>807.8</v>
+        <v>1024.77</v>
       </c>
       <c r="AD9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.73</v>
+        <v>-0.2</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2198,14 +2198,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>7.58</v>
       </c>
       <c r="AK9" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2218,11 +2218,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2271,83 +2271,83 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.79</v>
+        <v>1.49</v>
       </c>
       <c r="D10" t="n">
-        <v>8704</v>
+        <v>17560</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>164.5</v>
+        <v>167</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>-0.61</v>
+        <v>-4.38</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>356.85</t>
+          <t>1515.46</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W10" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2359,25 +2359,25 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>799.73</v>
+        <v>1394.35</v>
       </c>
       <c r="AC10" t="n">
-        <v>726.02</v>
+        <v>807.8</v>
       </c>
       <c r="AD10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2396,14 +2396,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>7.58</v>
       </c>
       <c r="AK10" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2416,11 +2416,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2469,83 +2469,83 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.46</v>
+        <v>-1.79</v>
       </c>
       <c r="D11" t="n">
-        <v>13645</v>
+        <v>8704</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>167.5</v>
+        <v>164.5</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>-2.45</v>
+        <v>-2.81</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>223.58</t>
+          <t>356.85</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2557,25 +2557,25 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-640.0700000000001</v>
+        <v>799.73</v>
       </c>
       <c r="AC11" t="n">
-        <v>652.95</v>
+        <v>726.02</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-1.98</v>
+        <v>0.1</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2594,14 +2594,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>7.58</v>
       </c>
       <c r="AK11" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2614,11 +2614,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2667,83 +2667,83 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.89</v>
+        <v>-1.46</v>
       </c>
       <c r="D12" t="n">
-        <v>15638</v>
+        <v>13645</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="H12" t="n">
-        <v>170</v>
+        <v>167.5</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-3.98</v>
+        <v>-4.69</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>155.89</t>
+          <t>223.58</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>1228.7</v>
+        <v>-640.0700000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>626.71</v>
+        <v>652.95</v>
       </c>
       <c r="AD12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.96</v>
+        <v>-1.98</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2792,14 +2792,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>7.58</v>
       </c>
       <c r="AK12" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2812,11 +2812,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2865,83 +2865,83 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.29</v>
+        <v>0.89</v>
       </c>
       <c r="D13" t="n">
-        <v>46062</v>
+        <v>15638</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>65.38</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>168.5</v>
+        <v>170</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>-3.06</v>
+        <v>-6.25</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>110.80</t>
+          <t>155.89</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2953,25 +2953,25 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>1193.7</v>
+        <v>1228.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>598.13</v>
+        <v>626.71</v>
       </c>
       <c r="AD13" t="b">
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2990,14 +2990,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>7.58</v>
       </c>
       <c r="AK13" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -3010,11 +3010,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3054,7 +3054,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3063,113 +3063,113 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.3</v>
+        <v>3.29</v>
       </c>
       <c r="D14" t="n">
-        <v>21314</v>
+        <v>46062</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>65.38</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H14" t="n">
-        <v>163</v>
+        <v>168.5</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.31</v>
+        <v>-5.31</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>8852</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>110.80</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>-3.46</t>
+        </is>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>40</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>8001</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>82.38</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.78</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>-4.42</t>
-        </is>
-      </c>
-      <c r="U14" t="b">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>16</v>
-      </c>
-      <c r="W14" t="n">
-        <v>22</v>
-      </c>
-      <c r="X14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2025-05-31</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="AB14" t="n">
-        <v>-799.46</v>
+        <v>1193.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>251.14</v>
+        <v>598.13</v>
       </c>
       <c r="AD14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>-4.18</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3188,14 +3188,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>7.58</v>
       </c>
       <c r="AK14" t="n">
-        <v>35.86</v>
+        <v>35.09</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3208,11 +3208,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>61.14</v>
+        <v>59.18</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3252,31 +3252,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.47</v>
+        <v>-0.63</v>
       </c>
       <c r="D15" t="n">
-        <v>39936</v>
+        <v>62938.427</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56.69</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>163.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -3284,152 +3284,144 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.39</v>
+        <v>0.87</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>68.52</t>
+          <t>-11.96</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>-28</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2025-05-31</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>643.9299999999999</v>
+        <v>-73649.74000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>903.41</v>
+        <v>-58783.87</v>
       </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.29</v>
+        <v>-0.25</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>華星光</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>7.58</v>
+        <v>13.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>35.86</v>
+        <v>4.41</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>22.46%</t>
+          <t>21.00%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>18.48%</t>
+          <t>15.86%</t>
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>61.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
+          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>華星光-通信網路業-上櫃</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>23.91</v>
+        <v>100.22</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
@@ -3438,12 +3430,12 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 通信網路 - 主/被動元件</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -3478,16 +3470,16 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3496,11 +3488,11 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3584,14 +3576,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>13.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3604,11 +3596,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3676,16 +3668,16 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-2.14</v>
+        <v>-2.78</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3694,11 +3686,11 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3782,14 +3774,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>13.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3802,11 +3794,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3874,16 +3866,16 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-3.02</v>
+        <v>-3.67</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3892,11 +3884,11 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3980,14 +3972,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>13.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -4000,11 +3992,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4072,16 +4064,16 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-4.27</v>
+        <v>-4.93</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -4090,11 +4082,11 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -4178,14 +4170,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>13.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4198,11 +4190,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4270,16 +4262,16 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-5.15</v>
+        <v>-5.82</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4288,11 +4280,11 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4376,14 +4368,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>13.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4396,11 +4388,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4468,16 +4460,16 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-9.17</v>
+        <v>-9.859999999999999</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4486,11 +4478,11 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -4574,14 +4566,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>13.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4594,11 +4586,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4666,16 +4658,16 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-4.65</v>
+        <v>-5.31</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4684,11 +4676,11 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4772,14 +4764,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>13.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4792,11 +4784,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4864,16 +4856,16 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-4.9</v>
+        <v>-5.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4882,11 +4874,11 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4970,14 +4962,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>13.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4990,11 +4982,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -5062,16 +5054,16 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-4.65</v>
+        <v>-5.31</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5080,11 +5072,11 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -5168,14 +5160,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>13.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5188,11 +5180,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5260,16 +5252,16 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-5.53</v>
+        <v>-6.19</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5278,11 +5270,11 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -5366,14 +5358,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>13.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5386,11 +5378,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5458,16 +5450,16 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>0.13</v>
+        <v>-0.51</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5476,11 +5468,11 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -5564,14 +5556,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>13.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5584,11 +5576,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5656,16 +5648,16 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>0.25</v>
+        <v>-0.38</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5674,11 +5666,11 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -5762,14 +5754,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>13.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5782,11 +5774,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5826,126 +5818,118 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.95</v>
+        <v>1.01</v>
       </c>
       <c r="D28" t="n">
-        <v>129755.714</v>
+        <v>14575.424</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>39.34</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.27</v>
+        <v>0.92</v>
       </c>
       <c r="H28" t="n">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>248.95</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
-        <v>31</v>
+        <v>-27</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
       </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
-        </is>
-      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>47724.31</v>
+        <v>-52331.46</v>
       </c>
       <c r="AC28" t="n">
-        <v>35880.88</v>
+        <v>-46749.68</v>
       </c>
       <c r="AD28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.33</v>
+        <v>-0.12</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5960,41 +5944,41 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>13.03</v>
+        <v>50.79</v>
       </c>
       <c r="AK28" t="n">
-        <v>4.44</v>
+        <v>3.58</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>21.00%</t>
+          <t>30.27%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>15.86%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -6003,7 +5987,7 @@
         </is>
       </c>
       <c r="AS28" t="n">
-        <v>100.22</v>
+        <v>284.07</v>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
@@ -6012,7 +5996,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -6024,126 +6008,118 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.96</v>
+        <v>-1.82</v>
       </c>
       <c r="D29" t="n">
-        <v>18225.738</v>
+        <v>23875.171</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="H29" t="n">
-        <v>72.5</v>
+        <v>244.5</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>8.92</v>
+        <v>1.01</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>71.36</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="W29" t="n">
-        <v>-18</v>
+        <v>-33</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
       </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
-        </is>
-      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>22191.7</v>
+        <v>-70008.25999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>9771.34</v>
+        <v>-22629.4</v>
       </c>
       <c r="AD29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.27</v>
+        <v>-2.09</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -6158,41 +6134,41 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>13.03</v>
+        <v>50.79</v>
       </c>
       <c r="AK29" t="n">
-        <v>4.44</v>
+        <v>3.58</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>21.00%</t>
+          <t>30.27%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>15.86%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -6201,7 +6177,7 @@
         </is>
       </c>
       <c r="AS29" t="n">
-        <v>100.22</v>
+        <v>284.07</v>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
@@ -6222,7 +6198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6231,80 +6207,80 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-1.82</v>
+        <v>-1.57</v>
       </c>
       <c r="D30" t="n">
-        <v>23875.171</v>
+        <v>18242.127</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="H30" t="n">
-        <v>244.5</v>
+        <v>249</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W30" t="n">
         <v>-33</v>
@@ -6320,16 +6296,16 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-70008.25999999999</v>
+        <v>-46739.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>-22629.4</v>
+        <v>35357.62</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>-2.09</v>
+        <v>-2.32</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6348,14 +6324,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>50.79</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6368,11 +6344,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6412,7 +6388,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6421,83 +6397,83 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.57</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>18242.127</v>
+        <v>15762.398</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="H31" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-1.84</v>
+        <v>-2.43</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="W31" t="n">
-        <v>-33</v>
+        <v>-39</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6506,20 +6482,20 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-46739.9</v>
+        <v>-48165.22</v>
       </c>
       <c r="AC31" t="n">
-        <v>35357.62</v>
+        <v>55941.11</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-2.32</v>
+        <v>-1.86</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6538,14 +6514,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>50.79</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6558,11 +6534,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6602,7 +6578,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6611,35 +6587,35 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
       <c r="D32" t="n">
-        <v>15762.398</v>
+        <v>11250.473</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>253</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-3.48</v>
+        <v>-2.43</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6648,46 +6624,46 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="W32" t="n">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6696,20 +6672,20 @@
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-48165.22</v>
+        <v>-16029.25</v>
       </c>
       <c r="AC32" t="n">
-        <v>55941.11</v>
+        <v>69339.78</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.86</v>
+        <v>-1.23</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6728,14 +6704,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>50.79</v>
       </c>
       <c r="AK32" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6748,11 +6724,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6792,7 +6768,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6801,83 +6777,83 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1.17</v>
+        <v>-1.53</v>
       </c>
       <c r="D33" t="n">
-        <v>11250.473</v>
+        <v>27921.207</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H33" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-3.48</v>
+        <v>-3.64</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>31.64</t>
+          <t>45.92</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>-40</v>
+        <v>-26</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6886,20 +6862,20 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-16029.25</v>
+        <v>-40403.99</v>
       </c>
       <c r="AC33" t="n">
-        <v>69339.78</v>
+        <v>73603.61</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.23</v>
+        <v>-1.55</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6918,14 +6894,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>50.79</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6938,11 +6914,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6982,7 +6958,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6991,83 +6967,83 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1.53</v>
+        <v>1.38</v>
       </c>
       <c r="D34" t="n">
-        <v>27921.207</v>
+        <v>29888.144</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="H34" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-4.7</v>
+        <v>-5.26</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
           <t>12.81</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>45.92</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>12.97</t>
-        </is>
-      </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="W34" t="n">
-        <v>-26</v>
+        <v>5</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -7076,20 +7052,20 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-40403.99</v>
+        <v>62265.38</v>
       </c>
       <c r="AC34" t="n">
-        <v>73603.61</v>
+        <v>79723.25999999999</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-1.55</v>
+        <v>-0.22</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7108,14 +7084,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>50.79</v>
       </c>
       <c r="AK34" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7128,11 +7104,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7160,7 +7136,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7172,7 +7148,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7181,83 +7157,83 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.38</v>
+        <v>-0.39</v>
       </c>
       <c r="D35" t="n">
-        <v>29888.144</v>
+        <v>20529.87</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>260</v>
+        <v>256.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-6.34</v>
+        <v>-3.85</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>62.83</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="W35" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7266,20 +7242,20 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>62265.38</v>
+        <v>68446.63</v>
       </c>
       <c r="AC35" t="n">
-        <v>79723.25999999999</v>
+        <v>75477.07000000001</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.22</v>
+        <v>-0.09</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7298,14 +7274,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>50.79</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7318,11 +7294,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7362,7 +7338,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7371,83 +7347,83 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.39</v>
+        <v>1.18</v>
       </c>
       <c r="D36" t="n">
-        <v>20529.87</v>
+        <v>24833.927</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H36" t="n">
-        <v>256.5</v>
+        <v>257.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-4.91</v>
+        <v>-4.25</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>111.57</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="W36" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7456,20 +7432,20 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>68446.63</v>
+        <v>92621.3</v>
       </c>
       <c r="AC36" t="n">
-        <v>75477.07000000001</v>
+        <v>77736.25</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.09</v>
+        <v>0.19</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7488,14 +7464,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>50.79</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7508,11 +7484,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7552,7 +7528,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7561,83 +7537,83 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.18</v>
+        <v>-2.31</v>
       </c>
       <c r="D37" t="n">
-        <v>24833.927</v>
+        <v>37909.432</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>33.87</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.89</v>
+        <v>1.04</v>
       </c>
       <c r="H37" t="n">
-        <v>257.5</v>
+        <v>254.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-5.32</v>
+        <v>-3.04</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>111.57</t>
+          <t>158.57</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="W37" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7646,20 +7622,20 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>92621.3</v>
+        <v>99362.71000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>77736.25</v>
+        <v>74722.36</v>
       </c>
       <c r="AD37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7678,14 +7654,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>50.79</v>
       </c>
       <c r="AK37" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7698,11 +7674,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7742,7 +7718,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7751,80 +7727,80 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-2.31</v>
+        <v>6.07</v>
       </c>
       <c r="D38" t="n">
-        <v>37909.432</v>
+        <v>79214.121</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>70.77</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="H38" t="n">
-        <v>254.5</v>
+        <v>260.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-4.09</v>
+        <v>-5.47</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>158.57</t>
+          <t>261.79</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="W38" t="n">
         <v>74</v>
@@ -7840,16 +7816,16 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>99362.71000000001</v>
+        <v>111657.81</v>
       </c>
       <c r="AC38" t="n">
-        <v>74722.36</v>
+        <v>79494.34</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7868,14 +7844,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>50.79</v>
       </c>
       <c r="AK38" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7888,11 +7864,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7932,7 +7908,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7941,83 +7917,83 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.07</v>
+        <v>1.22</v>
       </c>
       <c r="D39" t="n">
-        <v>79214.121</v>
+        <v>47743.43</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.11</v>
+        <v>1.64</v>
       </c>
       <c r="H39" t="n">
-        <v>260.5</v>
+        <v>245.5</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>-6.54</v>
+        <v>0.61</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>261.79</t>
+          <t>608.90</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="W39" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -8026,20 +8002,20 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>111657.81</v>
+        <v>93992.64999999999</v>
       </c>
       <c r="AC39" t="n">
-        <v>79494.34</v>
+        <v>67606.03999999999</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8058,14 +8034,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>50.79</v>
       </c>
       <c r="AK39" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8078,11 +8054,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8122,7 +8098,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8131,83 +8107,83 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.22</v>
+        <v>4.26</v>
       </c>
       <c r="D40" t="n">
-        <v>47743.43</v>
+        <v>59161.712</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>245.5</v>
+        <v>242.5</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-0.41</v>
+        <v>1.82</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>608.90</t>
+          <t>979.07</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="W40" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -8216,20 +8192,20 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>93992.64999999999</v>
+        <v>81906.25999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>67606.03999999999</v>
+        <v>59677.39</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8248,14 +8224,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>50.79</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8268,11 +8244,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>17.14</v>
+        <v>17.23</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8312,92 +8288,92 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.26</v>
+        <v>3.92</v>
       </c>
       <c r="D41" t="n">
-        <v>59161.712</v>
+        <v>20343.534</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="H41" t="n">
-        <v>242.5</v>
+        <v>63.5</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>-10.36</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>979.07</t>
+          <t>-133.80</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="W41" t="n">
-        <v>52</v>
+        <v>-25</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8406,29 +8382,29 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>81906.25999999999</v>
+        <v>-4375.94</v>
       </c>
       <c r="AC41" t="n">
-        <v>59677.39</v>
+        <v>-13309.6</v>
       </c>
       <c r="AD41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
@@ -8438,50 +8414,50 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AK41" t="n">
-        <v>3.54</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>17.14</v>
+        <v>26.13</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS41" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AT41" t="inlineStr">
         <is>
@@ -8490,104 +8466,104 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6.33</v>
+        <v>-1.12</v>
       </c>
       <c r="D42" t="n">
-        <v>55211.383</v>
+        <v>5020.029</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>49.32</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="H42" t="n">
-        <v>232.5</v>
+        <v>61.1</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>4.91</v>
+        <v>3.78</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>-10.21</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>195.53</t>
+          <t>-112.17</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="W42" t="n">
-        <v>35</v>
+        <v>-36</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8596,29 +8572,29 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>59221.13</v>
+        <v>-20343.32</v>
       </c>
       <c r="AC42" t="n">
-        <v>47750.08</v>
+        <v>-19283.37</v>
       </c>
       <c r="AD42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.24</v>
+        <v>-0.05</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
@@ -8628,50 +8604,50 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ42" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AK42" t="n">
-        <v>3.54</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>17.14</v>
+        <v>26.13</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS42" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AT42" t="inlineStr">
         <is>
@@ -8680,104 +8656,104 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.03</v>
+        <v>-3.07</v>
       </c>
       <c r="D43" t="n">
-        <v>14920.271</v>
+        <v>5204.13</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="H43" t="n">
-        <v>217.5</v>
+        <v>61.8</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>11.04</v>
+        <v>2.68</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>-5.85</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>-9.06</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>74.32</t>
+          <t>-86.07</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="W43" t="n">
-        <v>-1</v>
+        <v>-40</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8786,29 +8762,29 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>35971.02</v>
+        <v>-21721.22</v>
       </c>
       <c r="AC43" t="n">
-        <v>28203.96</v>
+        <v>-12951.08</v>
       </c>
       <c r="AD43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.28</v>
+        <v>-0.68</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
@@ -8818,50 +8794,50 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ43" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AK43" t="n">
-        <v>3.54</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>17.14</v>
+        <v>26.13</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS43" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AT43" t="inlineStr">
         <is>
@@ -8870,19 +8846,19 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8891,83 +8867,83 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-1.12</v>
+        <v>-3.04</v>
       </c>
       <c r="D44" t="n">
-        <v>5020.029</v>
+        <v>6673.803</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="H44" t="n">
-        <v>61.1</v>
+        <v>63.8</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-0.47</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-4.41</t>
+          <t>-5.17</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-10.21</t>
+          <t>-7.95</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-112.17</t>
+          <t>-66.53</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W44" t="n">
-        <v>-36</v>
+        <v>-29</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8976,20 +8952,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-20343.32</v>
+        <v>-24373.73</v>
       </c>
       <c r="AC44" t="n">
-        <v>-19283.37</v>
+        <v>-7083.36</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-0.05</v>
+        <v>-2.44</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -9008,14 +8984,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>11.16</v>
       </c>
       <c r="AK44" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9028,11 +9004,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9072,7 +9048,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9081,83 +9057,83 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-3.07</v>
+        <v>-1.93</v>
       </c>
       <c r="D45" t="n">
-        <v>5204.13</v>
+        <v>4691.497</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="H45" t="n">
-        <v>61.8</v>
+        <v>65.8</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-1.15</v>
+        <v>-3.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-5.85</t>
+          <t>-4.00</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>-6.80</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-86.07</t>
+          <t>-53.62</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W45" t="n">
-        <v>-40</v>
+        <v>-17</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9166,20 +9142,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-21721.22</v>
+        <v>-15021.23</v>
       </c>
       <c r="AC45" t="n">
-        <v>-12951.08</v>
+        <v>-12561.97</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.68</v>
+        <v>-0.2</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9198,14 +9174,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>11.16</v>
       </c>
       <c r="AK45" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9218,11 +9194,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9262,7 +9238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9271,83 +9247,83 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-3.04</v>
+        <v>-3.71</v>
       </c>
       <c r="D46" t="n">
-        <v>6673.803</v>
+        <v>10178.928</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="H46" t="n">
-        <v>63.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>-4.42</v>
+        <v>-5.67</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-5.17</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-7.95</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-66.53</t>
+          <t>-45.09</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W46" t="n">
-        <v>-29</v>
+        <v>-12</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9356,20 +9332,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-24373.73</v>
+        <v>-18306.88</v>
       </c>
       <c r="AC46" t="n">
-        <v>-7083.36</v>
+        <v>-15103.93</v>
       </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-2.44</v>
+        <v>-0.21</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9388,14 +9364,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>11.16</v>
       </c>
       <c r="AK46" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9408,11 +9384,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9452,7 +9428,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9461,83 +9437,83 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1.93</v>
+        <v>-0.43</v>
       </c>
       <c r="D47" t="n">
-        <v>4691.497</v>
+        <v>8493.882</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="H47" t="n">
-        <v>65.8</v>
+        <v>69.7</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-7.69</v>
+        <v>-9.76</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-4.00</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-6.80</t>
+          <t>-5.31</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-53.62</t>
+          <t>-38.37</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="W47" t="n">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9546,20 +9522,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-15021.23</v>
+        <v>-18161.66</v>
       </c>
       <c r="AC47" t="n">
-        <v>-12561.97</v>
+        <v>-18241.35</v>
       </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9578,14 +9554,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>11.16</v>
       </c>
       <c r="AK47" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9598,11 +9574,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9642,7 +9618,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9651,83 +9627,83 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-3.71</v>
+        <v>-0.14</v>
       </c>
       <c r="D48" t="n">
-        <v>10178.928</v>
+        <v>13425.679</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="H48" t="n">
-        <v>67.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-9.82</v>
+        <v>-10.24</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-4.10</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-45.09</t>
+          <t>-35.92</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W48" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9736,20 +9712,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>-18306.88</v>
+        <v>11676.91</v>
       </c>
       <c r="AC48" t="n">
-        <v>-15103.93</v>
+        <v>-11176.52</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>-0.21</v>
+        <v>2.04</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9768,14 +9744,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>11.16</v>
       </c>
       <c r="AK48" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9788,11 +9764,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9832,7 +9808,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9841,83 +9817,83 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.43</v>
+        <v>2.16</v>
       </c>
       <c r="D49" t="n">
-        <v>8493.882</v>
+        <v>19960.491</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="H49" t="n">
-        <v>69.7</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-14.08</v>
+        <v>-10.39</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-5.31</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-38.37</t>
+          <t>-33.45</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="W49" t="n">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9926,20 +9902,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>-18161.66</v>
+        <v>22220.05</v>
       </c>
       <c r="AC49" t="n">
-        <v>-18241.35</v>
+        <v>-20888.38</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9958,14 +9934,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>11.16</v>
       </c>
       <c r="AK49" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9978,11 +9954,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -10022,7 +9998,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10031,83 +10007,83 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.14</v>
+        <v>-4.59</v>
       </c>
       <c r="D50" t="n">
-        <v>13425.679</v>
+        <v>12526.571</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="H50" t="n">
-        <v>70</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-14.57</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-4.10</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-35.92</t>
+          <t>-30.54</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="W50" t="n">
-        <v>-8</v>
+        <v>-32</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10116,20 +10092,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>11676.91</v>
+        <v>-9485.18</v>
       </c>
       <c r="AC50" t="n">
-        <v>-11176.52</v>
+        <v>-28984.82</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>2.04</v>
+        <v>0.67</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10148,14 +10124,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>11.16</v>
       </c>
       <c r="AK50" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10168,11 +10144,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10212,7 +10188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10221,83 +10197,83 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.16</v>
+        <v>-0.41</v>
       </c>
       <c r="D51" t="n">
-        <v>19960.491</v>
+        <v>9130.764999999999</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.97</v>
+        <v>1.26</v>
       </c>
       <c r="H51" t="n">
-        <v>70.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-14.73</v>
+        <v>-13.23</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-33.45</t>
+          <t>-24.31</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W51" t="n">
-        <v>-28</v>
+        <v>-42</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10306,20 +10282,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>22220.05</v>
+        <v>-11005.23</v>
       </c>
       <c r="AC51" t="n">
-        <v>-20888.38</v>
+        <v>-17607.64</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.06</v>
+        <v>0.37</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10338,14 +10314,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>11.16</v>
       </c>
       <c r="AK51" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10358,11 +10334,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10402,7 +10378,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10411,83 +10387,83 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-4.59</v>
+        <v>0.7</v>
       </c>
       <c r="D52" t="n">
-        <v>12526.571</v>
+        <v>23811.657</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H52" t="n">
-        <v>68.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-12.27</v>
+        <v>-13.7</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-30.54</t>
+          <t>-21.56</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W52" t="n">
-        <v>-32</v>
+        <v>-35</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10496,20 +10472,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-9485.18</v>
+        <v>-18320.69</v>
       </c>
       <c r="AC52" t="n">
-        <v>-28984.82</v>
+        <v>-20839.83</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.67</v>
+        <v>0.12</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10528,14 +10504,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>11.16</v>
       </c>
       <c r="AK52" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10548,11 +10524,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10592,7 +10568,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10601,80 +10577,80 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D53" t="n">
-        <v>9130.764999999999</v>
+        <v>11786.521</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.26</v>
+        <v>1.06</v>
       </c>
       <c r="H53" t="n">
-        <v>71.90000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-17.68</v>
+        <v>-12.91</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-24.31</t>
+          <t>-18.53</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W53" t="n">
         <v>-42</v>
@@ -10690,16 +10666,16 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-11005.23</v>
+        <v>-19651.45</v>
       </c>
       <c r="AC53" t="n">
-        <v>-17607.64</v>
+        <v>-16364.01</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.37</v>
+        <v>-0.2</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10718,14 +10694,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>11.16</v>
       </c>
       <c r="AK53" t="n">
-        <v>63.65</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10738,11 +10714,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10774,766 +10750,6 @@
         </is>
       </c>
       <c r="AV53" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D54" t="n">
-        <v>23811.657</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>18.58</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H54" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>-18.17</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>5020</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>-1.28</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>-21.56</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="U54" t="b">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
-        <v>19</v>
-      </c>
-      <c r="W54" t="n">
-        <v>-35</v>
-      </c>
-      <c r="X54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>-35</t>
-        </is>
-      </c>
-      <c r="AB54" t="n">
-        <v>-18320.69</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>-20839.83</v>
-      </c>
-      <c r="AD54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="AJ54" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="AL54" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AN54" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="AP54" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ54" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AS54" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AT54" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU54" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV54" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D55" t="n">
-        <v>11786.521</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H55" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>-17.35</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>5020</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>-1.28</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>-2.32</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>-18.53</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="U55" t="b">
-        <v>0</v>
-      </c>
-      <c r="V55" t="n">
-        <v>5</v>
-      </c>
-      <c r="W55" t="n">
-        <v>-42</v>
-      </c>
-      <c r="X55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>-42</t>
-        </is>
-      </c>
-      <c r="AB55" t="n">
-        <v>-19651.45</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>-16364.01</v>
-      </c>
-      <c r="AD55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="AJ55" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="AL55" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AN55" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="AP55" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ55" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AS55" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AT55" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU55" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV55" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>-2.04</v>
-      </c>
-      <c r="D56" t="n">
-        <v>21149.447</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H56" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>-16.86</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>5020</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>-1.28</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>-4.29</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>-13.95</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="U56" t="b">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>8</v>
-      </c>
-      <c r="W56" t="n">
-        <v>-19</v>
-      </c>
-      <c r="X56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="AB56" t="n">
-        <v>-36964.57</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>-11886.55</v>
-      </c>
-      <c r="AD56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>-2.11</v>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="AJ56" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="AL56" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AN56" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="AP56" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ56" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AR56" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AS56" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AT56" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU56" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV56" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="D57" t="n">
-        <v>14019.086</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>10.94</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H57" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>-19.31</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>5020</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>-1.28</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>-4.23</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>-7.54</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="U57" t="b">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>5</v>
-      </c>
-      <c r="W57" t="n">
-        <v>-15</v>
-      </c>
-      <c r="X57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="AB57" t="n">
-        <v>-39878.21</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>-16987.74</v>
-      </c>
-      <c r="AD57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="AJ57" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="AL57" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AN57" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="AP57" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ57" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AR57" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AS57" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AT57" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU57" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV57" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.17</v>
+        <v>-3.1</v>
       </c>
       <c r="D2" t="n">
-        <v>8852</v>
+        <v>16698</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,17 +710,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -728,72 +728,64 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-15.68</t>
+          <t>-49.88</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="W2" t="n">
-        <v>-26</v>
+        <v>-21</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-553.1900000000001</v>
+        <v>-1073.65</v>
       </c>
       <c r="AC2" t="n">
-        <v>709.83</v>
+        <v>622.3200000000001</v>
       </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.78</v>
+        <v>-2.73</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -812,14 +804,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>7.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -832,11 +824,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -851,7 +843,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS2" t="n">
@@ -876,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -885,40 +877,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.52</v>
+        <v>-2.17</v>
       </c>
       <c r="D3" t="n">
-        <v>8001</v>
+        <v>8852</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="H3" t="n">
-        <v>163.5</v>
+        <v>160</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>-2.19</v>
+        <v>-3.23</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -926,42 +918,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>-15.68</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>-26</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -978,20 +970,20 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>1005.54</v>
+        <v>-553.1900000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>643.33</v>
+        <v>709.83</v>
       </c>
       <c r="AD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5600000000000001</v>
+        <v>-1.78</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1010,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>7.58</v>
       </c>
       <c r="AK3" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1030,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1049,7 +1041,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS3" t="n">
@@ -1074,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1083,40 +1075,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.38</v>
+        <v>1.52</v>
       </c>
       <c r="D4" t="n">
-        <v>7665</v>
+        <v>8001</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="H4" t="n">
-        <v>161</v>
+        <v>163.5</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-0.62</v>
+        <v>-5.48</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1124,42 +1116,42 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -1176,20 +1168,20 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>647.5700000000001</v>
+        <v>1005.54</v>
       </c>
       <c r="AC4" t="n">
-        <v>739.85</v>
+        <v>643.33</v>
       </c>
       <c r="AD4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1208,14 +1200,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>7.58</v>
       </c>
       <c r="AK4" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1228,11 +1220,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1247,7 +1239,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS4" t="n">
@@ -1272,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1281,40 +1273,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.07</v>
+        <v>-2.38</v>
       </c>
       <c r="D5" t="n">
-        <v>10758</v>
+        <v>7665</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="H5" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-3.12</v>
+        <v>-3.87</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -1322,42 +1314,42 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>49.09</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="W5" t="n">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1374,20 +1366,20 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>987.3</v>
+        <v>647.5700000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>1208.09</v>
+        <v>739.85</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1406,14 +1398,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>7.58</v>
       </c>
       <c r="AK5" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1426,11 +1418,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1445,7 +1437,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS5" t="n">
@@ -1470,7 +1462,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1479,40 +1471,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.89</v>
+        <v>-2.07</v>
       </c>
       <c r="D6" t="n">
-        <v>9682</v>
+        <v>10758</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="H6" t="n">
-        <v>168.5</v>
+        <v>165</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-5.31</v>
+        <v>-6.45</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1520,42 +1512,42 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>49.09</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1572,20 +1564,20 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>1388.26</v>
+        <v>987.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>1132.88</v>
+        <v>1208.09</v>
       </c>
       <c r="AD6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1604,14 +1596,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>7.58</v>
       </c>
       <c r="AK6" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1624,11 +1616,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1643,7 +1635,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS6" t="n">
@@ -1668,7 +1660,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1677,40 +1669,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D7" t="n">
-        <v>30249</v>
+        <v>9682</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>167</v>
+        <v>168.5</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-4.38</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1718,42 +1710,42 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>121.29</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="W7" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1770,20 +1762,20 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>1146.19</v>
+        <v>1388.26</v>
       </c>
       <c r="AC7" t="n">
-        <v>672.33</v>
+        <v>1132.88</v>
       </c>
       <c r="AD7" t="b">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1802,14 +1794,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>7.58</v>
       </c>
       <c r="AK7" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1822,11 +1814,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1841,7 +1833,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS7" t="n">
@@ -1866,7 +1858,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1875,40 +1867,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.08</v>
+        <v>0.3</v>
       </c>
       <c r="D8" t="n">
-        <v>9920</v>
+        <v>30249</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>166.5</v>
+        <v>167</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-4.06</v>
+        <v>-7.74</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1916,42 +1908,42 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>212.72</t>
+          <t>121.29</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="W8" t="n">
-        <v>-47</v>
+        <v>-28</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1968,20 +1960,20 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-428.23</v>
+        <v>1146.19</v>
       </c>
       <c r="AC8" t="n">
-        <v>814.35</v>
+        <v>672.33</v>
       </c>
       <c r="AD8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>-1.53</v>
+        <v>0.7</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -2000,14 +1992,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>7.58</v>
       </c>
       <c r="AK8" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2020,11 +2012,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2039,7 +2031,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS8" t="n">
@@ -2064,7 +2056,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2073,40 +2065,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D9" t="n">
-        <v>9057</v>
+        <v>9920</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>-6.25</v>
+        <v>-7.42</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -2114,42 +2106,42 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>556.19</t>
+          <t>212.72</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="W9" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2166,20 +2158,20 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>821.83</v>
+        <v>-428.23</v>
       </c>
       <c r="AC9" t="n">
-        <v>1024.77</v>
+        <v>814.35</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.2</v>
+        <v>-1.53</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2198,14 +2190,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>7.58</v>
       </c>
       <c r="AK9" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2218,11 +2210,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2237,7 +2229,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS9" t="n">
@@ -2262,7 +2254,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2271,40 +2263,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="D10" t="n">
-        <v>17560</v>
+        <v>9057</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>-4.38</v>
+        <v>-9.68</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2312,42 +2304,42 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1515.46</t>
+          <t>556.19</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2364,20 +2356,20 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>1394.35</v>
+        <v>821.83</v>
       </c>
       <c r="AC10" t="n">
-        <v>807.8</v>
+        <v>1024.77</v>
       </c>
       <c r="AD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.73</v>
+        <v>-0.2</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2396,14 +2388,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>7.58</v>
       </c>
       <c r="AK10" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2416,11 +2408,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2435,7 +2427,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS10" t="n">
@@ -2460,7 +2452,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2469,40 +2461,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.79</v>
+        <v>1.49</v>
       </c>
       <c r="D11" t="n">
-        <v>8704</v>
+        <v>17560</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>164.5</v>
+        <v>167</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>-2.81</v>
+        <v>-7.74</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2510,42 +2502,42 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>356.85</t>
+          <t>1515.46</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W11" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2562,20 +2554,20 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>799.73</v>
+        <v>1394.35</v>
       </c>
       <c r="AC11" t="n">
-        <v>726.02</v>
+        <v>807.8</v>
       </c>
       <c r="AD11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2594,14 +2586,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>7.58</v>
       </c>
       <c r="AK11" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2614,11 +2606,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2633,7 +2625,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS11" t="n">
@@ -2658,7 +2650,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2667,40 +2659,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.46</v>
+        <v>-1.79</v>
       </c>
       <c r="D12" t="n">
-        <v>13645</v>
+        <v>8704</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>167.5</v>
+        <v>164.5</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-4.69</v>
+        <v>-6.13</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2708,42 +2700,42 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>223.58</t>
+          <t>356.85</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W12" t="n">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2760,20 +2752,20 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-640.0700000000001</v>
+        <v>799.73</v>
       </c>
       <c r="AC12" t="n">
-        <v>652.95</v>
+        <v>726.02</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1.98</v>
+        <v>0.1</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2792,14 +2784,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>7.58</v>
       </c>
       <c r="AK12" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2812,11 +2804,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2831,7 +2823,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS12" t="n">
@@ -2844,7 +2836,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
@@ -2856,7 +2848,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2865,40 +2857,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.89</v>
+        <v>-1.46</v>
       </c>
       <c r="D13" t="n">
-        <v>15638</v>
+        <v>13645</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="H13" t="n">
-        <v>170</v>
+        <v>167.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>-6.25</v>
+        <v>-8.06</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2906,42 +2898,42 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>155.89</t>
+          <t>223.58</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2958,20 +2950,20 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>1228.7</v>
+        <v>-640.0700000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>626.71</v>
+        <v>652.95</v>
       </c>
       <c r="AD13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.96</v>
+        <v>-1.98</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2990,14 +2982,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>7.58</v>
       </c>
       <c r="AK13" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -3010,11 +3002,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3029,7 +3021,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS13" t="n">
@@ -3054,7 +3046,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3063,40 +3055,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.29</v>
+        <v>0.89</v>
       </c>
       <c r="D14" t="n">
-        <v>46062</v>
+        <v>15638</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>65.38</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>168.5</v>
+        <v>170</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-5.31</v>
+        <v>-9.68</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3104,42 +3096,42 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>110.80</t>
+          <t>155.89</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3156,20 +3148,20 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>1193.7</v>
+        <v>1228.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>598.13</v>
+        <v>626.71</v>
       </c>
       <c r="AD14" t="b">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3188,14 +3180,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>7.58</v>
       </c>
       <c r="AK14" t="n">
-        <v>35.09</v>
+        <v>33.99</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3208,11 +3200,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3227,7 +3219,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS14" t="n">
@@ -3252,7 +3244,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3261,22 +3253,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.63</v>
+        <v>1.13</v>
       </c>
       <c r="D15" t="n">
-        <v>62938.427</v>
+        <v>70166.28999999999</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>21.28</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H15" t="n">
-        <v>79.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -3284,17 +3276,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -3302,42 +3294,42 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-11.96</t>
+          <t>-16.91</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W15" t="n">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
@@ -3346,20 +3338,20 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-73649.74000000001</v>
+        <v>-58244.03</v>
       </c>
       <c r="AC15" t="n">
-        <v>-58783.87</v>
+        <v>-43981.29</v>
       </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.25</v>
+        <v>-0.32</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3378,14 +3370,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>13.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3398,11 +3390,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3442,7 +3434,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3451,35 +3443,35 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.11</v>
+        <v>-0.63</v>
       </c>
       <c r="D16" t="n">
-        <v>86772.791</v>
+        <v>62938.427</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>79.59999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-0.63</v>
+        <v>1.13</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3492,72 +3484,64 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-11.96</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="W16" t="n">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-84204.02</v>
+        <v>-73649.74000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-31504.06</v>
+        <v>-58783.87</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-1.67</v>
+        <v>-0.25</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3576,14 +3560,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>13.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3596,11 +3580,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3640,7 +3624,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3649,40 +3633,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.85</v>
+        <v>-2.11</v>
       </c>
       <c r="D17" t="n">
-        <v>69555.459</v>
+        <v>86772.791</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="H17" t="n">
-        <v>81.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-2.78</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -3690,42 +3674,42 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="W17" t="n">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -3742,20 +3726,20 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-51333.06</v>
+        <v>-84204.02</v>
       </c>
       <c r="AC17" t="n">
-        <v>23266.32</v>
+        <v>-31504.06</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-3.21</v>
+        <v>-1.67</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3774,14 +3758,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>13.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3794,11 +3778,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3838,7 +3822,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3847,40 +3831,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.22</v>
+        <v>-0.85</v>
       </c>
       <c r="D18" t="n">
-        <v>60073.015</v>
+        <v>69555.459</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="H18" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-3.67</v>
+        <v>-1.62</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -3888,42 +3872,42 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>20.88</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W18" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -3940,20 +3924,20 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-49968.05</v>
+        <v>-51333.06</v>
       </c>
       <c r="AC18" t="n">
-        <v>44719.79</v>
+        <v>23266.32</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-2.12</v>
+        <v>-3.21</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3972,14 +3956,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>13.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3992,11 +3976,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4036,7 +4020,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4045,40 +4029,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.84</v>
+        <v>-1.22</v>
       </c>
       <c r="D19" t="n">
-        <v>55414.145</v>
+        <v>60073.015</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>16.80</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="H19" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-4.93</v>
+        <v>-2.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -4086,42 +4070,42 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>34.20</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="W19" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4138,20 +4122,20 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-21825.25</v>
+        <v>-49968.05</v>
       </c>
       <c r="AC19" t="n">
-        <v>59172.43</v>
+        <v>44719.79</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-1.37</v>
+        <v>-2.12</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4170,14 +4154,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>13.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4190,11 +4174,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4234,7 +4218,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4243,40 +4227,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3.67</v>
+        <v>-0.84</v>
       </c>
       <c r="D20" t="n">
-        <v>157042.134</v>
+        <v>55414.145</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>47.62</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="H20" t="n">
-        <v>83.7</v>
+        <v>83</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-5.82</v>
+        <v>-3.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -4284,42 +4268,42 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>49.61</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4336,20 +4320,20 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-38559.06</v>
+        <v>-21825.25</v>
       </c>
       <c r="AC20" t="n">
-        <v>63982.29</v>
+        <v>59172.43</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-1.6</v>
+        <v>-1.37</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4368,14 +4352,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>13.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4388,11 +4372,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4432,7 +4416,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4441,40 +4425,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.36</v>
+        <v>-3.67</v>
       </c>
       <c r="D21" t="n">
-        <v>178996.807</v>
+        <v>157042.134</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>54.27</t>
+          <t>47.62</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="H21" t="n">
-        <v>86.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-9.859999999999999</v>
+        <v>-4.63</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -4482,42 +4466,42 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>69.07</t>
+          <t>49.61</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4534,20 +4518,20 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>71451.41</v>
+        <v>-38559.06</v>
       </c>
       <c r="AC21" t="n">
-        <v>74695.83</v>
+        <v>63982.29</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.04</v>
+        <v>-1.6</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4566,14 +4550,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>13.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4586,11 +4570,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4618,7 +4602,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
@@ -4630,7 +4614,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4639,40 +4623,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.24</v>
+        <v>4.36</v>
       </c>
       <c r="D22" t="n">
-        <v>59784.492</v>
+        <v>178996.807</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>54.27</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H22" t="n">
-        <v>83.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-5.31</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -4680,42 +4664,42 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>79.81</t>
+          <t>69.07</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W22" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4732,20 +4716,20 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>60973.17</v>
+        <v>71451.41</v>
       </c>
       <c r="AC22" t="n">
-        <v>62920.57</v>
+        <v>74695.83</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4764,14 +4748,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>13.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4784,11 +4768,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4828,7 +4812,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4837,35 +4821,35 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="D23" t="n">
-        <v>62501.355</v>
+        <v>59784.492</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-5.56</v>
+        <v>-4.12</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4878,42 +4862,42 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>108.80</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W23" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4930,20 +4914,20 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>80601.03</v>
+        <v>60973.17</v>
       </c>
       <c r="AC23" t="n">
-        <v>66234.94</v>
+        <v>62920.57</v>
       </c>
       <c r="AD23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4962,14 +4946,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>13.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4982,11 +4966,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -5026,7 +5010,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5035,35 +5019,35 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.83</v>
+        <v>0.24</v>
       </c>
       <c r="D24" t="n">
-        <v>115578.478</v>
+        <v>62501.355</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-5.31</v>
+        <v>-4.38</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5076,42 +5060,42 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>152.87</t>
+          <t>108.80</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="W24" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5128,20 +5112,20 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>86481.75</v>
+        <v>80601.03</v>
       </c>
       <c r="AC24" t="n">
-        <v>63133.06</v>
+        <v>66234.94</v>
       </c>
       <c r="AD24" t="b">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5160,14 +5144,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>13.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5180,11 +5164,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5224,7 +5208,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5233,40 +5217,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.62</v>
+        <v>-0.83</v>
       </c>
       <c r="D25" t="n">
-        <v>235712.727</v>
+        <v>115578.478</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H25" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-6.19</v>
+        <v>-4.12</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -5274,42 +5258,42 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>236.50</t>
+          <t>152.87</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W25" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5326,20 +5310,20 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>98357.86</v>
+        <v>86481.75</v>
       </c>
       <c r="AC25" t="n">
-        <v>69370.52</v>
+        <v>63133.06</v>
       </c>
       <c r="AD25" t="b">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5358,14 +5342,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>13.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5378,11 +5362,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5422,7 +5406,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5431,40 +5415,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.12</v>
+        <v>5.62</v>
       </c>
       <c r="D26" t="n">
-        <v>104700.664</v>
+        <v>235712.727</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="H26" t="n">
-        <v>79.5</v>
+        <v>84</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-0.51</v>
+        <v>-5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -5472,42 +5456,42 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>455.82</t>
+          <t>236.50</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="W26" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5524,20 +5508,20 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>77805.08</v>
+        <v>98357.86</v>
       </c>
       <c r="AC26" t="n">
-        <v>55558.31</v>
+        <v>69370.52</v>
       </c>
       <c r="AD26" t="b">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5556,14 +5540,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>13.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5576,11 +5560,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5620,7 +5604,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5629,35 +5613,35 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.78</v>
+        <v>0.12</v>
       </c>
       <c r="D27" t="n">
-        <v>112713.378</v>
+        <v>104700.664</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>34.18</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>1.31</v>
       </c>
       <c r="H27" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-0.38</v>
+        <v>0.62</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5670,42 +5654,42 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2873.83</t>
+          <t>455.82</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W27" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5722,20 +5706,20 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>64809.48</v>
+        <v>77805.08</v>
       </c>
       <c r="AC27" t="n">
-        <v>45623.98</v>
+        <v>55558.31</v>
       </c>
       <c r="AD27" t="b">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5754,14 +5738,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>13.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5774,11 +5758,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5818,7 +5802,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5827,22 +5811,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.01</v>
+        <v>2.23</v>
       </c>
       <c r="D28" t="n">
-        <v>14575.424</v>
+        <v>14469.172</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
-        <v>247</v>
+        <v>252.5</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -5850,17 +5834,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -5868,42 +5852,42 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-5.39</t>
+          <t>-6.47</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="W28" t="n">
-        <v>-27</v>
+        <v>-15</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5912,20 +5896,20 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-52331.46</v>
+        <v>-37941.72</v>
       </c>
       <c r="AC28" t="n">
-        <v>-46749.68</v>
+        <v>-29124.83</v>
       </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.12</v>
+        <v>-0.3</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5944,14 +5928,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>50.79</v>
       </c>
       <c r="AK28" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5964,11 +5948,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -6008,7 +5992,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6017,40 +6001,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-1.82</v>
+        <v>1.01</v>
       </c>
       <c r="D29" t="n">
-        <v>23875.171</v>
+        <v>14575.424</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="H29" t="n">
-        <v>244.5</v>
+        <v>247</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -6058,42 +6042,42 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>-33</v>
+        <v>-27</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -6102,20 +6086,20 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-70008.25999999999</v>
+        <v>-52331.46</v>
       </c>
       <c r="AC29" t="n">
-        <v>-22629.4</v>
+        <v>-46749.68</v>
       </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>-2.09</v>
+        <v>-0.12</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6134,14 +6118,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>50.79</v>
       </c>
       <c r="AK29" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6154,11 +6138,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6198,7 +6182,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6207,40 +6191,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-1.57</v>
+        <v>-1.82</v>
       </c>
       <c r="D30" t="n">
-        <v>18242.127</v>
+        <v>23875.171</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="H30" t="n">
-        <v>249</v>
+        <v>244.5</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-0.8100000000000001</v>
+        <v>3.17</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -6248,39 +6232,39 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W30" t="n">
         <v>-33</v>
@@ -6296,16 +6280,16 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-46739.9</v>
+        <v>-70008.25999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>35357.62</v>
+        <v>-22629.4</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>-2.32</v>
+        <v>-2.09</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6324,14 +6308,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>50.79</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6344,11 +6328,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6388,7 +6372,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6397,40 +6381,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
       <c r="D31" t="n">
-        <v>15762.398</v>
+        <v>18242.127</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="H31" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-2.43</v>
+        <v>1.39</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -6438,42 +6422,42 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="W31" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6482,20 +6466,20 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-48165.22</v>
+        <v>-46739.9</v>
       </c>
       <c r="AC31" t="n">
-        <v>55941.11</v>
+        <v>35357.62</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1.86</v>
+        <v>-2.32</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6514,14 +6498,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>50.79</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6534,11 +6518,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6578,7 +6562,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6587,35 +6571,35 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>11250.473</v>
+        <v>15762.398</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="H32" t="n">
         <v>253</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-2.43</v>
+        <v>-0.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6628,42 +6612,42 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>31.64</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="W32" t="n">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6672,20 +6656,20 @@
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-16029.25</v>
+        <v>-48165.22</v>
       </c>
       <c r="AC32" t="n">
-        <v>69339.78</v>
+        <v>55941.11</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.23</v>
+        <v>-1.86</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6704,14 +6688,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>50.79</v>
       </c>
       <c r="AK32" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6724,11 +6708,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6768,7 +6752,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6777,40 +6761,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1.53</v>
+        <v>-1.17</v>
       </c>
       <c r="D33" t="n">
-        <v>27921.207</v>
+        <v>11250.473</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-3.64</v>
+        <v>-0.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -6818,42 +6802,42 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>45.92</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W33" t="n">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6862,20 +6846,20 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-40403.99</v>
+        <v>-16029.25</v>
       </c>
       <c r="AC33" t="n">
-        <v>73603.61</v>
+        <v>69339.78</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.55</v>
+        <v>-1.23</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6894,14 +6878,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>50.79</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6914,11 +6898,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6958,7 +6942,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6967,40 +6951,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.38</v>
+        <v>-1.53</v>
       </c>
       <c r="D34" t="n">
-        <v>29888.144</v>
+        <v>27921.207</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="H34" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-5.26</v>
+        <v>-1.39</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -7008,42 +6992,42 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>62.83</t>
+          <t>45.92</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>-26</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -7052,20 +7036,20 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>62265.38</v>
+        <v>-40403.99</v>
       </c>
       <c r="AC34" t="n">
-        <v>79723.25999999999</v>
+        <v>73603.61</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.22</v>
+        <v>-1.55</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7084,14 +7068,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>50.79</v>
       </c>
       <c r="AK34" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7104,11 +7088,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7136,7 +7120,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7148,7 +7132,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7157,40 +7141,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.39</v>
+        <v>1.38</v>
       </c>
       <c r="D35" t="n">
-        <v>20529.87</v>
+        <v>29888.144</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H35" t="n">
-        <v>256.5</v>
+        <v>260</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-3.85</v>
+        <v>-2.97</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -7198,42 +7182,42 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>62.83</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="W35" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7242,20 +7226,20 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>68446.63</v>
+        <v>62265.38</v>
       </c>
       <c r="AC35" t="n">
-        <v>75477.07000000001</v>
+        <v>79723.25999999999</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.09</v>
+        <v>-0.22</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7274,14 +7258,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>50.79</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7294,11 +7278,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7338,7 +7322,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7347,40 +7331,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.18</v>
+        <v>-0.39</v>
       </c>
       <c r="D36" t="n">
-        <v>24833.927</v>
+        <v>20529.87</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>257.5</v>
+        <v>256.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-4.25</v>
+        <v>-1.58</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -7388,42 +7372,42 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>111.57</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W36" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7432,20 +7416,20 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>92621.3</v>
+        <v>68446.63</v>
       </c>
       <c r="AC36" t="n">
-        <v>77736.25</v>
+        <v>75477.07000000001</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7464,14 +7448,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>50.79</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7484,11 +7468,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7528,7 +7512,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7537,40 +7521,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-2.31</v>
+        <v>1.18</v>
       </c>
       <c r="D37" t="n">
-        <v>37909.432</v>
+        <v>24833.927</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="H37" t="n">
-        <v>254.5</v>
+        <v>257.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-3.04</v>
+        <v>-1.98</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -7578,42 +7562,42 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>158.57</t>
+          <t>111.57</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="W37" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7622,20 +7606,20 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>99362.71000000001</v>
+        <v>92621.3</v>
       </c>
       <c r="AC37" t="n">
-        <v>74722.36</v>
+        <v>77736.25</v>
       </c>
       <c r="AD37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7654,14 +7638,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>50.79</v>
       </c>
       <c r="AK37" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7674,11 +7658,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7718,7 +7702,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7727,40 +7711,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.07</v>
+        <v>-2.31</v>
       </c>
       <c r="D38" t="n">
-        <v>79214.121</v>
+        <v>37909.432</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>33.87</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="H38" t="n">
-        <v>260.5</v>
+        <v>254.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-5.47</v>
+        <v>-0.79</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7768,39 +7752,39 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>261.79</t>
+          <t>158.57</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W38" t="n">
         <v>74</v>
@@ -7816,16 +7800,16 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>111657.81</v>
+        <v>99362.71000000001</v>
       </c>
       <c r="AC38" t="n">
-        <v>79494.34</v>
+        <v>74722.36</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7844,14 +7828,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>50.79</v>
       </c>
       <c r="AK38" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7864,11 +7848,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7908,7 +7892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7917,40 +7901,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.22</v>
+        <v>6.07</v>
       </c>
       <c r="D39" t="n">
-        <v>47743.43</v>
+        <v>79214.121</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>70.77</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="H39" t="n">
-        <v>245.5</v>
+        <v>260.5</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>0.61</v>
+        <v>-3.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -7958,42 +7942,42 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>608.90</t>
+          <t>261.79</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="W39" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -8002,20 +7986,20 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>93992.64999999999</v>
+        <v>111657.81</v>
       </c>
       <c r="AC39" t="n">
-        <v>67606.03999999999</v>
+        <v>79494.34</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8034,14 +8018,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>50.79</v>
       </c>
       <c r="AK39" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8054,11 +8038,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8098,7 +8082,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8107,40 +8091,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.26</v>
+        <v>1.22</v>
       </c>
       <c r="D40" t="n">
-        <v>59161.712</v>
+        <v>47743.43</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="H40" t="n">
-        <v>242.5</v>
+        <v>245.5</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>1.82</v>
+        <v>2.77</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -8148,42 +8132,42 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>979.07</t>
+          <t>608.90</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="W40" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -8192,20 +8176,20 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>81906.25999999999</v>
+        <v>93992.64999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>59677.39</v>
+        <v>67606.03999999999</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8224,14 +8208,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>50.79</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8244,11 +8228,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8288,7 +8272,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8297,22 +8281,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.92</v>
+        <v>4.01</v>
       </c>
       <c r="D41" t="n">
-        <v>20343.534</v>
+        <v>17760.488</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
-        <v>63.5</v>
+        <v>66</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -8320,17 +8304,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8338,32 +8322,32 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-10.36</t>
+          <t>-9.35</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-133.80</t>
+          <t>-144.91</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="U41" t="b">
@@ -8373,7 +8357,7 @@
         <v>56</v>
       </c>
       <c r="W41" t="n">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8382,20 +8366,20 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>-4375.94</v>
+        <v>16521.71</v>
       </c>
       <c r="AC41" t="n">
-        <v>-13309.6</v>
+        <v>4864.63</v>
       </c>
       <c r="AD41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.67</v>
+        <v>2.4</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8414,14 +8398,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>11.16</v>
       </c>
       <c r="AK41" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8434,11 +8418,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8466,7 +8450,7 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
@@ -8478,7 +8462,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8487,40 +8471,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.12</v>
+        <v>3.92</v>
       </c>
       <c r="D42" t="n">
-        <v>5020.029</v>
+        <v>20343.534</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="H42" t="n">
-        <v>61.1</v>
+        <v>63.5</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8528,42 +8512,42 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-4.41</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-10.21</t>
+          <t>-10.36</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-112.17</t>
+          <t>-133.80</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W42" t="n">
-        <v>-36</v>
+        <v>-25</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8572,20 +8556,20 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-20343.32</v>
+        <v>-4375.94</v>
       </c>
       <c r="AC42" t="n">
-        <v>-19283.37</v>
+        <v>-13309.6</v>
       </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>-0.05</v>
+        <v>0.67</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8604,14 +8588,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>11.16</v>
       </c>
       <c r="AK42" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8624,11 +8608,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8668,7 +8652,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8677,40 +8661,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-3.07</v>
+        <v>-1.12</v>
       </c>
       <c r="D43" t="n">
-        <v>5204.13</v>
+        <v>5020.029</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="H43" t="n">
-        <v>61.8</v>
+        <v>61.1</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>2.68</v>
+        <v>7.42</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8718,42 +8702,42 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-5.85</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>-10.21</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-86.07</t>
+          <t>-112.17</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W43" t="n">
-        <v>-40</v>
+        <v>-36</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8762,20 +8746,20 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-21721.22</v>
+        <v>-20343.32</v>
       </c>
       <c r="AC43" t="n">
-        <v>-12951.08</v>
+        <v>-19283.37</v>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.68</v>
+        <v>-0.05</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8794,14 +8778,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>11.16</v>
       </c>
       <c r="AK43" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8814,11 +8798,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8858,7 +8842,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8867,40 +8851,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-3.04</v>
+        <v>-3.07</v>
       </c>
       <c r="D44" t="n">
-        <v>6673.803</v>
+        <v>5204.13</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H44" t="n">
-        <v>63.8</v>
+        <v>61.8</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>-0.47</v>
+        <v>6.36</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8908,42 +8892,42 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-5.17</t>
+          <t>-5.85</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-7.95</t>
+          <t>-9.06</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-66.53</t>
+          <t>-86.07</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W44" t="n">
-        <v>-29</v>
+        <v>-40</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8952,20 +8936,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-24373.73</v>
+        <v>-21721.22</v>
       </c>
       <c r="AC44" t="n">
-        <v>-7083.36</v>
+        <v>-12951.08</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-2.44</v>
+        <v>-0.68</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8984,14 +8968,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>11.16</v>
       </c>
       <c r="AK44" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9004,11 +8988,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9048,7 +9032,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9057,40 +9041,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-1.93</v>
+        <v>-3.04</v>
       </c>
       <c r="D45" t="n">
-        <v>4691.497</v>
+        <v>6673.803</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H45" t="n">
-        <v>65.8</v>
+        <v>63.8</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-3.62</v>
+        <v>3.33</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -9098,32 +9082,32 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-4.00</t>
+          <t>-5.17</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-6.80</t>
+          <t>-7.95</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-53.62</t>
+          <t>-66.53</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U45" t="b">
@@ -9133,7 +9117,7 @@
         <v>30</v>
       </c>
       <c r="W45" t="n">
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9142,20 +9126,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-15021.23</v>
+        <v>-24373.73</v>
       </c>
       <c r="AC45" t="n">
-        <v>-12561.97</v>
+        <v>-7083.36</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.2</v>
+        <v>-2.44</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9174,14 +9158,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>11.16</v>
       </c>
       <c r="AK45" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9194,11 +9178,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9238,7 +9222,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9247,40 +9231,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-3.71</v>
+        <v>-1.93</v>
       </c>
       <c r="D46" t="n">
-        <v>10178.928</v>
+        <v>4691.497</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H46" t="n">
-        <v>67.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>-5.67</v>
+        <v>0.3</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -9288,42 +9272,42 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-4.00</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-6.80</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-45.09</t>
+          <t>-53.62</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W46" t="n">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9332,20 +9316,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-18306.88</v>
+        <v>-15021.23</v>
       </c>
       <c r="AC46" t="n">
-        <v>-15103.93</v>
+        <v>-12561.97</v>
       </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9364,14 +9348,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>11.16</v>
       </c>
       <c r="AK46" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9384,11 +9368,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9428,7 +9412,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9437,40 +9421,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.43</v>
+        <v>-3.71</v>
       </c>
       <c r="D47" t="n">
-        <v>8493.882</v>
+        <v>10178.928</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="H47" t="n">
-        <v>69.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-9.76</v>
+        <v>-1.67</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9478,42 +9462,42 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-5.31</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-38.37</t>
+          <t>-45.09</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W47" t="n">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9522,20 +9506,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-18161.66</v>
+        <v>-18306.88</v>
       </c>
       <c r="AC47" t="n">
-        <v>-18241.35</v>
+        <v>-15103.93</v>
       </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9554,14 +9538,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>11.16</v>
       </c>
       <c r="AK47" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9574,11 +9558,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9618,7 +9602,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9627,40 +9611,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="D48" t="n">
-        <v>13425.679</v>
+        <v>8493.882</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="H48" t="n">
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-10.24</v>
+        <v>-5.61</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9668,42 +9652,42 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-4.10</t>
+          <t>-5.31</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-35.92</t>
+          <t>-38.37</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W48" t="n">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9712,20 +9696,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>11676.91</v>
+        <v>-18161.66</v>
       </c>
       <c r="AC48" t="n">
-        <v>-11176.52</v>
+        <v>-18241.35</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9744,14 +9728,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>11.16</v>
       </c>
       <c r="AK48" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9764,11 +9748,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9808,7 +9792,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9817,40 +9801,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.16</v>
+        <v>-0.14</v>
       </c>
       <c r="D49" t="n">
-        <v>19960.491</v>
+        <v>13425.679</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="H49" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-10.39</v>
+        <v>-6.06</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9858,42 +9842,42 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-4.10</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-33.45</t>
+          <t>-35.92</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W49" t="n">
-        <v>-28</v>
+        <v>-8</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9902,20 +9886,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>22220.05</v>
+        <v>11676.91</v>
       </c>
       <c r="AC49" t="n">
-        <v>-20888.38</v>
+        <v>-11176.52</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9934,14 +9918,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>11.16</v>
       </c>
       <c r="AK49" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9954,11 +9938,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9998,7 +9982,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10007,40 +9991,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-4.59</v>
+        <v>2.16</v>
       </c>
       <c r="D50" t="n">
-        <v>12526.571</v>
+        <v>19960.491</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="H50" t="n">
-        <v>68.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-8.029999999999999</v>
+        <v>-6.21</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -10048,42 +10032,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-30.54</t>
+          <t>-33.45</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W50" t="n">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10092,20 +10076,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-9485.18</v>
+        <v>22220.05</v>
       </c>
       <c r="AC50" t="n">
-        <v>-28984.82</v>
+        <v>-20888.38</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.67</v>
+        <v>2.06</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10124,14 +10108,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>11.16</v>
       </c>
       <c r="AK50" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10144,11 +10128,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10188,7 +10172,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10197,40 +10181,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.41</v>
+        <v>-4.59</v>
       </c>
       <c r="D51" t="n">
-        <v>9130.764999999999</v>
+        <v>12526.571</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H51" t="n">
-        <v>71.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-13.23</v>
+        <v>-3.94</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10238,42 +10222,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-24.31</t>
+          <t>-30.54</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W51" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10282,20 +10266,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-11005.23</v>
+        <v>-9485.18</v>
       </c>
       <c r="AC51" t="n">
-        <v>-17607.64</v>
+        <v>-28984.82</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10314,14 +10298,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>11.16</v>
       </c>
       <c r="AK51" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10334,11 +10318,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10378,7 +10362,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10387,40 +10371,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.7</v>
+        <v>-0.41</v>
       </c>
       <c r="D52" t="n">
-        <v>23811.657</v>
+        <v>9130.764999999999</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="H52" t="n">
-        <v>72.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-13.7</v>
+        <v>-8.94</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10428,42 +10412,42 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-21.56</t>
+          <t>-24.31</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W52" t="n">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10472,20 +10456,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-18320.69</v>
+        <v>-11005.23</v>
       </c>
       <c r="AC52" t="n">
-        <v>-20839.83</v>
+        <v>-17607.64</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10504,14 +10488,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>11.16</v>
       </c>
       <c r="AK52" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10524,11 +10508,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10568,7 +10552,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10577,40 +10561,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="D53" t="n">
-        <v>11786.521</v>
+        <v>23811.657</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="H53" t="n">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-12.91</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10618,42 +10602,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-18.53</t>
+          <t>-21.56</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="W53" t="n">
-        <v>-42</v>
+        <v>-35</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10662,20 +10646,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-19651.45</v>
+        <v>-18320.69</v>
       </c>
       <c r="AC53" t="n">
-        <v>-16364.01</v>
+        <v>-20839.83</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>-0.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10694,14 +10678,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>11.16</v>
       </c>
       <c r="AK53" t="n">
-        <v>66.15000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10714,11 +10698,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>26.13</v>
+        <v>26.46</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.1</v>
+        <v>2.86</v>
       </c>
       <c r="D2" t="n">
-        <v>16698</v>
+        <v>7533</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>155</v>
+        <v>159.5</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,17 +710,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -728,42 +728,42 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-49.88</t>
+          <t>-60.33</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="W2" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -772,20 +772,20 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-1073.65</v>
+        <v>-746.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.3200000000001</v>
+        <v>457.13</v>
       </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.73</v>
+        <v>-2.63</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -804,14 +804,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>7.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS2" t="n">
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,40 +877,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.17</v>
+        <v>-3.1</v>
       </c>
       <c r="D3" t="n">
-        <v>8852</v>
+        <v>16698</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>-3.23</v>
+        <v>2.82</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -918,72 +918,64 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-15.68</t>
+          <t>-49.88</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="W3" t="n">
-        <v>-26</v>
+        <v>-21</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-553.1900000000001</v>
+        <v>-1073.65</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.83</v>
+        <v>622.3200000000001</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1.78</v>
+        <v>-2.73</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +994,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>7.58</v>
       </c>
       <c r="AK3" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1014,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1041,7 +1033,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS3" t="n">
@@ -1066,7 +1058,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,40 +1067,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.52</v>
+        <v>-2.17</v>
       </c>
       <c r="D4" t="n">
-        <v>8001</v>
+        <v>8852</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="H4" t="n">
-        <v>163.5</v>
+        <v>160</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-5.48</v>
+        <v>-0.31</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1116,42 +1108,42 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>-15.68</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>-26</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -1168,20 +1160,20 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>1005.54</v>
+        <v>-553.1900000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>643.33</v>
+        <v>709.83</v>
       </c>
       <c r="AD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5600000000000001</v>
+        <v>-1.78</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1200,14 +1192,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>7.58</v>
       </c>
       <c r="AK4" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1220,11 +1212,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1239,7 +1231,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS4" t="n">
@@ -1264,7 +1256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1273,40 +1265,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.38</v>
+        <v>1.52</v>
       </c>
       <c r="D5" t="n">
-        <v>7665</v>
+        <v>8001</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="H5" t="n">
-        <v>161</v>
+        <v>163.5</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-3.87</v>
+        <v>-2.51</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -1314,42 +1306,42 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1366,20 +1358,20 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>647.5700000000001</v>
+        <v>1005.54</v>
       </c>
       <c r="AC5" t="n">
-        <v>739.85</v>
+        <v>643.33</v>
       </c>
       <c r="AD5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1398,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>7.58</v>
       </c>
       <c r="AK5" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1418,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1437,7 +1429,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS5" t="n">
@@ -1462,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1471,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.07</v>
+        <v>-2.38</v>
       </c>
       <c r="D6" t="n">
-        <v>10758</v>
+        <v>7665</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="H6" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-6.45</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1512,42 +1504,42 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>49.09</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="W6" t="n">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1564,20 +1556,20 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>987.3</v>
+        <v>647.5700000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1208.09</v>
+        <v>739.85</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1596,14 +1588,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>7.58</v>
       </c>
       <c r="AK6" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1616,11 +1608,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1635,7 +1627,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS6" t="n">
@@ -1660,7 +1652,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1669,40 +1661,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.89</v>
+        <v>-2.07</v>
       </c>
       <c r="D7" t="n">
-        <v>9682</v>
+        <v>10758</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="H7" t="n">
-        <v>168.5</v>
+        <v>165</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-8.710000000000001</v>
+        <v>-3.45</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1710,42 +1702,42 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>49.09</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1762,20 +1754,20 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>1388.26</v>
+        <v>987.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>1132.88</v>
+        <v>1208.09</v>
       </c>
       <c r="AD7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1794,14 +1786,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>7.58</v>
       </c>
       <c r="AK7" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1814,11 +1806,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1833,7 +1825,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS7" t="n">
@@ -1858,7 +1850,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1867,40 +1859,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D8" t="n">
-        <v>30249</v>
+        <v>9682</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>167</v>
+        <v>168.5</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-7.74</v>
+        <v>-5.64</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1908,42 +1900,42 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>121.29</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="W8" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1960,20 +1952,20 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>1146.19</v>
+        <v>1388.26</v>
       </c>
       <c r="AC8" t="n">
-        <v>672.33</v>
+        <v>1132.88</v>
       </c>
       <c r="AD8" t="b">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1992,14 +1984,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>7.58</v>
       </c>
       <c r="AK8" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2012,11 +2004,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2031,7 +2023,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS8" t="n">
@@ -2056,7 +2048,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2065,40 +2057,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.08</v>
+        <v>0.3</v>
       </c>
       <c r="D9" t="n">
-        <v>9920</v>
+        <v>30249</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>166.5</v>
+        <v>167</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>-7.42</v>
+        <v>-4.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -2106,42 +2098,42 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>212.72</t>
+          <t>121.29</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="W9" t="n">
-        <v>-47</v>
+        <v>-28</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2158,20 +2150,20 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-428.23</v>
+        <v>1146.19</v>
       </c>
       <c r="AC9" t="n">
-        <v>814.35</v>
+        <v>672.33</v>
       </c>
       <c r="AD9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>-1.53</v>
+        <v>0.7</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2190,14 +2182,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>7.58</v>
       </c>
       <c r="AK9" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2210,11 +2202,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2229,7 +2221,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS9" t="n">
@@ -2254,7 +2246,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2263,40 +2255,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D10" t="n">
-        <v>9057</v>
+        <v>9920</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>-9.68</v>
+        <v>-4.39</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2304,42 +2296,42 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>556.19</t>
+          <t>212.72</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="W10" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2356,20 +2348,20 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>821.83</v>
+        <v>-428.23</v>
       </c>
       <c r="AC10" t="n">
-        <v>1024.77</v>
+        <v>814.35</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.2</v>
+        <v>-1.53</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2388,14 +2380,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>7.58</v>
       </c>
       <c r="AK10" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2408,11 +2400,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2427,7 +2419,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS10" t="n">
@@ -2452,7 +2444,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2461,40 +2453,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="D11" t="n">
-        <v>17560</v>
+        <v>9057</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>-7.74</v>
+        <v>-6.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2502,42 +2494,42 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1515.46</t>
+          <t>556.19</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2554,20 +2546,20 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>1394.35</v>
+        <v>821.83</v>
       </c>
       <c r="AC11" t="n">
-        <v>807.8</v>
+        <v>1024.77</v>
       </c>
       <c r="AD11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.73</v>
+        <v>-0.2</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2586,14 +2578,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>7.58</v>
       </c>
       <c r="AK11" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2606,11 +2598,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2625,7 +2617,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS11" t="n">
@@ -2650,7 +2642,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2659,40 +2651,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.79</v>
+        <v>1.49</v>
       </c>
       <c r="D12" t="n">
-        <v>8704</v>
+        <v>17560</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>164.5</v>
+        <v>167</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-6.13</v>
+        <v>-4.7</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2700,42 +2692,42 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>356.85</t>
+          <t>1515.46</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2752,20 +2744,20 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>799.73</v>
+        <v>1394.35</v>
       </c>
       <c r="AC12" t="n">
-        <v>726.02</v>
+        <v>807.8</v>
       </c>
       <c r="AD12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2784,14 +2776,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>7.58</v>
       </c>
       <c r="AK12" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2804,11 +2796,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2823,7 +2815,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS12" t="n">
@@ -2848,7 +2840,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2857,40 +2849,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.46</v>
+        <v>-1.79</v>
       </c>
       <c r="D13" t="n">
-        <v>13645</v>
+        <v>8704</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>167.5</v>
+        <v>164.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>-8.06</v>
+        <v>-3.13</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2898,42 +2890,42 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>223.58</t>
+          <t>356.85</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W13" t="n">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2950,20 +2942,20 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-640.0700000000001</v>
+        <v>799.73</v>
       </c>
       <c r="AC13" t="n">
-        <v>652.95</v>
+        <v>726.02</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1.98</v>
+        <v>0.1</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2982,14 +2974,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>7.58</v>
       </c>
       <c r="AK13" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -3002,11 +2994,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3021,7 +3013,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS13" t="n">
@@ -3034,7 +3026,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -3046,7 +3038,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3055,40 +3047,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.89</v>
+        <v>-1.46</v>
       </c>
       <c r="D14" t="n">
-        <v>15638</v>
+        <v>13645</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="H14" t="n">
-        <v>170</v>
+        <v>167.5</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-9.68</v>
+        <v>-5.02</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3096,42 +3088,42 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>155.89</t>
+          <t>223.58</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3148,20 +3140,20 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>1228.7</v>
+        <v>-640.0700000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>626.71</v>
+        <v>652.95</v>
       </c>
       <c r="AD14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.96</v>
+        <v>-1.98</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3180,14 +3172,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>7.58</v>
       </c>
       <c r="AK14" t="n">
-        <v>33.99</v>
+        <v>34.98</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3200,11 +3192,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3219,7 +3211,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS14" t="n">
@@ -3244,7 +3236,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3253,22 +3245,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.13</v>
+        <v>-1.88</v>
       </c>
       <c r="D15" t="n">
-        <v>70166.28999999999</v>
+        <v>60182.818</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>21.28</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
+        <v>78.5</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -3276,57 +3268,57 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-16.91</t>
+          <t>-24.86</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
         <v>-21</v>
@@ -3342,16 +3334,16 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-58244.03</v>
+        <v>-58017.72</v>
       </c>
       <c r="AC15" t="n">
-        <v>-43981.29</v>
+        <v>-54142.69</v>
       </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.32</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3370,14 +3362,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>13.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3390,11 +3382,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3434,7 +3426,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3443,83 +3435,83 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.63</v>
+        <v>1.13</v>
       </c>
       <c r="D16" t="n">
-        <v>62938.427</v>
+        <v>70166.28999999999</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>21.28</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H16" t="n">
-        <v>79.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>1.13</v>
+        <v>-1.91</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-11.96</t>
+          <t>-16.91</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W16" t="n">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -3528,20 +3520,20 @@
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-73649.74000000001</v>
+        <v>-58244.03</v>
       </c>
       <c r="AC16" t="n">
-        <v>-58783.87</v>
+        <v>-43981.29</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.25</v>
+        <v>-0.32</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3560,14 +3552,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>13.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3580,11 +3572,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3624,7 +3616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3633,35 +3625,35 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.11</v>
+        <v>-0.63</v>
       </c>
       <c r="D17" t="n">
-        <v>86772.791</v>
+        <v>62938.427</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>79.59999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>-0.76</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3670,76 +3662,68 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-11.96</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="W17" t="n">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-84204.02</v>
+        <v>-73649.74000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-31504.06</v>
+        <v>-58783.87</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.67</v>
+        <v>-0.25</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3758,14 +3742,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>13.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3778,11 +3762,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3822,7 +3806,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3831,83 +3815,83 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.85</v>
+        <v>-2.11</v>
       </c>
       <c r="D18" t="n">
-        <v>69555.459</v>
+        <v>86772.791</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>81.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-1.62</v>
+        <v>-1.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -3924,20 +3908,20 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-51333.06</v>
+        <v>-84204.02</v>
       </c>
       <c r="AC18" t="n">
-        <v>23266.32</v>
+        <v>-31504.06</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-3.21</v>
+        <v>-1.67</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3956,14 +3940,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>13.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3976,11 +3960,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4020,7 +4004,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4029,83 +4013,83 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.22</v>
+        <v>-0.85</v>
       </c>
       <c r="D19" t="n">
-        <v>60073.015</v>
+        <v>69555.459</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="H19" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-2.5</v>
+        <v>-3.57</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>20.88</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W19" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4122,20 +4106,20 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-49968.05</v>
+        <v>-51333.06</v>
       </c>
       <c r="AC19" t="n">
-        <v>44719.79</v>
+        <v>23266.32</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-2.12</v>
+        <v>-3.21</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4154,14 +4138,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>13.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4174,11 +4158,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4218,7 +4202,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4227,83 +4211,83 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.84</v>
+        <v>-1.22</v>
       </c>
       <c r="D20" t="n">
-        <v>55414.145</v>
+        <v>60073.015</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16.80</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="H20" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-3.75</v>
+        <v>-4.46</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>34.20</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="W20" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4320,20 +4304,20 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-21825.25</v>
+        <v>-49968.05</v>
       </c>
       <c r="AC20" t="n">
-        <v>59172.43</v>
+        <v>44719.79</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-1.37</v>
+        <v>-2.12</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4352,14 +4336,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>13.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4372,11 +4356,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4416,7 +4400,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4425,83 +4409,83 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.67</v>
+        <v>-0.84</v>
       </c>
       <c r="D21" t="n">
-        <v>157042.134</v>
+        <v>55414.145</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>47.62</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="H21" t="n">
-        <v>83.7</v>
+        <v>83</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-4.63</v>
+        <v>-5.73</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>49.61</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4518,20 +4502,20 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>-38559.06</v>
+        <v>-21825.25</v>
       </c>
       <c r="AC21" t="n">
-        <v>63982.29</v>
+        <v>59172.43</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.6</v>
+        <v>-1.37</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4550,14 +4534,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>13.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4570,11 +4554,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4614,7 +4598,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4623,83 +4607,83 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.36</v>
+        <v>-3.67</v>
       </c>
       <c r="D22" t="n">
-        <v>178996.807</v>
+        <v>157042.134</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>54.27</t>
+          <t>47.62</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="H22" t="n">
-        <v>86.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-8.630000000000001</v>
+        <v>-6.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>69.07</t>
+          <t>49.61</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4716,20 +4700,20 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>71451.41</v>
+        <v>-38559.06</v>
       </c>
       <c r="AC22" t="n">
-        <v>74695.83</v>
+        <v>63982.29</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.04</v>
+        <v>-1.6</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4748,14 +4732,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>13.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4768,11 +4752,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4800,7 +4784,7 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
@@ -4812,7 +4796,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4821,83 +4805,83 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.24</v>
+        <v>4.36</v>
       </c>
       <c r="D23" t="n">
-        <v>59784.492</v>
+        <v>178996.807</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>54.27</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H23" t="n">
-        <v>83.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-4.12</v>
+        <v>-10.7</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>79.81</t>
+          <t>69.07</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W23" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4914,20 +4898,20 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>60973.17</v>
+        <v>71451.41</v>
       </c>
       <c r="AC23" t="n">
-        <v>62920.57</v>
+        <v>74695.83</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4946,14 +4930,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>13.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4966,11 +4950,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -5010,7 +4994,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5019,35 +5003,35 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="D24" t="n">
-        <v>62501.355</v>
+        <v>59784.492</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="H24" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-4.38</v>
+        <v>-6.11</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5056,46 +5040,46 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>108.80</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W24" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5112,20 +5096,20 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>80601.03</v>
+        <v>60973.17</v>
       </c>
       <c r="AC24" t="n">
-        <v>66234.94</v>
+        <v>62920.57</v>
       </c>
       <c r="AD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5144,14 +5128,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>13.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5164,11 +5148,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5208,7 +5192,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5217,35 +5201,35 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.83</v>
+        <v>0.24</v>
       </c>
       <c r="D25" t="n">
-        <v>115578.478</v>
+        <v>62501.355</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-4.12</v>
+        <v>-6.37</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5254,46 +5238,46 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>152.87</t>
+          <t>108.80</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="W25" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5310,20 +5294,20 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>86481.75</v>
+        <v>80601.03</v>
       </c>
       <c r="AC25" t="n">
-        <v>63133.06</v>
+        <v>66234.94</v>
       </c>
       <c r="AD25" t="b">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5342,14 +5326,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>13.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5362,11 +5346,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5406,7 +5390,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5415,83 +5399,83 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.62</v>
+        <v>-0.83</v>
       </c>
       <c r="D26" t="n">
-        <v>235712.727</v>
+        <v>115578.478</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H26" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-5</v>
+        <v>-6.11</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>236.50</t>
+          <t>152.87</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W26" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5508,20 +5492,20 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>98357.86</v>
+        <v>86481.75</v>
       </c>
       <c r="AC26" t="n">
-        <v>69370.52</v>
+        <v>63133.06</v>
       </c>
       <c r="AD26" t="b">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5540,14 +5524,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>13.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5560,11 +5544,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5604,7 +5588,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5613,83 +5597,83 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.12</v>
+        <v>5.62</v>
       </c>
       <c r="D27" t="n">
-        <v>104700.664</v>
+        <v>235712.727</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="H27" t="n">
-        <v>79.5</v>
+        <v>84</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>0.62</v>
+        <v>-7.01</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>455.82</t>
+          <t>236.50</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="W27" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5706,20 +5690,20 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>77805.08</v>
+        <v>98357.86</v>
       </c>
       <c r="AC27" t="n">
-        <v>55558.31</v>
+        <v>69370.52</v>
       </c>
       <c r="AD27" t="b">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5738,14 +5722,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>13.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5758,11 +5742,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5802,7 +5786,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5811,22 +5795,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.23</v>
+        <v>-0.39</v>
       </c>
       <c r="D28" t="n">
-        <v>14469.172</v>
+        <v>25870.205</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>23.11</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>252.5</v>
+        <v>251.5</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -5834,12 +5818,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5848,46 +5832,46 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-6.47</t>
+          <t>-8.47</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="W28" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5896,20 +5880,20 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-37941.72</v>
+        <v>-44134.44</v>
       </c>
       <c r="AC28" t="n">
-        <v>-29124.83</v>
+        <v>-46193.82</v>
       </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.3</v>
+        <v>0.04</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5928,14 +5912,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>50.79</v>
       </c>
       <c r="AK28" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5948,11 +5932,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5980,7 +5964,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -5992,7 +5976,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6001,83 +5985,83 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.01</v>
+        <v>2.23</v>
       </c>
       <c r="D29" t="n">
-        <v>14575.424</v>
+        <v>14469.172</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H29" t="n">
-        <v>247</v>
+        <v>252.5</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>2.18</v>
+        <v>-0.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-5.39</t>
+          <t>-6.47</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="W29" t="n">
-        <v>-27</v>
+        <v>-15</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -6086,20 +6070,20 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-52331.46</v>
+        <v>-37941.72</v>
       </c>
       <c r="AC29" t="n">
-        <v>-46749.68</v>
+        <v>-29124.83</v>
       </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.12</v>
+        <v>-0.3</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6118,14 +6102,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>50.79</v>
       </c>
       <c r="AK29" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6138,11 +6122,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6182,7 +6166,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6191,83 +6175,83 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-1.82</v>
+        <v>1.01</v>
       </c>
       <c r="D30" t="n">
-        <v>23875.171</v>
+        <v>14575.424</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="H30" t="n">
-        <v>244.5</v>
+        <v>247</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>3.17</v>
+        <v>1.79</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W30" t="n">
-        <v>-33</v>
+        <v>-27</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -6276,20 +6260,20 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-70008.25999999999</v>
+        <v>-52331.46</v>
       </c>
       <c r="AC30" t="n">
-        <v>-22629.4</v>
+        <v>-46749.68</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>-2.09</v>
+        <v>-0.12</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6308,14 +6292,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>50.79</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6328,11 +6312,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6372,7 +6356,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6381,80 +6365,80 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.57</v>
+        <v>-1.82</v>
       </c>
       <c r="D31" t="n">
-        <v>18242.127</v>
+        <v>23875.171</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="H31" t="n">
-        <v>249</v>
+        <v>244.5</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>1.39</v>
+        <v>2.78</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
         <v>-33</v>
@@ -6470,16 +6454,16 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-46739.9</v>
+        <v>-70008.25999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>35357.62</v>
+        <v>-22629.4</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-2.32</v>
+        <v>-2.09</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6498,14 +6482,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>50.79</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6518,11 +6502,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6562,7 +6546,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6571,83 +6555,83 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
       <c r="D32" t="n">
-        <v>15762.398</v>
+        <v>18242.127</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="H32" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-0.2</v>
+        <v>0.99</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="W32" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6656,20 +6640,20 @@
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-48165.22</v>
+        <v>-46739.9</v>
       </c>
       <c r="AC32" t="n">
-        <v>55941.11</v>
+        <v>35357.62</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.86</v>
+        <v>-2.32</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6688,14 +6672,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>50.79</v>
       </c>
       <c r="AK32" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6708,11 +6692,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6752,7 +6736,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6761,35 +6745,35 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>11250.473</v>
+        <v>15762.398</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="H33" t="n">
         <v>253</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6798,46 +6782,46 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>31.64</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="W33" t="n">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6846,20 +6830,20 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-16029.25</v>
+        <v>-48165.22</v>
       </c>
       <c r="AC33" t="n">
-        <v>69339.78</v>
+        <v>55941.11</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.23</v>
+        <v>-1.86</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6878,14 +6862,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>50.79</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6898,11 +6882,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6942,7 +6926,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6951,83 +6935,83 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1.53</v>
+        <v>-1.17</v>
       </c>
       <c r="D34" t="n">
-        <v>27921.207</v>
+        <v>11250.473</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-1.39</v>
+        <v>-0.6</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>45.92</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W34" t="n">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -7036,20 +7020,20 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-40403.99</v>
+        <v>-16029.25</v>
       </c>
       <c r="AC34" t="n">
-        <v>73603.61</v>
+        <v>69339.78</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-1.55</v>
+        <v>-1.23</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7068,14 +7052,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>50.79</v>
       </c>
       <c r="AK34" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7088,11 +7072,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7132,7 +7116,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7141,83 +7125,83 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.38</v>
+        <v>-1.53</v>
       </c>
       <c r="D35" t="n">
-        <v>29888.144</v>
+        <v>27921.207</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="H35" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-2.97</v>
+        <v>-1.79</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>62.83</t>
+          <t>45.92</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>5</v>
+        <v>-26</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7226,20 +7210,20 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>62265.38</v>
+        <v>-40403.99</v>
       </c>
       <c r="AC35" t="n">
-        <v>79723.25999999999</v>
+        <v>73603.61</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.22</v>
+        <v>-1.55</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7258,14 +7242,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>50.79</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7278,11 +7262,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7310,7 +7294,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7322,7 +7306,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7331,83 +7315,83 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.39</v>
+        <v>1.38</v>
       </c>
       <c r="D36" t="n">
-        <v>20529.87</v>
+        <v>29888.144</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H36" t="n">
-        <v>256.5</v>
+        <v>260</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-1.58</v>
+        <v>-3.38</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>62.83</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="W36" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7416,20 +7400,20 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>68446.63</v>
+        <v>62265.38</v>
       </c>
       <c r="AC36" t="n">
-        <v>75477.07000000001</v>
+        <v>79723.25999999999</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.09</v>
+        <v>-0.22</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7448,14 +7432,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>50.79</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7468,11 +7452,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7512,7 +7496,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7521,83 +7505,83 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.18</v>
+        <v>-0.39</v>
       </c>
       <c r="D37" t="n">
-        <v>24833.927</v>
+        <v>20529.87</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>257.5</v>
+        <v>256.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-1.98</v>
+        <v>-1.99</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>111.57</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W37" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7606,20 +7590,20 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>92621.3</v>
+        <v>68446.63</v>
       </c>
       <c r="AC37" t="n">
-        <v>77736.25</v>
+        <v>75477.07000000001</v>
       </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7638,14 +7622,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>50.79</v>
       </c>
       <c r="AK37" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7658,11 +7642,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7702,7 +7686,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7711,83 +7695,83 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-2.31</v>
+        <v>1.18</v>
       </c>
       <c r="D38" t="n">
-        <v>37909.432</v>
+        <v>24833.927</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="H38" t="n">
-        <v>254.5</v>
+        <v>257.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-0.79</v>
+        <v>-2.39</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>158.57</t>
+          <t>111.57</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="W38" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -7796,20 +7780,20 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>99362.71000000001</v>
+        <v>92621.3</v>
       </c>
       <c r="AC38" t="n">
-        <v>74722.36</v>
+        <v>77736.25</v>
       </c>
       <c r="AD38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7828,14 +7812,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>50.79</v>
       </c>
       <c r="AK38" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7848,11 +7832,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7892,7 +7876,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7901,80 +7885,80 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.07</v>
+        <v>-2.31</v>
       </c>
       <c r="D39" t="n">
-        <v>79214.121</v>
+        <v>37909.432</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>33.87</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="H39" t="n">
-        <v>260.5</v>
+        <v>254.5</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>-3.17</v>
+        <v>-1.19</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>261.79</t>
+          <t>158.57</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W39" t="n">
         <v>74</v>
@@ -7990,16 +7974,16 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>111657.81</v>
+        <v>99362.71000000001</v>
       </c>
       <c r="AC39" t="n">
-        <v>79494.34</v>
+        <v>74722.36</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8018,14 +8002,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>50.79</v>
       </c>
       <c r="AK39" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8038,11 +8022,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8082,7 +8066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8091,83 +8075,83 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.22</v>
+        <v>6.07</v>
       </c>
       <c r="D40" t="n">
-        <v>47743.43</v>
+        <v>79214.121</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>70.77</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="H40" t="n">
-        <v>245.5</v>
+        <v>260.5</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>2.77</v>
+        <v>-3.58</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>608.90</t>
+          <t>261.79</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="W40" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -8176,20 +8160,20 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>93992.64999999999</v>
+        <v>111657.81</v>
       </c>
       <c r="AC40" t="n">
-        <v>67606.03999999999</v>
+        <v>79494.34</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8208,14 +8192,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>50.79</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8228,11 +8212,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>17.16</v>
+        <v>17.3</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8272,7 +8256,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8281,22 +8265,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.01</v>
+        <v>-0.3</v>
       </c>
       <c r="D41" t="n">
-        <v>17760.488</v>
+        <v>17780.761</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="H41" t="n">
-        <v>66</v>
+        <v>65.8</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -8304,17 +8288,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8322,22 +8306,22 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-9.35</t>
+          <t>-7.91</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-144.91</t>
+          <t>-163.47</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -8347,17 +8331,17 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W41" t="n">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8366,20 +8350,20 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>16521.71</v>
+        <v>11185.59</v>
       </c>
       <c r="AC41" t="n">
-        <v>4864.63</v>
+        <v>-15312.76</v>
       </c>
       <c r="AD41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8398,14 +8382,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>11.16</v>
       </c>
       <c r="AK41" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8418,11 +8402,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8462,7 +8446,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8471,40 +8455,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.92</v>
+        <v>4.01</v>
       </c>
       <c r="D42" t="n">
-        <v>20343.534</v>
+        <v>17760.488</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
-        <v>63.5</v>
+        <v>66</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>3.79</v>
+        <v>-0.3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8512,32 +8496,32 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-10.36</t>
+          <t>-9.35</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-133.80</t>
+          <t>-144.91</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="U42" t="b">
@@ -8547,7 +8531,7 @@
         <v>56</v>
       </c>
       <c r="W42" t="n">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8556,20 +8540,20 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-4375.94</v>
+        <v>16521.71</v>
       </c>
       <c r="AC42" t="n">
-        <v>-13309.6</v>
+        <v>4864.63</v>
       </c>
       <c r="AD42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.67</v>
+        <v>2.4</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8588,14 +8572,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>11.16</v>
       </c>
       <c r="AK42" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8608,11 +8592,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8640,7 +8624,7 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV42" t="inlineStr">
@@ -8652,7 +8636,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8661,40 +8645,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1.12</v>
+        <v>3.92</v>
       </c>
       <c r="D43" t="n">
-        <v>5020.029</v>
+        <v>20343.534</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="H43" t="n">
-        <v>61.1</v>
+        <v>63.5</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>7.42</v>
+        <v>3.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8702,42 +8686,42 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-4.41</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-10.21</t>
+          <t>-10.36</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-112.17</t>
+          <t>-133.80</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W43" t="n">
-        <v>-36</v>
+        <v>-25</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8746,20 +8730,20 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-20343.32</v>
+        <v>-4375.94</v>
       </c>
       <c r="AC43" t="n">
-        <v>-19283.37</v>
+        <v>-13309.6</v>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.05</v>
+        <v>0.67</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8778,14 +8762,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>11.16</v>
       </c>
       <c r="AK43" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8798,11 +8782,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8842,7 +8826,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8851,40 +8835,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-3.07</v>
+        <v>-1.12</v>
       </c>
       <c r="D44" t="n">
-        <v>5204.13</v>
+        <v>5020.029</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="H44" t="n">
-        <v>61.8</v>
+        <v>61.1</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>6.36</v>
+        <v>7.14</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8892,42 +8876,42 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-5.85</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>-10.21</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-86.07</t>
+          <t>-112.17</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W44" t="n">
-        <v>-40</v>
+        <v>-36</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8936,20 +8920,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-21721.22</v>
+        <v>-20343.32</v>
       </c>
       <c r="AC44" t="n">
-        <v>-12951.08</v>
+        <v>-19283.37</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-0.68</v>
+        <v>-0.05</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8968,14 +8952,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>11.16</v>
       </c>
       <c r="AK44" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -8988,11 +8972,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9032,7 +9016,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9041,40 +9025,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-3.04</v>
+        <v>-3.07</v>
       </c>
       <c r="D45" t="n">
-        <v>6673.803</v>
+        <v>5204.13</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H45" t="n">
-        <v>63.8</v>
+        <v>61.8</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>3.33</v>
+        <v>6.08</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -9082,42 +9066,42 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-5.17</t>
+          <t>-5.85</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-7.95</t>
+          <t>-9.06</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-66.53</t>
+          <t>-86.07</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W45" t="n">
-        <v>-29</v>
+        <v>-40</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9126,20 +9110,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-24373.73</v>
+        <v>-21721.22</v>
       </c>
       <c r="AC45" t="n">
-        <v>-7083.36</v>
+        <v>-12951.08</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-2.44</v>
+        <v>-0.68</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9158,14 +9142,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>11.16</v>
       </c>
       <c r="AK45" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9178,11 +9162,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9222,7 +9206,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9231,40 +9215,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.93</v>
+        <v>-3.04</v>
       </c>
       <c r="D46" t="n">
-        <v>4691.497</v>
+        <v>6673.803</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H46" t="n">
-        <v>65.8</v>
+        <v>63.8</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -9272,32 +9256,32 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-4.00</t>
+          <t>-5.17</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-6.80</t>
+          <t>-7.95</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-53.62</t>
+          <t>-66.53</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U46" t="b">
@@ -9307,7 +9291,7 @@
         <v>30</v>
       </c>
       <c r="W46" t="n">
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9316,20 +9300,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-15021.23</v>
+        <v>-24373.73</v>
       </c>
       <c r="AC46" t="n">
-        <v>-12561.97</v>
+        <v>-7083.36</v>
       </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.2</v>
+        <v>-2.44</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9348,14 +9332,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>11.16</v>
       </c>
       <c r="AK46" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9368,11 +9352,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9412,7 +9396,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9421,40 +9405,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-3.71</v>
+        <v>-1.93</v>
       </c>
       <c r="D47" t="n">
-        <v>10178.928</v>
+        <v>4691.497</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H47" t="n">
-        <v>67.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-1.67</v>
+        <v>0</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9462,42 +9446,42 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-4.00</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-6.80</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-45.09</t>
+          <t>-53.62</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W47" t="n">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9506,20 +9490,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-18306.88</v>
+        <v>-15021.23</v>
       </c>
       <c r="AC47" t="n">
-        <v>-15103.93</v>
+        <v>-12561.97</v>
       </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9538,14 +9522,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>11.16</v>
       </c>
       <c r="AK47" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9558,11 +9542,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9602,7 +9586,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9611,40 +9595,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.43</v>
+        <v>-3.71</v>
       </c>
       <c r="D48" t="n">
-        <v>8493.882</v>
+        <v>10178.928</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="H48" t="n">
-        <v>69.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-5.61</v>
+        <v>-1.98</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9652,42 +9636,42 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-5.31</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-38.37</t>
+          <t>-45.09</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W48" t="n">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9696,20 +9680,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>-18161.66</v>
+        <v>-18306.88</v>
       </c>
       <c r="AC48" t="n">
-        <v>-18241.35</v>
+        <v>-15103.93</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9728,14 +9712,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>11.16</v>
       </c>
       <c r="AK48" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9748,11 +9732,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9792,7 +9776,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9801,40 +9785,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="D49" t="n">
-        <v>13425.679</v>
+        <v>8493.882</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="H49" t="n">
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-6.06</v>
+        <v>-5.93</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9842,42 +9826,42 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-4.10</t>
+          <t>-5.31</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-35.92</t>
+          <t>-38.37</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W49" t="n">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9886,20 +9870,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>11676.91</v>
+        <v>-18161.66</v>
       </c>
       <c r="AC49" t="n">
-        <v>-11176.52</v>
+        <v>-18241.35</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9918,14 +9902,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>11.16</v>
       </c>
       <c r="AK49" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9938,11 +9922,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9982,7 +9966,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9991,40 +9975,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.16</v>
+        <v>-0.14</v>
       </c>
       <c r="D50" t="n">
-        <v>19960.491</v>
+        <v>13425.679</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="H50" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-6.21</v>
+        <v>-6.38</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -10032,42 +10016,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-4.10</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-33.45</t>
+          <t>-35.92</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W50" t="n">
-        <v>-28</v>
+        <v>-8</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10076,20 +10060,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>22220.05</v>
+        <v>11676.91</v>
       </c>
       <c r="AC50" t="n">
-        <v>-20888.38</v>
+        <v>-11176.52</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10108,14 +10092,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>11.16</v>
       </c>
       <c r="AK50" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10128,11 +10112,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10172,7 +10156,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10181,40 +10165,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-4.59</v>
+        <v>2.16</v>
       </c>
       <c r="D51" t="n">
-        <v>12526.571</v>
+        <v>19960.491</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="H51" t="n">
-        <v>68.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-3.94</v>
+        <v>-6.53</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10222,42 +10206,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-30.54</t>
+          <t>-33.45</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W51" t="n">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10266,20 +10250,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-9485.18</v>
+        <v>22220.05</v>
       </c>
       <c r="AC51" t="n">
-        <v>-28984.82</v>
+        <v>-20888.38</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.67</v>
+        <v>2.06</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10298,14 +10282,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>11.16</v>
       </c>
       <c r="AK51" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10318,11 +10302,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10362,7 +10346,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10371,40 +10355,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.41</v>
+        <v>-4.59</v>
       </c>
       <c r="D52" t="n">
-        <v>9130.764999999999</v>
+        <v>12526.571</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H52" t="n">
-        <v>71.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-8.94</v>
+        <v>-4.26</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10412,42 +10396,42 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-24.31</t>
+          <t>-30.54</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W52" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10456,20 +10440,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-11005.23</v>
+        <v>-9485.18</v>
       </c>
       <c r="AC52" t="n">
-        <v>-17607.64</v>
+        <v>-28984.82</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10488,14 +10472,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>11.16</v>
       </c>
       <c r="AK52" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10508,11 +10492,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10552,7 +10536,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10561,40 +10545,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.7</v>
+        <v>-0.41</v>
       </c>
       <c r="D53" t="n">
-        <v>23811.657</v>
+        <v>9130.764999999999</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="H53" t="n">
-        <v>72.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-9.390000000000001</v>
+        <v>-9.27</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10602,42 +10586,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-21.56</t>
+          <t>-24.31</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W53" t="n">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10646,20 +10630,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-18320.69</v>
+        <v>-11005.23</v>
       </c>
       <c r="AC53" t="n">
-        <v>-20839.83</v>
+        <v>-17607.64</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10678,14 +10662,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>11.16</v>
       </c>
       <c r="AK53" t="n">
-        <v>68.75</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10698,11 +10682,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>26.46</v>
+        <v>26.67</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,15 +687,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7533</v>
+        <v>6574</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -728,39 +728,39 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-60.33</t>
+          <t>-70.46</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="W2" t="n">
         <v>-20</v>
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-746.2</v>
+        <v>-716.95</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.13</v>
+        <v>-217.57</v>
       </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.63</v>
+        <v>-2.3</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,40 +877,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.1</v>
+        <v>2.86</v>
       </c>
       <c r="D3" t="n">
-        <v>16698</v>
+        <v>7533</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>155</v>
+        <v>159.5</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -918,42 +918,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-49.88</t>
+          <t>-60.33</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="W3" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -962,20 +962,20 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-1073.65</v>
+        <v>-746.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.3200000000001</v>
+        <v>457.13</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-2.73</v>
+        <v>-2.63</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1067,40 +1067,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.17</v>
+        <v>-3.1</v>
       </c>
       <c r="D4" t="n">
-        <v>8852</v>
+        <v>16698</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-0.31</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1108,72 +1108,64 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-15.68</t>
+          <t>-49.88</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="W4" t="n">
-        <v>-26</v>
+        <v>-21</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-553.1900000000001</v>
+        <v>-1073.65</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.83</v>
+        <v>622.3200000000001</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1.78</v>
+        <v>-2.73</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1212,7 +1204,7 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1256,7 +1248,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1265,40 +1257,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.52</v>
+        <v>-2.17</v>
       </c>
       <c r="D5" t="n">
-        <v>8001</v>
+        <v>8852</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="H5" t="n">
-        <v>163.5</v>
+        <v>160</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-2.51</v>
+        <v>-0.31</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -1306,42 +1298,42 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>-15.68</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>-26</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1358,20 +1350,20 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>1005.54</v>
+        <v>-553.1900000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.33</v>
+        <v>709.83</v>
       </c>
       <c r="AD5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5600000000000001</v>
+        <v>-1.78</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1410,7 +1402,7 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1454,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,40 +1455,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.38</v>
+        <v>1.52</v>
       </c>
       <c r="D6" t="n">
-        <v>7665</v>
+        <v>8001</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="H6" t="n">
-        <v>161</v>
+        <v>163.5</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-2.51</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1504,42 +1496,42 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1556,20 +1548,20 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>647.5700000000001</v>
+        <v>1005.54</v>
       </c>
       <c r="AC6" t="n">
-        <v>739.85</v>
+        <v>643.33</v>
       </c>
       <c r="AD6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1608,7 +1600,7 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1652,7 +1644,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1661,40 +1653,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.07</v>
+        <v>-2.38</v>
       </c>
       <c r="D7" t="n">
-        <v>10758</v>
+        <v>7665</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="H7" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-3.45</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1702,42 +1694,42 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>49.09</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="W7" t="n">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1754,20 +1746,20 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>987.3</v>
+        <v>647.5700000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1208.09</v>
+        <v>739.85</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1806,7 +1798,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1850,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1859,40 +1851,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.89</v>
+        <v>-2.07</v>
       </c>
       <c r="D8" t="n">
-        <v>9682</v>
+        <v>10758</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="H8" t="n">
-        <v>168.5</v>
+        <v>165</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-5.64</v>
+        <v>-3.45</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1900,42 +1892,42 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>49.09</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1952,20 +1944,20 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>1388.26</v>
+        <v>987.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>1132.88</v>
+        <v>1208.09</v>
       </c>
       <c r="AD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -2004,7 +1996,7 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -2048,7 +2040,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2057,40 +2049,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D9" t="n">
-        <v>30249</v>
+        <v>9682</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H9" t="n">
-        <v>167</v>
+        <v>168.5</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>-4.7</v>
+        <v>-5.64</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -2098,42 +2090,42 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>121.29</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="W9" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2150,20 +2142,20 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>1146.19</v>
+        <v>1388.26</v>
       </c>
       <c r="AC9" t="n">
-        <v>672.33</v>
+        <v>1132.88</v>
       </c>
       <c r="AD9" t="b">
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2202,7 +2194,7 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -2246,7 +2238,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2255,40 +2247,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.08</v>
+        <v>0.3</v>
       </c>
       <c r="D10" t="n">
-        <v>9920</v>
+        <v>30249</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>166.5</v>
+        <v>167</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>-4.39</v>
+        <v>-4.7</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2296,42 +2288,42 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>212.72</t>
+          <t>121.29</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="W10" t="n">
-        <v>-47</v>
+        <v>-28</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2348,20 +2340,20 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-428.23</v>
+        <v>1146.19</v>
       </c>
       <c r="AC10" t="n">
-        <v>814.35</v>
+        <v>672.33</v>
       </c>
       <c r="AD10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1.53</v>
+        <v>0.7</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2400,7 +2392,7 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -2444,7 +2436,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2453,40 +2445,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D11" t="n">
-        <v>9057</v>
+        <v>9920</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>-6.58</v>
+        <v>-4.39</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2494,42 +2486,42 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>556.19</t>
+          <t>212.72</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="W11" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2546,20 +2538,20 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>821.83</v>
+        <v>-428.23</v>
       </c>
       <c r="AC11" t="n">
-        <v>1024.77</v>
+        <v>814.35</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.2</v>
+        <v>-1.53</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2598,7 +2590,7 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2642,7 +2634,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2651,40 +2643,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="D12" t="n">
-        <v>17560</v>
+        <v>9057</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-4.7</v>
+        <v>-6.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2692,42 +2684,42 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1515.46</t>
+          <t>556.19</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2744,20 +2736,20 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>1394.35</v>
+        <v>821.83</v>
       </c>
       <c r="AC12" t="n">
-        <v>807.8</v>
+        <v>1024.77</v>
       </c>
       <c r="AD12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.73</v>
+        <v>-0.2</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2796,7 +2788,7 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2840,7 +2832,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2849,40 +2841,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.79</v>
+        <v>1.49</v>
       </c>
       <c r="D13" t="n">
-        <v>8704</v>
+        <v>17560</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>164.5</v>
+        <v>167</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>-3.13</v>
+        <v>-4.7</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2890,42 +2882,42 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>356.85</t>
+          <t>1515.46</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W13" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2942,20 +2934,20 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>799.73</v>
+        <v>1394.35</v>
       </c>
       <c r="AC13" t="n">
-        <v>726.02</v>
+        <v>807.8</v>
       </c>
       <c r="AD13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2994,7 +2986,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -3038,7 +3030,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3047,40 +3039,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.46</v>
+        <v>-1.79</v>
       </c>
       <c r="D14" t="n">
-        <v>13645</v>
+        <v>8704</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>167.5</v>
+        <v>164.5</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-5.02</v>
+        <v>-3.13</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3088,42 +3080,42 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>223.58</t>
+          <t>356.85</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W14" t="n">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3140,20 +3132,20 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-640.0700000000001</v>
+        <v>799.73</v>
       </c>
       <c r="AC14" t="n">
-        <v>652.95</v>
+        <v>726.02</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1.98</v>
+        <v>0.1</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3192,7 +3184,7 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>57.27</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -3224,7 +3216,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
@@ -3236,7 +3228,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3245,22 +3237,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.88</v>
+        <v>-5.34</v>
       </c>
       <c r="D15" t="n">
-        <v>60182.818</v>
+        <v>105021.115</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>31.84</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="H15" t="n">
-        <v>78.5</v>
+        <v>74.3</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -3268,17 +3260,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -3286,42 +3278,42 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-5.11</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-24.86</t>
+          <t>-44.09</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="W15" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
@@ -3330,20 +3322,20 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-58017.72</v>
+        <v>-61828.99</v>
       </c>
       <c r="AC15" t="n">
-        <v>-54142.69</v>
+        <v>-56823.88</v>
       </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3362,14 +3354,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>13.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3382,11 +3374,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3426,7 +3418,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3435,40 +3427,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.13</v>
+        <v>-1.88</v>
       </c>
       <c r="D16" t="n">
-        <v>70166.28999999999</v>
+        <v>60182.818</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>21.28</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="H16" t="n">
-        <v>80</v>
+        <v>78.5</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-1.91</v>
+        <v>-5.65</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -3476,39 +3468,39 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-16.91</t>
+          <t>-24.86</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
         <v>-21</v>
@@ -3524,16 +3516,16 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-58244.03</v>
+        <v>-58017.72</v>
       </c>
       <c r="AC16" t="n">
-        <v>-43981.29</v>
+        <v>-54142.69</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.32</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3552,14 +3544,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>13.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3572,11 +3564,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3616,7 +3608,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3625,40 +3617,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.63</v>
+        <v>1.13</v>
       </c>
       <c r="D17" t="n">
-        <v>62938.427</v>
+        <v>70166.28999999999</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>21.28</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H17" t="n">
-        <v>79.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-0.76</v>
+        <v>-7.67</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -3666,42 +3658,42 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-11.96</t>
+          <t>-16.91</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -3710,20 +3702,20 @@
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-73649.74000000001</v>
+        <v>-58244.03</v>
       </c>
       <c r="AC17" t="n">
-        <v>-58783.87</v>
+        <v>-43981.29</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.25</v>
+        <v>-0.32</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3742,14 +3734,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>13.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3762,11 +3754,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3806,7 +3798,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3815,35 +3807,35 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2.11</v>
+        <v>-0.63</v>
       </c>
       <c r="D18" t="n">
-        <v>86772.791</v>
+        <v>62938.427</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>79.59999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-1.4</v>
+        <v>-6.46</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3856,72 +3848,64 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-11.96</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="W18" t="n">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-84204.02</v>
+        <v>-73649.74000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-31504.06</v>
+        <v>-58783.87</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.67</v>
+        <v>-0.25</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3940,14 +3924,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>13.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3960,11 +3944,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4004,7 +3988,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4013,40 +3997,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.85</v>
+        <v>-2.11</v>
       </c>
       <c r="D19" t="n">
-        <v>69555.459</v>
+        <v>86772.791</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="H19" t="n">
-        <v>81.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-3.57</v>
+        <v>-7.13</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -4054,42 +4038,42 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="W19" t="n">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4106,20 +4090,20 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-51333.06</v>
+        <v>-84204.02</v>
       </c>
       <c r="AC19" t="n">
-        <v>23266.32</v>
+        <v>-31504.06</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-3.21</v>
+        <v>-1.67</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4138,14 +4122,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>13.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4158,11 +4142,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4202,7 +4186,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4211,40 +4195,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.22</v>
+        <v>-0.85</v>
       </c>
       <c r="D20" t="n">
-        <v>60073.015</v>
+        <v>69555.459</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="H20" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-4.46</v>
+        <v>-9.42</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -4252,42 +4236,42 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>20.88</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W20" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4304,20 +4288,20 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-49968.05</v>
+        <v>-51333.06</v>
       </c>
       <c r="AC20" t="n">
-        <v>44719.79</v>
+        <v>23266.32</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-2.12</v>
+        <v>-3.21</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4336,14 +4320,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>13.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4356,11 +4340,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4400,7 +4384,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4409,40 +4393,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.84</v>
+        <v>-1.22</v>
       </c>
       <c r="D21" t="n">
-        <v>55414.145</v>
+        <v>60073.015</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>16.80</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="H21" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-5.73</v>
+        <v>-10.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -4450,42 +4434,42 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>34.20</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="W21" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4502,20 +4486,20 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>-21825.25</v>
+        <v>-49968.05</v>
       </c>
       <c r="AC21" t="n">
-        <v>59172.43</v>
+        <v>44719.79</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.37</v>
+        <v>-2.12</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4534,14 +4518,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>13.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4554,11 +4538,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4598,7 +4582,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4607,40 +4591,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-3.67</v>
+        <v>-0.84</v>
       </c>
       <c r="D22" t="n">
-        <v>157042.134</v>
+        <v>55414.145</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>47.62</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="H22" t="n">
-        <v>83.7</v>
+        <v>83</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-6.62</v>
+        <v>-11.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -4648,42 +4632,42 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>49.61</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4700,20 +4684,20 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-38559.06</v>
+        <v>-21825.25</v>
       </c>
       <c r="AC22" t="n">
-        <v>63982.29</v>
+        <v>59172.43</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>-1.6</v>
+        <v>-1.37</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4732,14 +4716,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>13.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4752,11 +4736,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4796,7 +4780,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4805,40 +4789,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.36</v>
+        <v>-3.67</v>
       </c>
       <c r="D23" t="n">
-        <v>178996.807</v>
+        <v>157042.134</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>54.27</t>
+          <t>47.62</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="H23" t="n">
-        <v>86.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-10.7</v>
+        <v>-12.65</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -4846,42 +4830,42 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>69.07</t>
+          <t>49.61</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4898,20 +4882,20 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>71451.41</v>
+        <v>-38559.06</v>
       </c>
       <c r="AC23" t="n">
-        <v>74695.83</v>
+        <v>63982.29</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.04</v>
+        <v>-1.6</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4930,14 +4914,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>13.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4950,11 +4934,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4982,7 +4966,7 @@
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
@@ -4994,7 +4978,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5003,40 +4987,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.24</v>
+        <v>4.36</v>
       </c>
       <c r="D24" t="n">
-        <v>59784.492</v>
+        <v>178996.807</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>54.27</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H24" t="n">
-        <v>83.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-6.11</v>
+        <v>-16.96</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -5044,42 +5028,42 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>79.81</t>
+          <t>69.07</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W24" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5096,20 +5080,20 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>60973.17</v>
+        <v>71451.41</v>
       </c>
       <c r="AC24" t="n">
-        <v>62920.57</v>
+        <v>74695.83</v>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5128,14 +5112,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>13.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5148,11 +5132,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5192,7 +5176,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5201,35 +5185,35 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="D25" t="n">
-        <v>62501.355</v>
+        <v>59784.492</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="H25" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-6.37</v>
+        <v>-12.11</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5242,42 +5226,42 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>108.80</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W25" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5294,20 +5278,20 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>80601.03</v>
+        <v>60973.17</v>
       </c>
       <c r="AC25" t="n">
-        <v>66234.94</v>
+        <v>62920.57</v>
       </c>
       <c r="AD25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5326,14 +5310,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>13.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5346,11 +5330,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5390,7 +5374,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5399,35 +5383,35 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.83</v>
+        <v>0.24</v>
       </c>
       <c r="D26" t="n">
-        <v>115578.478</v>
+        <v>62501.355</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-6.11</v>
+        <v>-12.38</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5440,42 +5424,42 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>152.87</t>
+          <t>108.80</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="W26" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5492,20 +5476,20 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>86481.75</v>
+        <v>80601.03</v>
       </c>
       <c r="AC26" t="n">
-        <v>63133.06</v>
+        <v>66234.94</v>
       </c>
       <c r="AD26" t="b">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5524,14 +5508,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>13.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5544,11 +5528,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5588,7 +5572,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5597,40 +5581,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.62</v>
+        <v>-0.83</v>
       </c>
       <c r="D27" t="n">
-        <v>235712.727</v>
+        <v>115578.478</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H27" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-7.01</v>
+        <v>-12.11</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -5638,42 +5622,42 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>236.50</t>
+          <t>152.87</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W27" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5690,20 +5674,20 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>98357.86</v>
+        <v>86481.75</v>
       </c>
       <c r="AC27" t="n">
-        <v>69370.52</v>
+        <v>63133.06</v>
       </c>
       <c r="AD27" t="b">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5722,14 +5706,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>13.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5742,11 +5726,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5786,7 +5770,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5795,22 +5779,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.39</v>
+        <v>-5.4</v>
       </c>
       <c r="D28" t="n">
-        <v>25870.205</v>
+        <v>50327.391</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>44.96</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>251.5</v>
+        <v>238</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -5818,17 +5802,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -5836,42 +5820,42 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-8.47</t>
+          <t>-19.66</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-12</v>
+        <v>-32</v>
       </c>
       <c r="W28" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5880,20 +5864,20 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-44134.44</v>
+        <v>-58955.93</v>
       </c>
       <c r="AC28" t="n">
-        <v>-46193.82</v>
+        <v>-53199.72</v>
       </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5912,14 +5896,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>50.79</v>
       </c>
       <c r="AK28" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5932,11 +5916,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5964,7 +5948,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -5976,7 +5960,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5985,35 +5969,35 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.23</v>
+        <v>-0.39</v>
       </c>
       <c r="D29" t="n">
-        <v>14469.172</v>
+        <v>25870.205</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>23.11</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>252.5</v>
+        <v>251.5</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>-0.4</v>
+        <v>-5.67</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -6026,42 +6010,42 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-6.47</t>
+          <t>-8.47</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="W29" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -6070,20 +6054,20 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-37941.72</v>
+        <v>-44134.44</v>
       </c>
       <c r="AC29" t="n">
-        <v>-29124.83</v>
+        <v>-46193.82</v>
       </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.3</v>
+        <v>0.04</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6102,14 +6086,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>50.79</v>
       </c>
       <c r="AK29" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6122,11 +6106,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6154,7 +6138,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
@@ -6166,7 +6150,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6175,40 +6159,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.01</v>
+        <v>2.23</v>
       </c>
       <c r="D30" t="n">
-        <v>14575.424</v>
+        <v>14469.172</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H30" t="n">
-        <v>247</v>
+        <v>252.5</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>1.79</v>
+        <v>-6.09</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -6216,42 +6200,42 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-5.39</t>
+          <t>-6.47</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="W30" t="n">
-        <v>-27</v>
+        <v>-15</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -6260,20 +6244,20 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-52331.46</v>
+        <v>-37941.72</v>
       </c>
       <c r="AC30" t="n">
-        <v>-46749.68</v>
+        <v>-29124.83</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.12</v>
+        <v>-0.3</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6292,14 +6276,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>50.79</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6312,11 +6296,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6356,7 +6340,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6365,40 +6349,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.82</v>
+        <v>1.01</v>
       </c>
       <c r="D31" t="n">
-        <v>23875.171</v>
+        <v>14575.424</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="H31" t="n">
-        <v>244.5</v>
+        <v>247</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>2.78</v>
+        <v>-3.78</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -6406,42 +6390,42 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W31" t="n">
-        <v>-33</v>
+        <v>-27</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6450,20 +6434,20 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-70008.25999999999</v>
+        <v>-52331.46</v>
       </c>
       <c r="AC31" t="n">
-        <v>-22629.4</v>
+        <v>-46749.68</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-2.09</v>
+        <v>-0.12</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6482,14 +6466,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>50.79</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6502,11 +6486,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6546,7 +6530,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6555,40 +6539,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1.57</v>
+        <v>-1.82</v>
       </c>
       <c r="D32" t="n">
-        <v>18242.127</v>
+        <v>23875.171</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="H32" t="n">
-        <v>249</v>
+        <v>244.5</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>0.99</v>
+        <v>-2.73</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -6596,39 +6580,39 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W32" t="n">
         <v>-33</v>
@@ -6644,16 +6628,16 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-46739.9</v>
+        <v>-70008.25999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>35357.62</v>
+        <v>-22629.4</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-2.32</v>
+        <v>-2.09</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6672,14 +6656,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>50.79</v>
       </c>
       <c r="AK32" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6692,11 +6676,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6736,7 +6720,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6745,40 +6729,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
       <c r="D33" t="n">
-        <v>15762.398</v>
+        <v>18242.127</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="H33" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-0.6</v>
+        <v>-4.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -6786,42 +6770,42 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6830,20 +6814,20 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-48165.22</v>
+        <v>-46739.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>55941.11</v>
+        <v>35357.62</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.86</v>
+        <v>-2.32</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6862,14 +6846,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>50.79</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6882,11 +6866,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6926,7 +6910,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6935,35 +6919,35 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>11250.473</v>
+        <v>15762.398</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="H34" t="n">
         <v>253</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-0.6</v>
+        <v>-6.3</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6976,42 +6960,42 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>31.64</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="W34" t="n">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -7020,20 +7004,20 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-16029.25</v>
+        <v>-48165.22</v>
       </c>
       <c r="AC34" t="n">
-        <v>69339.78</v>
+        <v>55941.11</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-1.23</v>
+        <v>-1.86</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7052,14 +7036,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>50.79</v>
       </c>
       <c r="AK34" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7072,11 +7056,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7116,7 +7100,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7125,40 +7109,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1.53</v>
+        <v>-1.17</v>
       </c>
       <c r="D35" t="n">
-        <v>27921.207</v>
+        <v>11250.473</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-1.79</v>
+        <v>-6.3</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -7166,42 +7150,42 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>45.92</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W35" t="n">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7210,20 +7194,20 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>-40403.99</v>
+        <v>-16029.25</v>
       </c>
       <c r="AC35" t="n">
-        <v>73603.61</v>
+        <v>69339.78</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-1.55</v>
+        <v>-1.23</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7242,14 +7226,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>50.79</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7262,11 +7246,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7306,7 +7290,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7315,40 +7299,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.38</v>
+        <v>-1.53</v>
       </c>
       <c r="D36" t="n">
-        <v>29888.144</v>
+        <v>27921.207</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="H36" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-3.38</v>
+        <v>-7.56</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -7356,42 +7340,42 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>62.83</t>
+          <t>45.92</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>5</v>
+        <v>-26</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7400,20 +7384,20 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>62265.38</v>
+        <v>-40403.99</v>
       </c>
       <c r="AC36" t="n">
-        <v>79723.25999999999</v>
+        <v>73603.61</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.22</v>
+        <v>-1.55</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7432,14 +7416,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>50.79</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7452,11 +7436,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7484,7 +7468,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
@@ -7496,7 +7480,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7505,40 +7489,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.39</v>
+        <v>1.38</v>
       </c>
       <c r="D37" t="n">
-        <v>20529.87</v>
+        <v>29888.144</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H37" t="n">
-        <v>256.5</v>
+        <v>260</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-1.99</v>
+        <v>-9.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -7546,42 +7530,42 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>62.83</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="W37" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7590,20 +7574,20 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>68446.63</v>
+        <v>62265.38</v>
       </c>
       <c r="AC37" t="n">
-        <v>75477.07000000001</v>
+        <v>79723.25999999999</v>
       </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.09</v>
+        <v>-0.22</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7622,14 +7606,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>50.79</v>
       </c>
       <c r="AK37" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7642,11 +7626,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7686,7 +7670,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7695,40 +7679,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.18</v>
+        <v>-0.39</v>
       </c>
       <c r="D38" t="n">
-        <v>24833.927</v>
+        <v>20529.87</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>257.5</v>
+        <v>256.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-2.39</v>
+        <v>-7.77</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7736,42 +7720,42 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>111.57</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W38" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -7780,20 +7764,20 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>92621.3</v>
+        <v>68446.63</v>
       </c>
       <c r="AC38" t="n">
-        <v>77736.25</v>
+        <v>75477.07000000001</v>
       </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7812,14 +7796,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>50.79</v>
       </c>
       <c r="AK38" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7832,11 +7816,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7876,7 +7860,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7885,40 +7869,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-2.31</v>
+        <v>1.18</v>
       </c>
       <c r="D39" t="n">
-        <v>37909.432</v>
+        <v>24833.927</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="H39" t="n">
-        <v>254.5</v>
+        <v>257.5</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>-1.19</v>
+        <v>-8.19</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -7926,42 +7910,42 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>158.57</t>
+          <t>111.57</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="W39" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -7970,20 +7954,20 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>99362.71000000001</v>
+        <v>92621.3</v>
       </c>
       <c r="AC39" t="n">
-        <v>74722.36</v>
+        <v>77736.25</v>
       </c>
       <c r="AD39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8002,14 +7986,14 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>50.79</v>
       </c>
       <c r="AK39" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8022,11 +8006,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8066,7 +8050,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8075,40 +8059,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6.07</v>
+        <v>-2.31</v>
       </c>
       <c r="D40" t="n">
-        <v>79214.121</v>
+        <v>37909.432</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>33.87</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="H40" t="n">
-        <v>260.5</v>
+        <v>254.5</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-3.58</v>
+        <v>-6.93</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -8116,39 +8100,39 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>261.79</t>
+          <t>158.57</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W40" t="n">
         <v>74</v>
@@ -8164,16 +8148,16 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>111657.81</v>
+        <v>99362.71000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>79494.34</v>
+        <v>74722.36</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8192,14 +8176,14 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>50.79</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8212,11 +8196,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8256,7 +8240,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8265,22 +8249,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.3</v>
+        <v>-3.92</v>
       </c>
       <c r="D41" t="n">
-        <v>17780.761</v>
+        <v>6434.358</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="H41" t="n">
-        <v>65.8</v>
+        <v>63.2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -8288,17 +8272,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8306,42 +8290,42 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-7.91</t>
+          <t>-6.52</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-163.47</t>
+          <t>-247.79</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W41" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8350,20 +8334,20 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>11185.59</v>
+        <v>10384.33</v>
       </c>
       <c r="AC41" t="n">
-        <v>-15312.76</v>
+        <v>-13490.31</v>
       </c>
       <c r="AD41" t="b">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8382,14 +8366,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>11.16</v>
       </c>
       <c r="AK41" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8402,11 +8386,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8434,7 +8418,7 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
@@ -8446,7 +8430,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8455,40 +8439,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.01</v>
+        <v>-0.3</v>
       </c>
       <c r="D42" t="n">
-        <v>17760.488</v>
+        <v>17780.761</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="H42" t="n">
-        <v>66</v>
+        <v>65.8</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-0.3</v>
+        <v>-4.11</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8496,22 +8480,22 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-9.35</t>
+          <t>-7.91</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-144.91</t>
+          <t>-163.47</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -8521,17 +8505,17 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W42" t="n">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8540,20 +8524,20 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>16521.71</v>
+        <v>11185.59</v>
       </c>
       <c r="AC42" t="n">
-        <v>4864.63</v>
+        <v>-15312.76</v>
       </c>
       <c r="AD42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8572,14 +8556,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>11.16</v>
       </c>
       <c r="AK42" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8592,11 +8576,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8636,7 +8620,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8645,40 +8629,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.92</v>
+        <v>4.01</v>
       </c>
       <c r="D43" t="n">
-        <v>20343.534</v>
+        <v>17760.488</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5</v>
+        <v>66</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>3.5</v>
+        <v>-4.43</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8686,32 +8670,32 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-10.36</t>
+          <t>-9.35</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-133.80</t>
+          <t>-144.91</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="U43" t="b">
@@ -8721,7 +8705,7 @@
         <v>56</v>
       </c>
       <c r="W43" t="n">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8730,20 +8714,20 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-4375.94</v>
+        <v>16521.71</v>
       </c>
       <c r="AC43" t="n">
-        <v>-13309.6</v>
+        <v>4864.63</v>
       </c>
       <c r="AD43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.67</v>
+        <v>2.4</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8762,14 +8746,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>11.16</v>
       </c>
       <c r="AK43" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8782,11 +8766,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8814,7 +8798,7 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
@@ -8826,7 +8810,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8835,40 +8819,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-1.12</v>
+        <v>3.92</v>
       </c>
       <c r="D44" t="n">
-        <v>5020.029</v>
+        <v>20343.534</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="H44" t="n">
-        <v>61.1</v>
+        <v>63.5</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>7.14</v>
+        <v>-0.47</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8876,42 +8860,42 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-4.41</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-10.21</t>
+          <t>-10.36</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-112.17</t>
+          <t>-133.80</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W44" t="n">
-        <v>-36</v>
+        <v>-25</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8920,20 +8904,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-20343.32</v>
+        <v>-4375.94</v>
       </c>
       <c r="AC44" t="n">
-        <v>-19283.37</v>
+        <v>-13309.6</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-0.05</v>
+        <v>0.67</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8952,14 +8936,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>11.16</v>
       </c>
       <c r="AK44" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -8972,11 +8956,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9016,7 +9000,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9025,40 +9009,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-3.07</v>
+        <v>-1.12</v>
       </c>
       <c r="D45" t="n">
-        <v>5204.13</v>
+        <v>5020.029</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="H45" t="n">
-        <v>61.8</v>
+        <v>61.1</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>6.08</v>
+        <v>3.32</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -9066,42 +9050,42 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-5.85</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>-10.21</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-86.07</t>
+          <t>-112.17</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W45" t="n">
-        <v>-40</v>
+        <v>-36</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9110,20 +9094,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-21721.22</v>
+        <v>-20343.32</v>
       </c>
       <c r="AC45" t="n">
-        <v>-12951.08</v>
+        <v>-19283.37</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.68</v>
+        <v>-0.05</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9142,14 +9126,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>11.16</v>
       </c>
       <c r="AK45" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9162,11 +9146,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9206,7 +9190,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9215,40 +9199,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-3.04</v>
+        <v>-3.07</v>
       </c>
       <c r="D46" t="n">
-        <v>6673.803</v>
+        <v>5204.13</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H46" t="n">
-        <v>63.8</v>
+        <v>61.8</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3.04</v>
+        <v>2.22</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -9256,42 +9240,42 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-5.17</t>
+          <t>-5.85</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-7.95</t>
+          <t>-9.06</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-66.53</t>
+          <t>-86.07</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W46" t="n">
-        <v>-29</v>
+        <v>-40</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9300,20 +9284,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-24373.73</v>
+        <v>-21721.22</v>
       </c>
       <c r="AC46" t="n">
-        <v>-7083.36</v>
+        <v>-12951.08</v>
       </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-2.44</v>
+        <v>-0.68</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9332,14 +9316,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>11.16</v>
       </c>
       <c r="AK46" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9352,11 +9336,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9396,7 +9380,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9405,40 +9389,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1.93</v>
+        <v>-3.04</v>
       </c>
       <c r="D47" t="n">
-        <v>4691.497</v>
+        <v>6673.803</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H47" t="n">
-        <v>65.8</v>
+        <v>63.8</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9446,32 +9430,32 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-4.00</t>
+          <t>-5.17</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-6.80</t>
+          <t>-7.95</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-53.62</t>
+          <t>-66.53</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U47" t="b">
@@ -9481,7 +9465,7 @@
         <v>30</v>
       </c>
       <c r="W47" t="n">
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9490,20 +9474,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-15021.23</v>
+        <v>-24373.73</v>
       </c>
       <c r="AC47" t="n">
-        <v>-12561.97</v>
+        <v>-7083.36</v>
       </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.2</v>
+        <v>-2.44</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9522,14 +9506,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>11.16</v>
       </c>
       <c r="AK47" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9542,11 +9526,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9586,7 +9570,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9595,40 +9579,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-3.71</v>
+        <v>-1.93</v>
       </c>
       <c r="D48" t="n">
-        <v>10178.928</v>
+        <v>4691.497</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H48" t="n">
-        <v>67.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-1.98</v>
+        <v>-4.11</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9636,42 +9620,42 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-4.00</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-6.80</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-45.09</t>
+          <t>-53.62</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W48" t="n">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9680,20 +9664,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>-18306.88</v>
+        <v>-15021.23</v>
       </c>
       <c r="AC48" t="n">
-        <v>-15103.93</v>
+        <v>-12561.97</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9712,14 +9696,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>11.16</v>
       </c>
       <c r="AK48" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9732,11 +9716,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9776,7 +9760,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9785,40 +9769,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.43</v>
+        <v>-3.71</v>
       </c>
       <c r="D49" t="n">
-        <v>8493.882</v>
+        <v>10178.928</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="H49" t="n">
-        <v>69.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-5.93</v>
+        <v>-6.17</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9826,42 +9810,42 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-5.31</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-38.37</t>
+          <t>-45.09</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W49" t="n">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9870,20 +9854,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>-18161.66</v>
+        <v>-18306.88</v>
       </c>
       <c r="AC49" t="n">
-        <v>-18241.35</v>
+        <v>-15103.93</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9902,14 +9886,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>11.16</v>
       </c>
       <c r="AK49" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9922,11 +9906,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9966,7 +9950,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9975,40 +9959,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="D50" t="n">
-        <v>13425.679</v>
+        <v>8493.882</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="H50" t="n">
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-6.38</v>
+        <v>-10.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -10016,42 +10000,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-4.10</t>
+          <t>-5.31</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-35.92</t>
+          <t>-38.37</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W50" t="n">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10060,20 +10044,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>11676.91</v>
+        <v>-18161.66</v>
       </c>
       <c r="AC50" t="n">
-        <v>-11176.52</v>
+        <v>-18241.35</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10092,14 +10076,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>11.16</v>
       </c>
       <c r="AK50" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10112,11 +10096,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10156,7 +10140,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10165,40 +10149,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.16</v>
+        <v>-0.14</v>
       </c>
       <c r="D51" t="n">
-        <v>19960.491</v>
+        <v>13425.679</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="H51" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-6.53</v>
+        <v>-10.76</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10206,42 +10190,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-4.10</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-33.45</t>
+          <t>-35.92</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W51" t="n">
-        <v>-28</v>
+        <v>-8</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10250,20 +10234,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>22220.05</v>
+        <v>11676.91</v>
       </c>
       <c r="AC51" t="n">
-        <v>-20888.38</v>
+        <v>-11176.52</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10282,14 +10266,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>11.16</v>
       </c>
       <c r="AK51" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10302,11 +10286,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10346,7 +10330,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10355,40 +10339,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-4.59</v>
+        <v>2.16</v>
       </c>
       <c r="D52" t="n">
-        <v>12526.571</v>
+        <v>19960.491</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="H52" t="n">
-        <v>68.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-4.26</v>
+        <v>-10.92</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10396,42 +10380,42 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-30.54</t>
+          <t>-33.45</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W52" t="n">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10440,20 +10424,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-9485.18</v>
+        <v>22220.05</v>
       </c>
       <c r="AC52" t="n">
-        <v>-28984.82</v>
+        <v>-20888.38</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.67</v>
+        <v>2.06</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10472,14 +10456,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>11.16</v>
       </c>
       <c r="AK52" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10492,11 +10476,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10536,7 +10520,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10545,40 +10529,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.41</v>
+        <v>-4.59</v>
       </c>
       <c r="D53" t="n">
-        <v>9130.764999999999</v>
+        <v>12526.571</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H53" t="n">
-        <v>71.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-9.27</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10586,42 +10570,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-24.31</t>
+          <t>-30.54</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W53" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10630,20 +10614,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-11005.23</v>
+        <v>-9485.18</v>
       </c>
       <c r="AC53" t="n">
-        <v>-17607.64</v>
+        <v>-28984.82</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10662,14 +10646,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>11.16</v>
       </c>
       <c r="AK53" t="n">
-        <v>68.54000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10682,11 +10666,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>26.67</v>
+        <v>26.21</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">

--- a/Result/checksundangchong.xlsx
+++ b/Result/checksundangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV57"/>
+  <dimension ref="A1:AV53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.89</v>
+        <v>-0.95</v>
       </c>
       <c r="D2" t="n">
-        <v>9617</v>
+        <v>10718</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>15.21</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>156.5</v>
+        <v>155</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,54 +710,54 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-3.66</t>
+          <t>-3.94</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-102.80</t>
+          <t>-163.98</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="T2" t="n">
         <v>-9</v>
       </c>
       <c r="U2" t="n">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -769,20 +769,20 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>-1039.09</v>
+        <v>-1065.74</v>
       </c>
       <c r="AB2" t="n">
-        <v>-185.2</v>
+        <v>-849.0700000000001</v>
       </c>
       <c r="AC2" t="b">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-4.61</v>
+        <v>-0.26</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -801,19 +801,19 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>7.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -879,77 +879,77 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1.89</v>
       </c>
       <c r="D3" t="n">
-        <v>6574</v>
+        <v>9617</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>159.5</v>
+        <v>156.5</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>-1.92</v>
+        <v>-0.97</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-2.64</t>
+          <t>-3.66</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-70.46</t>
+          <t>-102.80</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="T3" t="n">
+        <v>-9</v>
+      </c>
+      <c r="U3" t="n">
         <v>-17</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-20</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -961,20 +961,20 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>-716.95</v>
+        <v>-1039.09</v>
       </c>
       <c r="AB3" t="n">
-        <v>-217.57</v>
+        <v>-185.2</v>
       </c>
       <c r="AC3" t="b">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-2.3</v>
+        <v>-4.61</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -993,19 +993,19 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>7.58</v>
       </c>
       <c r="AK3" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1018,11 +1018,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1071,15 +1071,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7533</v>
+        <v>6574</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1090,55 +1090,55 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-1.92</v>
+        <v>-2.9</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-60.33</t>
+          <t>-70.46</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="U4" t="n">
         <v>-20</v>
@@ -1157,16 +1157,16 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>-746.2</v>
+        <v>-716.95</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.13</v>
+        <v>-217.57</v>
       </c>
       <c r="AC4" t="b">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-2.63</v>
+        <v>-2.3</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1190,14 +1190,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>7.58</v>
       </c>
       <c r="AK4" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1263,77 +1263,77 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.1</v>
+        <v>2.86</v>
       </c>
       <c r="D5" t="n">
-        <v>16698</v>
+        <v>7533</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>155</v>
+        <v>159.5</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.96</v>
+        <v>-2.9</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-49.88</t>
+          <t>-60.33</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="U5" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1345,20 +1345,20 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>-1073.65</v>
+        <v>-746.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>622.3200000000001</v>
+        <v>457.13</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>-2.73</v>
+        <v>-2.63</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1377,19 +1377,19 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>7.58</v>
       </c>
       <c r="AK5" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1455,77 +1455,77 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.17</v>
+        <v>-3.1</v>
       </c>
       <c r="D6" t="n">
-        <v>8852</v>
+        <v>16698</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-15.68</t>
+          <t>-49.88</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="U6" t="n">
-        <v>-26</v>
+        <v>-21</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1533,32 +1533,24 @@
       <c r="W6" t="b">
         <v>0</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>-553.1900000000001</v>
+        <v>-1073.65</v>
       </c>
       <c r="AB6" t="n">
-        <v>709.83</v>
+        <v>622.3200000000001</v>
       </c>
       <c r="AC6" t="b">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-1.78</v>
+        <v>-2.73</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1577,19 +1569,19 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>7.58</v>
       </c>
       <c r="AK6" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1602,11 +1594,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1646,7 +1638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1655,77 +1647,77 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.52</v>
+        <v>-2.17</v>
       </c>
       <c r="D7" t="n">
-        <v>8001</v>
+        <v>8852</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="H7" t="n">
-        <v>163.5</v>
+        <v>160</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-4.47</v>
+        <v>-3.23</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>-15.68</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>-26</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -1745,20 +1737,20 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>1005.54</v>
+        <v>-553.1900000000001</v>
       </c>
       <c r="AB7" t="n">
-        <v>643.33</v>
+        <v>709.83</v>
       </c>
       <c r="AC7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5600000000000001</v>
+        <v>-1.78</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1777,19 +1769,19 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>7.58</v>
       </c>
       <c r="AK7" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1802,11 +1794,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1846,7 +1838,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1855,77 +1847,77 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.38</v>
+        <v>1.52</v>
       </c>
       <c r="D8" t="n">
-        <v>7665</v>
+        <v>8001</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="H8" t="n">
-        <v>161</v>
+        <v>163.5</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-2.88</v>
+        <v>-5.48</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1945,20 +1937,20 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>647.5700000000001</v>
+        <v>1005.54</v>
       </c>
       <c r="AB8" t="n">
-        <v>739.85</v>
+        <v>643.33</v>
       </c>
       <c r="AC8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1977,19 +1969,19 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>7.58</v>
       </c>
       <c r="AK8" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2002,11 +1994,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2046,7 +2038,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2055,77 +2047,77 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.07</v>
+        <v>-2.38</v>
       </c>
       <c r="D9" t="n">
-        <v>10758</v>
+        <v>7665</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="H9" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>-5.43</v>
+        <v>-3.87</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>49.09</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="U9" t="n">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
@@ -2145,20 +2137,20 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>987.3</v>
+        <v>647.5700000000001</v>
       </c>
       <c r="AB9" t="n">
-        <v>1208.09</v>
+        <v>739.85</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2177,19 +2169,19 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>7.58</v>
       </c>
       <c r="AK9" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2202,11 +2194,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2246,7 +2238,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2255,77 +2247,77 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.89</v>
+        <v>-2.07</v>
       </c>
       <c r="D10" t="n">
-        <v>9682</v>
+        <v>10758</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="H10" t="n">
-        <v>168.5</v>
+        <v>165</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>-7.67</v>
+        <v>-6.45</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>49.09</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U10" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -2345,20 +2337,20 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>1388.26</v>
+        <v>987.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>1132.88</v>
+        <v>1208.09</v>
       </c>
       <c r="AC10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2377,19 +2369,19 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>7.58</v>
       </c>
       <c r="AK10" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2402,11 +2394,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2446,7 +2438,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2455,77 +2447,77 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D11" t="n">
-        <v>30249</v>
+        <v>9682</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>167</v>
+        <v>168.5</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>-6.71</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>121.29</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="U11" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -2545,20 +2537,20 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>1146.19</v>
+        <v>1388.26</v>
       </c>
       <c r="AB11" t="n">
-        <v>672.33</v>
+        <v>1132.88</v>
       </c>
       <c r="AC11" t="b">
         <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2577,19 +2569,19 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>7.58</v>
       </c>
       <c r="AK11" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2602,11 +2594,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2646,7 +2638,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2655,77 +2647,77 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.08</v>
+        <v>0.3</v>
       </c>
       <c r="D12" t="n">
-        <v>9920</v>
+        <v>30249</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>166.5</v>
+        <v>167</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-6.39</v>
+        <v>-7.74</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>212.72</t>
+          <t>121.29</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="U12" t="n">
-        <v>-47</v>
+        <v>-28</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -2745,20 +2737,20 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>-428.23</v>
+        <v>1146.19</v>
       </c>
       <c r="AB12" t="n">
-        <v>814.35</v>
+        <v>672.33</v>
       </c>
       <c r="AC12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1.53</v>
+        <v>0.7</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2777,19 +2769,19 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>7.58</v>
       </c>
       <c r="AK12" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2802,11 +2794,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2846,7 +2838,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2855,77 +2847,77 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D13" t="n">
-        <v>9057</v>
+        <v>9920</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>-8.630000000000001</v>
+        <v>-7.42</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>556.19</t>
+          <t>212.72</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="U13" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2945,20 +2937,20 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>821.83</v>
+        <v>-428.23</v>
       </c>
       <c r="AB13" t="n">
-        <v>1024.77</v>
+        <v>814.35</v>
       </c>
       <c r="AC13" t="b">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.2</v>
+        <v>-1.53</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2977,19 +2969,19 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>7.58</v>
       </c>
       <c r="AK13" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -3002,11 +2994,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3046,7 +3038,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3055,77 +3047,77 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="D14" t="n">
-        <v>17560</v>
+        <v>9057</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-6.71</v>
+        <v>-9.68</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-4.74</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1515.46</t>
+          <t>556.19</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -3145,20 +3137,20 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>1394.35</v>
+        <v>821.83</v>
       </c>
       <c r="AB14" t="n">
-        <v>807.8</v>
+        <v>1024.77</v>
       </c>
       <c r="AC14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.73</v>
+        <v>-0.2</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3177,19 +3169,19 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>7.58</v>
       </c>
       <c r="AK14" t="n">
-        <v>34.32</v>
+        <v>33.99</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3202,11 +3194,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>56.62</v>
+        <v>57.37</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3246,86 +3238,86 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.79</v>
+        <v>-2.87</v>
       </c>
       <c r="D15" t="n">
-        <v>8704</v>
+        <v>83835.455</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>164.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-5.11</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-5.48</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-5.70</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>356.85</t>
+          <t>-95.35</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="U15" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -3333,99 +3325,91 @@
       <c r="W15" t="b">
         <v>0</v>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>799.73</v>
+        <v>-59714.64</v>
       </c>
       <c r="AB15" t="n">
-        <v>726.02</v>
+        <v>-67045.22</v>
       </c>
       <c r="AC15" t="b">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>華星光</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>7.58</v>
+        <v>13.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>34.32</v>
+        <v>3.98</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>22.46%</t>
+          <t>21.00%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>18.48%</t>
+          <t>15.86%</t>
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>56.62</v>
+        <v>17.1</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
+          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>華星光-通信網路業-上櫃</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>23.91</v>
+        <v>100.22</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
@@ -3439,7 +3423,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 通信網路 - 主/被動元件</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -3474,21 +3458,21 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-2.94</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3574,14 +3558,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>13.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3594,11 +3578,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3666,21 +3650,21 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-1.09</v>
+        <v>-4.06</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3766,14 +3750,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>13.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3786,11 +3770,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3858,21 +3842,21 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-6.8</v>
+        <v>-9.94</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3958,14 +3942,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>13.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3978,11 +3962,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4050,21 +4034,21 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-8.84</v>
+        <v>-12.04</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4150,14 +4134,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>13.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4170,11 +4154,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4242,21 +4226,21 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-7.62</v>
+        <v>-10.78</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4342,14 +4326,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>13.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4362,11 +4346,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4434,21 +4418,21 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-8.300000000000001</v>
+        <v>-11.48</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4542,14 +4526,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>13.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4562,11 +4546,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4634,21 +4618,21 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-10.61</v>
+        <v>-13.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4742,14 +4726,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>13.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4762,11 +4746,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4834,21 +4818,21 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-11.56</v>
+        <v>-14.85</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4942,14 +4926,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>13.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4962,11 +4946,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -5034,21 +5018,21 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-12.93</v>
+        <v>-16.25</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5142,14 +5126,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>13.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5162,11 +5146,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5234,21 +5218,21 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-13.88</v>
+        <v>-17.23</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5342,14 +5326,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>13.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5362,11 +5346,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5434,21 +5418,21 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-18.23</v>
+        <v>-21.71</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5542,14 +5526,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>13.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5562,11 +5546,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5634,21 +5618,21 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-13.33</v>
+        <v>-16.67</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5742,14 +5726,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>13.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5762,11 +5746,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5806,86 +5790,86 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.24</v>
+        <v>-0.85</v>
       </c>
       <c r="D28" t="n">
-        <v>62501.355</v>
+        <v>31268.628</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>27.93</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.5</v>
+        <v>234</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-13.61</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>108.80</t>
+          <t>-39.39</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>39</v>
+        <v>-28</v>
       </c>
       <c r="U28" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -5893,36 +5877,28 @@
       <c r="W28" t="b">
         <v>0</v>
       </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
-        </is>
-      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>80601.03</v>
+        <v>-77110.57000000001</v>
       </c>
       <c r="AB28" t="n">
-        <v>66234.94</v>
+        <v>-65896.22</v>
       </c>
       <c r="AC28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.22</v>
+        <v>-0.17</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5937,46 +5913,46 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>13.03</v>
+        <v>50.79</v>
       </c>
       <c r="AK28" t="n">
-        <v>4.1</v>
+        <v>3.39</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>21.00%</t>
+          <t>30.27%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>15.86%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -5985,7 +5961,7 @@
         </is>
       </c>
       <c r="AS28" t="n">
-        <v>100.22</v>
+        <v>284.07</v>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
@@ -5994,7 +5970,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -6006,86 +5982,86 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.83</v>
+        <v>-0.84</v>
       </c>
       <c r="D29" t="n">
-        <v>115578.478</v>
+        <v>30707.445</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>27.43</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>83.3</v>
+        <v>236</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>-13.33</v>
+        <v>-0.85</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>152.87</t>
+          <t>-29.69</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>97</v>
+        <v>-30</v>
       </c>
       <c r="U29" t="n">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -6093,36 +6069,28 @@
       <c r="W29" t="b">
         <v>0</v>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
-        </is>
-      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>86481.75</v>
+        <v>-61376.41</v>
       </c>
       <c r="AB29" t="n">
-        <v>63133.06</v>
+        <v>-65833.96000000001</v>
       </c>
       <c r="AC29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.37</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -6142,41 +6110,41 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>13.03</v>
+        <v>50.79</v>
       </c>
       <c r="AK29" t="n">
-        <v>4.1</v>
+        <v>3.39</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>21.00%</t>
+          <t>30.27%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>15.86%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -6185,7 +6153,7 @@
         </is>
       </c>
       <c r="AS29" t="n">
-        <v>100.22</v>
+        <v>284.07</v>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
@@ -6194,7 +6162,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
@@ -6206,7 +6174,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6215,77 +6183,77 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.84</v>
+        <v>-5.4</v>
       </c>
       <c r="D30" t="n">
-        <v>30707.445</v>
+        <v>50327.391</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>27.43</t>
+          <t>44.96</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-1.71</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-29.69</t>
+          <t>-19.66</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="U30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -6297,20 +6265,20 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>-61376.41</v>
+        <v>-58955.93</v>
       </c>
       <c r="AB30" t="n">
-        <v>-65833.96000000001</v>
+        <v>-53199.72</v>
       </c>
       <c r="AC30" t="b">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6329,19 +6297,19 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>50.79</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6354,11 +6322,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6398,7 +6366,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6407,77 +6375,77 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-5.4</v>
+        <v>-0.39</v>
       </c>
       <c r="D31" t="n">
-        <v>50327.391</v>
+        <v>25870.205</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>23.11</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>238</v>
+        <v>251.5</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-0.85</v>
+        <v>-7.48</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-19.66</t>
+          <t>-8.47</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>-32</v>
+        <v>-12</v>
       </c>
       <c r="U31" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -6489,20 +6457,20 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>-58955.93</v>
+        <v>-44134.44</v>
       </c>
       <c r="AB31" t="n">
-        <v>-53199.72</v>
+        <v>-46193.82</v>
       </c>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.11</v>
+        <v>0.04</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -6521,19 +6489,19 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>50.79</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6546,11 +6514,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6578,7 +6546,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6590,7 +6558,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6599,77 +6567,77 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.39</v>
+        <v>2.23</v>
       </c>
       <c r="D32" t="n">
-        <v>25870.205</v>
+        <v>14469.172</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H32" t="n">
-        <v>251.5</v>
+        <v>252.5</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-6.57</v>
+        <v>-7.91</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-8.47</t>
+          <t>-6.47</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="U32" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -6681,20 +6649,20 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>-44134.44</v>
+        <v>-37941.72</v>
       </c>
       <c r="AB32" t="n">
-        <v>-46193.82</v>
+        <v>-29124.83</v>
       </c>
       <c r="AC32" t="b">
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.04</v>
+        <v>-0.3</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -6718,14 +6686,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>50.79</v>
       </c>
       <c r="AK32" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6738,11 +6706,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6770,7 +6738,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6782,7 +6750,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6791,77 +6759,77 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.23</v>
+        <v>1.01</v>
       </c>
       <c r="D33" t="n">
-        <v>14469.172</v>
+        <v>14575.424</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H33" t="n">
-        <v>252.5</v>
+        <v>247</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-6.99</v>
+        <v>-5.56</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-6.47</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="U33" t="n">
-        <v>-15</v>
+        <v>-27</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -6873,20 +6841,20 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>-37941.72</v>
+        <v>-52331.46</v>
       </c>
       <c r="AB33" t="n">
-        <v>-29124.83</v>
+        <v>-46749.68</v>
       </c>
       <c r="AC33" t="b">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.3</v>
+        <v>-0.12</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -6905,19 +6873,19 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>50.79</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6930,11 +6898,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6974,7 +6942,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6983,77 +6951,77 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.01</v>
+        <v>-1.82</v>
       </c>
       <c r="D34" t="n">
-        <v>14575.424</v>
+        <v>23875.171</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.92</v>
+        <v>1.19</v>
       </c>
       <c r="H34" t="n">
-        <v>247</v>
+        <v>244.5</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-4.66</v>
+        <v>-4.49</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-5.39</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U34" t="n">
-        <v>-27</v>
+        <v>-33</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -7065,20 +7033,20 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>-52331.46</v>
+        <v>-70008.25999999999</v>
       </c>
       <c r="AB34" t="n">
-        <v>-46749.68</v>
+        <v>-22629.4</v>
       </c>
       <c r="AC34" t="b">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.12</v>
+        <v>-2.09</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -7097,19 +7065,19 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>50.79</v>
       </c>
       <c r="AK34" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7122,11 +7090,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7166,7 +7134,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7175,74 +7143,74 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1.82</v>
+        <v>-1.57</v>
       </c>
       <c r="D35" t="n">
-        <v>23875.171</v>
+        <v>18242.127</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="H35" t="n">
-        <v>244.5</v>
+        <v>249</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-3.6</v>
+        <v>-6.41</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U35" t="n">
         <v>-33</v>
@@ -7261,16 +7229,16 @@
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>-70008.25999999999</v>
+        <v>-46739.9</v>
       </c>
       <c r="AB35" t="n">
-        <v>-22629.4</v>
+        <v>35357.62</v>
       </c>
       <c r="AC35" t="b">
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>-2.09</v>
+        <v>-2.32</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -7289,19 +7257,19 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>50.79</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7314,11 +7282,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7358,7 +7326,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7367,77 +7335,77 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1.57</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>18242.127</v>
+        <v>15762.398</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="H36" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-5.51</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="U36" t="n">
-        <v>-33</v>
+        <v>-39</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -7449,20 +7417,20 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>-46739.9</v>
+        <v>-48165.22</v>
       </c>
       <c r="AB36" t="n">
-        <v>35357.62</v>
+        <v>55941.11</v>
       </c>
       <c r="AC36" t="b">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>-2.32</v>
+        <v>-1.86</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -7481,19 +7449,19 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>50.79</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7506,11 +7474,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7550,7 +7518,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7559,77 +7527,77 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
       <c r="D37" t="n">
-        <v>15762.398</v>
+        <v>11250.473</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>253</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-7.2</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="U37" t="n">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -7641,20 +7609,20 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>-48165.22</v>
+        <v>-16029.25</v>
       </c>
       <c r="AB37" t="n">
-        <v>55941.11</v>
+        <v>69339.78</v>
       </c>
       <c r="AC37" t="b">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>-1.86</v>
+        <v>-1.23</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -7678,14 +7646,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>50.79</v>
       </c>
       <c r="AK37" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7698,11 +7666,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7742,7 +7710,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7751,77 +7719,77 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1.17</v>
+        <v>-1.53</v>
       </c>
       <c r="D38" t="n">
-        <v>11250.473</v>
+        <v>27921.207</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H38" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-7.2</v>
+        <v>-9.4</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>31.64</t>
+          <t>45.92</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>-40</v>
+        <v>-26</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -7833,20 +7801,20 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>-16029.25</v>
+        <v>-40403.99</v>
       </c>
       <c r="AB38" t="n">
-        <v>69339.78</v>
+        <v>73603.61</v>
       </c>
       <c r="AC38" t="b">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.23</v>
+        <v>-1.55</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -7865,19 +7833,19 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>50.79</v>
       </c>
       <c r="AK38" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7890,11 +7858,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7934,7 +7902,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7943,77 +7911,77 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-1.53</v>
+        <v>1.38</v>
       </c>
       <c r="D39" t="n">
-        <v>27921.207</v>
+        <v>29888.144</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="H39" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>-8.470000000000001</v>
+        <v>-11.11</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>12.81</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>45.92</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>12.97</t>
-        </is>
-      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U39" t="n">
-        <v>-26</v>
+        <v>5</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
@@ -8025,20 +7993,20 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>-40403.99</v>
+        <v>62265.38</v>
       </c>
       <c r="AB39" t="n">
-        <v>73603.61</v>
+        <v>79723.25999999999</v>
       </c>
       <c r="AC39" t="b">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>-1.55</v>
+        <v>-0.22</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -8057,19 +8025,19 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ39" t="n">
         <v>50.79</v>
       </c>
       <c r="AK39" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
@@ -8082,11 +8050,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8114,7 +8082,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV39" t="inlineStr">
@@ -8126,7 +8094,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8135,77 +8103,77 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.38</v>
+        <v>-0.39</v>
       </c>
       <c r="D40" t="n">
-        <v>29888.144</v>
+        <v>20529.87</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>260</v>
+        <v>256.5</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-10.17</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>62.83</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -8217,20 +8185,20 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>62265.38</v>
+        <v>68446.63</v>
       </c>
       <c r="AB40" t="n">
-        <v>79723.25999999999</v>
+        <v>75477.07000000001</v>
       </c>
       <c r="AC40" t="b">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.22</v>
+        <v>-0.09</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -8249,19 +8217,19 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ40" t="n">
         <v>50.79</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8274,11 +8242,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8318,86 +8286,86 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.39</v>
+        <v>-3.53</v>
       </c>
       <c r="D41" t="n">
-        <v>20529.87</v>
+        <v>4634.099</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="H41" t="n">
-        <v>256.5</v>
+        <v>60.5</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>-8.69</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-4.93</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>-1309.83</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="U41" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -8409,29 +8377,29 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>68446.63</v>
+        <v>-14537.37</v>
       </c>
       <c r="AB41" t="n">
-        <v>75477.07000000001</v>
+        <v>-10735.08</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.09</v>
+        <v>-0.35</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -8441,55 +8409,55 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AK41" t="n">
-        <v>3.42</v>
+        <v>63.02</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>17.05</v>
+        <v>25.58</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS41" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AT41" t="inlineStr">
         <is>
@@ -8498,98 +8466,98 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.18</v>
+        <v>-0.8</v>
       </c>
       <c r="D42" t="n">
-        <v>24833.927</v>
+        <v>5273.576</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>257.5</v>
+        <v>62.7</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-9.109999999999999</v>
+        <v>-3.64</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>-4.99</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>111.57</t>
+          <t>-553.24</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="U42" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="V42" t="b">
         <v>0</v>
@@ -8601,29 +8569,29 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AA42" t="n">
-        <v>92621.3</v>
+        <v>10135.34</v>
       </c>
       <c r="AB42" t="n">
-        <v>77736.25</v>
+        <v>-12472.48</v>
       </c>
       <c r="AC42" t="b">
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.19</v>
+        <v>1.81</v>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -8633,55 +8601,55 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ42" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AK42" t="n">
-        <v>3.42</v>
+        <v>63.02</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>17.05</v>
+        <v>25.58</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS42" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AT42" t="inlineStr">
         <is>
@@ -8690,98 +8658,98 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-2.31</v>
+        <v>-3.92</v>
       </c>
       <c r="D43" t="n">
-        <v>37909.432</v>
+        <v>6434.358</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="H43" t="n">
-        <v>254.5</v>
+        <v>63.2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>-7.84</v>
+        <v>-4.46</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>-6.52</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>158.57</t>
+          <t>-247.79</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="U43" t="n">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="V43" t="b">
         <v>0</v>
@@ -8793,29 +8761,29 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AA43" t="n">
-        <v>99362.71000000001</v>
+        <v>10384.33</v>
       </c>
       <c r="AB43" t="n">
-        <v>74722.36</v>
+        <v>-13490.31</v>
       </c>
       <c r="AC43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.33</v>
+        <v>1.77</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -8825,55 +8793,55 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ43" t="n">
-        <v>50.79</v>
+        <v>11.16</v>
       </c>
       <c r="AK43" t="n">
-        <v>3.42</v>
+        <v>63.02</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>30.27%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>17.05</v>
+        <v>25.58</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS43" t="n">
-        <v>284.07</v>
+        <v>18.22</v>
       </c>
       <c r="AT43" t="inlineStr">
         <is>
@@ -8882,19 +8850,19 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8903,77 +8871,77 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="D44" t="n">
-        <v>5273.576</v>
+        <v>17780.761</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="H44" t="n">
-        <v>62.7</v>
+        <v>65.8</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-8.76</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-4.99</t>
+          <t>-7.91</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-553.24</t>
+          <t>-163.47</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="U44" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="V44" t="b">
         <v>0</v>
@@ -8985,20 +8953,20 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AA44" t="n">
-        <v>10135.34</v>
+        <v>11185.59</v>
       </c>
       <c r="AB44" t="n">
-        <v>-12472.48</v>
+        <v>-15312.76</v>
       </c>
       <c r="AC44" t="b">
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -9017,19 +8985,19 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>11.16</v>
       </c>
       <c r="AK44" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9042,11 +9010,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9074,7 +9042,7 @@
       </c>
       <c r="AU44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV44" t="inlineStr">
@@ -9086,7 +9054,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9095,77 +9063,77 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-3.92</v>
+        <v>4.01</v>
       </c>
       <c r="D45" t="n">
-        <v>6434.358</v>
+        <v>17760.488</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.98</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
-        <v>63.2</v>
+        <v>66</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-0.8</v>
+        <v>-9.09</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-6.52</t>
+          <t>-9.35</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-247.79</t>
+          <t>-144.91</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="U45" t="n">
-        <v>29</v>
+        <v>-5</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
@@ -9177,20 +9145,20 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AA45" t="n">
-        <v>10384.33</v>
+        <v>16521.71</v>
       </c>
       <c r="AB45" t="n">
-        <v>-13490.31</v>
+        <v>4864.63</v>
       </c>
       <c r="AC45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -9209,19 +9177,19 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>11.16</v>
       </c>
       <c r="AK45" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9234,11 +9202,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9266,7 +9234,7 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
@@ -9278,7 +9246,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9287,77 +9255,77 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.3</v>
+        <v>3.92</v>
       </c>
       <c r="D46" t="n">
-        <v>17780.761</v>
+        <v>20343.534</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="H46" t="n">
-        <v>65.8</v>
+        <v>63.5</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>-4.94</v>
+        <v>-4.96</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-7.91</t>
+          <t>-10.36</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-163.47</t>
+          <t>-133.80</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="U46" t="n">
-        <v>17</v>
+        <v>-25</v>
       </c>
       <c r="V46" t="b">
         <v>0</v>
@@ -9369,20 +9337,20 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>11185.59</v>
+        <v>-4375.94</v>
       </c>
       <c r="AB46" t="n">
-        <v>-15312.76</v>
+        <v>-13309.6</v>
       </c>
       <c r="AC46" t="b">
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1.73</v>
+        <v>0.67</v>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
@@ -9401,19 +9369,19 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>11.16</v>
       </c>
       <c r="AK46" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9426,11 +9394,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9458,7 +9426,7 @@
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV46" t="inlineStr">
@@ -9470,7 +9438,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9479,77 +9447,77 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.01</v>
+        <v>-1.12</v>
       </c>
       <c r="D47" t="n">
-        <v>17760.488</v>
+        <v>5020.029</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="H47" t="n">
-        <v>66</v>
+        <v>61.1</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-5.26</v>
+        <v>-0.99</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-9.35</t>
+          <t>-10.21</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-144.91</t>
+          <t>-112.17</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="U47" t="n">
-        <v>-5</v>
+        <v>-36</v>
       </c>
       <c r="V47" t="b">
         <v>0</v>
@@ -9561,20 +9529,20 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AA47" t="n">
-        <v>16521.71</v>
+        <v>-20343.32</v>
       </c>
       <c r="AB47" t="n">
-        <v>4864.63</v>
+        <v>-19283.37</v>
       </c>
       <c r="AC47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>2.4</v>
+        <v>-0.05</v>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
@@ -9593,19 +9561,19 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>11.16</v>
       </c>
       <c r="AK47" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9618,11 +9586,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9650,7 +9618,7 @@
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
@@ -9662,7 +9630,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9671,77 +9639,77 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.92</v>
+        <v>-3.07</v>
       </c>
       <c r="D48" t="n">
-        <v>20343.534</v>
+        <v>5204.13</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="H48" t="n">
-        <v>63.5</v>
+        <v>61.8</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>-1.28</v>
+        <v>-2.15</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-5.85</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-10.36</t>
+          <t>-9.06</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-133.80</t>
+          <t>-86.07</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="U48" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="V48" t="b">
         <v>0</v>
@@ -9753,20 +9721,20 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA48" t="n">
-        <v>-4375.94</v>
+        <v>-21721.22</v>
       </c>
       <c r="AB48" t="n">
-        <v>-13309.6</v>
+        <v>-12951.08</v>
       </c>
       <c r="AC48" t="b">
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.67</v>
+        <v>-0.68</v>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
@@ -9785,19 +9753,19 @@
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>11.16</v>
       </c>
       <c r="AK48" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9810,11 +9778,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9854,7 +9822,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9863,77 +9831,77 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-1.12</v>
+        <v>-3.04</v>
       </c>
       <c r="D49" t="n">
-        <v>5020.029</v>
+        <v>6673.803</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="H49" t="n">
-        <v>61.1</v>
+        <v>63.8</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>2.55</v>
+        <v>-5.45</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>-4.41</t>
+          <t>-5.17</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-10.21</t>
+          <t>-7.95</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>18.27</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-112.17</t>
+          <t>-66.53</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U49" t="n">
-        <v>-36</v>
+        <v>-29</v>
       </c>
       <c r="V49" t="b">
         <v>0</v>
@@ -9945,20 +9913,20 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AA49" t="n">
-        <v>-20343.32</v>
+        <v>-24373.73</v>
       </c>
       <c r="AB49" t="n">
-        <v>-19283.37</v>
+        <v>-7083.36</v>
       </c>
       <c r="AC49" t="b">
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>-0.05</v>
+        <v>-2.44</v>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
@@ -9977,19 +9945,19 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>11.16</v>
       </c>
       <c r="AK49" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -10002,11 +9970,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -10046,7 +10014,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10055,77 +10023,77 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-3.07</v>
+        <v>-1.93</v>
       </c>
       <c r="D50" t="n">
-        <v>5204.13</v>
+        <v>4691.497</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="H50" t="n">
-        <v>61.8</v>
+        <v>65.8</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>1.44</v>
+        <v>-8.76</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>-5.85</t>
+          <t>-4.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>-6.80</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>19.77</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-86.07</t>
+          <t>-53.62</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U50" t="n">
-        <v>-40</v>
+        <v>-17</v>
       </c>
       <c r="V50" t="b">
         <v>0</v>
@@ -10137,20 +10105,20 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AA50" t="n">
-        <v>-21721.22</v>
+        <v>-15021.23</v>
       </c>
       <c r="AB50" t="n">
-        <v>-12951.08</v>
+        <v>-12561.97</v>
       </c>
       <c r="AC50" t="b">
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>-0.68</v>
+        <v>-0.2</v>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
@@ -10169,19 +10137,19 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>11.16</v>
       </c>
       <c r="AK50" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10194,11 +10162,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10238,7 +10206,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10247,77 +10215,77 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-3.04</v>
+        <v>-3.71</v>
       </c>
       <c r="D51" t="n">
-        <v>6673.803</v>
+        <v>10178.928</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="H51" t="n">
-        <v>63.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-1.75</v>
+        <v>-10.91</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>-5.17</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-7.95</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>18.27</t>
+          <t>21.38</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-66.53</t>
+          <t>-45.09</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U51" t="n">
-        <v>-29</v>
+        <v>-12</v>
       </c>
       <c r="V51" t="b">
         <v>0</v>
@@ -10329,20 +10297,20 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AA51" t="n">
-        <v>-24373.73</v>
+        <v>-18306.88</v>
       </c>
       <c r="AB51" t="n">
-        <v>-7083.36</v>
+        <v>-15103.93</v>
       </c>
       <c r="AC51" t="b">
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>-2.44</v>
+        <v>-0.21</v>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
@@ -10361,19 +10329,19 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>11.16</v>
       </c>
       <c r="AK51" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10386,11 +10354,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10430,7 +10398,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10439,77 +10407,77 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-1.93</v>
+        <v>-0.43</v>
       </c>
       <c r="D52" t="n">
-        <v>4691.497</v>
+        <v>8493.882</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="H52" t="n">
-        <v>65.8</v>
+        <v>69.7</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-4.94</v>
+        <v>-15.21</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>-4.00</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-6.80</t>
+          <t>-5.31</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>19.77</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-53.62</t>
+          <t>-38.37</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U52" t="n">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="V52" t="b">
         <v>0</v>
@@ -10521,20 +10489,20 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AA52" t="n">
-        <v>-15021.23</v>
+        <v>-18161.66</v>
       </c>
       <c r="AB52" t="n">
-        <v>-12561.97</v>
+        <v>-18241.35</v>
       </c>
       <c r="AC52" t="b">
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
@@ -10553,19 +10521,19 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>11.16</v>
       </c>
       <c r="AK52" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10578,11 +10546,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10622,7 +10590,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10631,77 +10599,77 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-3.71</v>
+        <v>-0.14</v>
       </c>
       <c r="D53" t="n">
-        <v>10178.928</v>
+        <v>13425.679</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="H53" t="n">
-        <v>67.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>-7.02</v>
+        <v>-15.7</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-4.10</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>21.38</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-45.09</t>
+          <t>-35.92</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U53" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="V53" t="b">
         <v>0</v>
@@ -10713,20 +10681,20 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AA53" t="n">
-        <v>-18306.88</v>
+        <v>11676.91</v>
       </c>
       <c r="AB53" t="n">
-        <v>-15103.93</v>
+        <v>-11176.52</v>
       </c>
       <c r="AC53" t="b">
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>-0.21</v>
+        <v>2.04</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
@@ -10745,19 +10713,19 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>11.16</v>
       </c>
       <c r="AK53" t="n">
-        <v>65.31</v>
+        <v>63.02</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10770,11 +10738,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10806,774 +10774,6 @@
         </is>
       </c>
       <c r="AV53" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-05-22</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="D54" t="n">
-        <v>8493.882</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H54" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>-11.16</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>5274</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>-1.43</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>-0.51</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>-5.31</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>22.47</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>-38.37</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>26</v>
-      </c>
-      <c r="U54" t="n">
-        <v>-21</v>
-      </c>
-      <c r="V54" t="b">
-        <v>0</v>
-      </c>
-      <c r="W54" t="b">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="AA54" t="n">
-        <v>-18161.66</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>-18241.35</v>
-      </c>
-      <c r="AC54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>華經</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="AJ54" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>65.31</v>
-      </c>
-      <c r="AL54" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AN54" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="AP54" t="inlineStr">
-        <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ54" t="inlineStr">
-        <is>
-          <t>華經-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AS54" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="AT54" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU54" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV54" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-05-21</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2468</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-       